--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="570">
   <si>
     <t>Pāli1</t>
   </si>
@@ -289,9 +289,6 @@
     <t>bāla 4</t>
   </si>
   <si>
-    <t>magga 1</t>
-  </si>
-  <si>
     <t>kāya 1</t>
   </si>
   <si>
@@ -301,15 +298,9 @@
     <t>cora</t>
   </si>
   <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
     <t>attha 5</t>
   </si>
   <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
     <t>patta 1</t>
   </si>
   <si>
@@ -535,15 +526,6 @@
     <t>kassaka</t>
   </si>
   <si>
-    <t>ahosiṃ</t>
-  </si>
-  <si>
-    <t>ahu 1</t>
-  </si>
-  <si>
-    <t>ahosi</t>
-  </si>
-  <si>
     <t>uppajjati 1</t>
   </si>
   <si>
@@ -694,6 +676,9 @@
     <t>ājīva</t>
   </si>
   <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
     <t>adhamma 2</t>
   </si>
   <si>
@@ -745,12 +730,6 @@
     <t>me 3</t>
   </si>
   <si>
-    <t>ahesuṃ</t>
-  </si>
-  <si>
-    <t>ahuvattha</t>
-  </si>
-  <si>
     <t>khaṇati</t>
   </si>
   <si>
@@ -781,12 +760,12 @@
     <t>saddhiṃ</t>
   </si>
   <si>
+    <t>saha 2</t>
+  </si>
+  <si>
     <t>no 1</t>
   </si>
   <si>
-    <t>saha 2</t>
-  </si>
-  <si>
     <t>mā 1</t>
   </si>
   <si>
@@ -835,6 +814,9 @@
     <t>vo 4</t>
   </si>
   <si>
+    <t>nābhijānāti</t>
+  </si>
+  <si>
     <t>ottappī</t>
   </si>
   <si>
@@ -1132,9 +1114,6 @@
     <t>fool; immature person; ignorant person</t>
   </si>
   <si>
-    <t>road; path; track</t>
-  </si>
-  <si>
     <t>body; physical body; physical process; lit. collection</t>
   </si>
   <si>
@@ -1144,15 +1123,9 @@
     <t>thief</t>
   </si>
   <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
     <t>need (for); want (for)</t>
   </si>
   <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
     <t>bowl; alms bowl</t>
   </si>
   <si>
@@ -1378,141 +1351,135 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
+    <t>takes place; arises; appears</t>
+  </si>
+  <si>
+    <t>arouses; exhibits; produces; brings into being</t>
+  </si>
+  <si>
+    <t>practices; follows a course of action; follows a method; is intent on</t>
+  </si>
+  <si>
+    <t>is disenchanted; is disinterested; is disillusioned</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>dispels; drives out; rejects; pushes away</t>
+  </si>
+  <si>
+    <t>cuts; cuts off; severs</t>
+  </si>
+  <si>
+    <t>they are; there are</t>
+  </si>
+  <si>
+    <t>there is</t>
+  </si>
+  <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
+    <t>you (all) must be; may you (all) be</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
+    <t>addressed; said (to)</t>
+  </si>
+  <si>
+    <t>may you all be! you all must be!</t>
+  </si>
+  <si>
+    <t>may they be! they must be!</t>
+  </si>
+  <si>
+    <t>may it be! he must be</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>replied; assented; agreed</t>
+  </si>
+  <si>
+    <t>asked; enquired</t>
+  </si>
+  <si>
+    <t>arose; appeared</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with)</t>
+  </si>
+  <si>
+    <t>greeted; exchanged pleasantries; was friendly (with)</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to)</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
+    <t>went; travelled</t>
+  </si>
+  <si>
+    <t>monk; sage; hermit; holy man</t>
+  </si>
+  <si>
+    <t>householder; landowner; lit. house master</t>
+  </si>
+  <si>
+    <t>rice paddy</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>perfect peace of mind; stability; stillness; composure; collectedness of mind; lit. putting together</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
+  </si>
+  <si>
+    <t>sickness; disease; lit. upset; overturn</t>
+  </si>
+  <si>
+    <t>family; relative; lit. known</t>
+  </si>
+  <si>
+    <t>do! make! may you preform; you must do</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
+  </si>
+  <si>
+    <t>stood; stayed; remained</t>
+  </si>
+  <si>
+    <t>answered; explained</t>
+  </si>
+  <si>
     <t>I was</t>
   </si>
   <si>
-    <t>was</t>
-  </si>
-  <si>
-    <t>was; existed; became</t>
-  </si>
-  <si>
-    <t>takes place; arises; appears</t>
-  </si>
-  <si>
-    <t>arouses; exhibits; produces; brings into being</t>
-  </si>
-  <si>
-    <t>practices; follows a course of action; follows a method; is intent on</t>
-  </si>
-  <si>
-    <t>is disenchanted; is disinterested; is disillusioned</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>dispels; drives out; rejects; pushes away</t>
-  </si>
-  <si>
-    <t>cuts; cuts off; severs</t>
-  </si>
-  <si>
-    <t>they are; there are</t>
-  </si>
-  <si>
-    <t>there is</t>
-  </si>
-  <si>
-    <t>we are</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
-    <t>you (all) must be; may you (all) be</t>
-  </si>
-  <si>
-    <t>I am</t>
-  </si>
-  <si>
-    <t>addressed; said (to)</t>
-  </si>
-  <si>
-    <t>may you all be! you all must be!</t>
-  </si>
-  <si>
-    <t>may they be! they must be!</t>
-  </si>
-  <si>
-    <t>may it be! he must be</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>replied; assented; agreed</t>
-  </si>
-  <si>
-    <t>asked; enquired</t>
-  </si>
-  <si>
-    <t>arose; appeared</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with)</t>
-  </si>
-  <si>
-    <t>greeted; exchanged pleasantries; was friendly (with)</t>
-  </si>
-  <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to)</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
-    <t>went; travelled</t>
-  </si>
-  <si>
-    <t>monk; sage; hermit; holy man</t>
-  </si>
-  <si>
-    <t>householder; landowner; lit. house master</t>
-  </si>
-  <si>
-    <t>rice paddy</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>perfect peace of mind; stability; stillness; composure; collectedness of mind; lit. putting together</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
-    <t>sickness; disease; lit. upset; overturn</t>
-  </si>
-  <si>
-    <t>family; relative; lit. known</t>
-  </si>
-  <si>
-    <t>do! make! may you preform; you must do</t>
-  </si>
-  <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
-    <t>stood; stayed; remained</t>
-  </si>
-  <si>
-    <t>answered; explained</t>
-  </si>
-  <si>
     <t>one was; it was</t>
   </si>
   <si>
@@ -1531,6 +1498,9 @@
     <t>livelihood; way of earning a living</t>
   </si>
   <si>
+    <t>one who has thoroughly understood; being enlightened; the Buddha</t>
+  </si>
+  <si>
     <t>false teaching; against the teaching</t>
   </si>
   <si>
@@ -1579,12 +1549,6 @@
     <t>for me; to me</t>
   </si>
   <si>
-    <t>there were; they were</t>
-  </si>
-  <si>
-    <t>you all were</t>
-  </si>
-  <si>
     <t>digs; uproots; destroys</t>
   </si>
   <si>
@@ -1615,12 +1579,12 @@
     <t>together (with); with</t>
   </si>
   <si>
+    <t>with; together (with); accompanied (by)</t>
+  </si>
+  <si>
     <t>no; not</t>
   </si>
   <si>
-    <t>with; together (with); accompanied (by)</t>
-  </si>
-  <si>
     <t>do not; may one not</t>
   </si>
   <si>
@@ -1669,6 +1633,9 @@
     <t>your</t>
   </si>
   <si>
+    <t>does not know; does not understand</t>
+  </si>
+  <si>
     <t>afraid of wrong; feeling shame; conscientious</t>
   </si>
   <si>
@@ -1700,9 +1667,6 @@
   </si>
   <si>
     <t>āti-pr</t>
-  </si>
-  <si>
-    <t>ahosi-aor</t>
   </si>
   <si>
     <t>atthi-pr</t>
@@ -2117,7 +2081,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E274"/>
+  <dimension ref="A1:E268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2145,16 +2109,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E2" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2162,16 +2126,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D3" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E3" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2179,16 +2143,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D4" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E4" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2196,16 +2160,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D5" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E5" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2213,16 +2177,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D6" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E6" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2230,16 +2194,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D7" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2247,16 +2211,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D8" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E8" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2264,16 +2228,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D9" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E9" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2281,16 +2245,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D10" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E10" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2298,16 +2262,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D11" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E11" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2315,16 +2279,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D12" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E12" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2332,16 +2296,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D13" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E13" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2349,16 +2313,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D14" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E14" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2366,16 +2330,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C15" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D15" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E15" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2383,16 +2347,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C16" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D16" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E16" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2400,16 +2364,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C17" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D17" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E17" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2417,16 +2381,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C18" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D18" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E18" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2434,16 +2398,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C19" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D19" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E19" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2451,16 +2415,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C20" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D20" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E20" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2468,16 +2432,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C21" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D21" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E21" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2485,16 +2449,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C22" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D22" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E22" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2502,16 +2466,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C23" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D23" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E23" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2519,16 +2483,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C24" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D24" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E24" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2536,16 +2500,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C25" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D25" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E25" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2553,16 +2517,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C26" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D26" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E26" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2570,16 +2534,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C27" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D27" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E27" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2587,16 +2551,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C28" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D28" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E28" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2604,16 +2568,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C29" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D29" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E29" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2621,16 +2585,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C30" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D30" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E30" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2638,16 +2602,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C31" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D31" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E31" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2655,16 +2619,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C32" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D32" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E32" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2672,16 +2636,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C33" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D33" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E33" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2689,16 +2653,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C34" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D34" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E34" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2706,16 +2670,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C35" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D35" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E35" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2723,16 +2687,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C36" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D36" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E36" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2740,16 +2704,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C37" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D37" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E37" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2757,16 +2721,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C38" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D38" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E38" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2774,16 +2738,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C39" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D39" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E39" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2791,16 +2755,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C40" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D40" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E40" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2808,16 +2772,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C41" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D41" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E41" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2825,16 +2789,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C42" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D42" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E42" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2842,16 +2806,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C43" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D43" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E43" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2859,16 +2823,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C44" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D44" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E44" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2876,16 +2840,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C45" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D45" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E45" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2893,16 +2857,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C46" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D46" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E46" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2910,16 +2874,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C47" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D47" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E47" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2927,16 +2891,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C48" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D48" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E48" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2944,16 +2908,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C49" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D49" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E49" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2961,16 +2925,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C50" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D50" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E50" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2978,16 +2942,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C51" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D51" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E51" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2995,16 +2959,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C52" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D52" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E52" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3012,16 +2976,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C53" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D53" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E53" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3029,16 +2993,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C54" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D54" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E54" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3046,16 +3010,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C55" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D55" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E55" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3063,16 +3027,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C56" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D56" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E56" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3080,16 +3044,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C57" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D57" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E57" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3097,16 +3061,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C58" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D58" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E58" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3114,16 +3078,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C59" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D59" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E59" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3131,16 +3095,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C60" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D60" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E60" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3148,16 +3112,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C61" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D61" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E61" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3165,16 +3129,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C62" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D62" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E62" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3182,16 +3146,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C63" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D63" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E63" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3199,16 +3163,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C64" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D64" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E64" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3216,16 +3180,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C65" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D65" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E65" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3233,16 +3197,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C66" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D66" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E66" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3250,16 +3214,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C67" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D67" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E67" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3267,16 +3231,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C68" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D68" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E68" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3284,16 +3248,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C69" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D69" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E69" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3301,16 +3265,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C70" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D70" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E70" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3318,16 +3282,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C71" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D71" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E71" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3335,16 +3299,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C72" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D72" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E72" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3352,16 +3316,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C73" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D73" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E73" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3369,16 +3333,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C74" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D74" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E74" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3386,16 +3350,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C75" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D75" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E75" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3403,16 +3367,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C76" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D76" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E76" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3420,16 +3384,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C77" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D77" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E77" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3437,16 +3401,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C78" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D78" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E78" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3454,16 +3418,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C79" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D79" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E79" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3471,16 +3435,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C80" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D80" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E80" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3488,16 +3452,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C81" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D81" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E81" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3505,16 +3469,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C82" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D82" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E82" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3522,16 +3486,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C83" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D83" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E83" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3539,16 +3503,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C84" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D84" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E84" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3556,16 +3520,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C85" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D85" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E85" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3573,16 +3537,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C86" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D86" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E86" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3590,16 +3554,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C87" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D87" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E87" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3607,16 +3571,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C88" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D88" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E88" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3624,16 +3588,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C89" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D89" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E89" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3641,16 +3605,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C90" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D90" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E90" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3658,16 +3622,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C91" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D91" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E91" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3675,16 +3639,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C92" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D92" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E92" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3692,16 +3656,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C93" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D93" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E93" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3709,16 +3673,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C94" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D94" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E94" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3726,16 +3690,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C95" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D95" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E95" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3743,16 +3707,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C96" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D96" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E96" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3760,16 +3724,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C97" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D97" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E97" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3777,16 +3741,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C98" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D98" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E98" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3794,16 +3758,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C99" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D99" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E99" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3811,16 +3775,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C100" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D100" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E100" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3828,16 +3792,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C101" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D101" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E101" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3845,16 +3809,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C102" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D102" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E102" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3862,16 +3826,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C103" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D103" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E103" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3879,16 +3843,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C104" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D104" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E104" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3896,16 +3860,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C105" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D105" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E105" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3913,16 +3877,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C106" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D106" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E106" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3930,16 +3894,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C107" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D107" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E107" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3947,16 +3911,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C108" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D108" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E108" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3964,16 +3928,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C109" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D109" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E109" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3981,16 +3945,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C110" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D110" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E110" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3998,16 +3962,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C111" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D111" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E111" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4015,16 +3979,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C112" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D112" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E112" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4032,16 +3996,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C113" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D113" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E113" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4049,16 +4013,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C114" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D114" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E114" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4066,16 +4030,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C115" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D115" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="E115" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4083,16 +4047,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C116" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D116" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="E116" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4100,16 +4064,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C117" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D117" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E117" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4117,16 +4081,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C118" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D118" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="E118" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4134,16 +4098,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C119" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D119" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="E119" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4151,16 +4115,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C120" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D120" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="E120" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4168,16 +4132,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C121" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D121" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="E121" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4185,16 +4149,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C122" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D122" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="E122" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4202,16 +4166,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C123" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D123" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E123" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4219,16 +4183,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C124" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D124" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E124" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4236,16 +4200,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C125" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D125" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E125" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4253,16 +4217,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C126" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D126" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E126" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4270,16 +4234,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C127" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D127" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E127" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4287,16 +4251,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C128" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D128" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E128" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4304,16 +4268,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C129" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D129" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E129" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4321,16 +4285,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C130" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D130" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E130" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4338,16 +4302,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C131" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D131" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E131" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4355,16 +4319,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C132" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D132" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E132" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4372,16 +4336,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C133" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D133" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E133" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4389,16 +4353,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C134" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D134" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E134" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4406,16 +4370,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C135" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D135" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E135" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4423,16 +4387,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C136" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D136" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E136" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4440,16 +4404,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C137" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D137" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E137" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4457,16 +4421,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C138" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D138" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E138" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4474,16 +4438,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C139" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D139" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E139" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4491,16 +4455,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C140" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D140" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E140" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4508,16 +4472,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C141" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D141" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E141" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4525,16 +4489,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C142" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D142" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E142" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4542,16 +4506,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C143" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D143" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E143" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4559,16 +4523,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C144" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D144" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E144" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4576,16 +4540,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C145" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D145" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E145" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4593,16 +4557,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C146" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D146" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E146" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4610,16 +4574,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C147" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D147" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="E147" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4627,16 +4591,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C148" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D148" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="E148" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4644,16 +4608,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C149" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D149" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="E149" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4661,16 +4625,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C150" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D150" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="E150" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4678,16 +4642,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C151" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D151" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="E151" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4695,16 +4659,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C152" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D152" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="E152" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4712,16 +4676,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C153" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D153" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="E153" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4729,16 +4693,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C154" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D154" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="E154" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4746,16 +4710,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C155" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D155" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="E155" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4763,16 +4727,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C156" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D156" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="E156" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4780,16 +4744,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C157" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D157" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="E157" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4797,16 +4761,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C158" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D158" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="E158" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4814,16 +4778,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C159" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D159" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="E159" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4831,16 +4795,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C160" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D160" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="E160" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4848,16 +4812,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C161" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D161" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="E161" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4865,16 +4829,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C162" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D162" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="E162" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4882,16 +4846,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C163" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D163" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E163" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4899,16 +4863,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C164" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D164" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E164" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4916,16 +4880,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C165" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D165" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E165" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4933,16 +4897,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C166" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D166" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E166" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4950,16 +4914,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C167" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D167" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="E167" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4967,16 +4931,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C168" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D168" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="E168" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4984,16 +4948,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C169" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D169" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="E169" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5001,16 +4965,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C170" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D170" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="E170" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5018,16 +4982,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C171" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D171" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="E171" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5035,16 +4999,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C172" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D172" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="E172" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5052,16 +5016,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C173" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D173" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E173" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5069,16 +5033,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C174" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D174" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E174" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5086,16 +5050,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C175" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D175" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="E175" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5103,16 +5067,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C176" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D176" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="E176" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5120,16 +5084,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C177" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D177" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="E177" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5137,16 +5101,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C178" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D178" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="E178" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5154,16 +5118,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C179" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D179" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="E179" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5171,16 +5135,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C180" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D180" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="E180" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5188,16 +5152,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C181" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D181" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="E181" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5205,16 +5169,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C182" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="D182" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="E182" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5222,16 +5186,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C183" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D183" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="E183" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5239,16 +5203,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C184" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D184" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="E184" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5256,16 +5220,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C185" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D185" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="E185" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5273,16 +5237,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C186" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D186" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="E186" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5290,16 +5254,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C187" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D187" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="E187" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5307,16 +5271,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C188" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D188" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="E188" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5324,16 +5288,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C189" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D189" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="E189" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5341,16 +5305,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C190" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D190" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="E190" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5358,16 +5322,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C191" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D191" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="E191" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5375,16 +5339,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C192" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D192" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="E192" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5392,16 +5356,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C193" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D193" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="E193" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5409,16 +5373,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C194" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D194" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="E194" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5426,16 +5390,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C195" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D195" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="E195" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5443,16 +5407,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C196" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D196" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="E196" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5460,16 +5424,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C197" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D197" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="E197" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5477,16 +5441,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C198" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D198" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="E198" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5494,16 +5458,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C199" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D199" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="E199" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5511,16 +5475,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C200" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D200" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="E200" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5528,16 +5492,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C201" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D201" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="E201" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5545,16 +5509,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C202" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D202" t="s">
+        <v>556</v>
+      </c>
+      <c r="E202" t="s">
         <v>568</v>
-      </c>
-      <c r="E202" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5562,16 +5526,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C203" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D203" t="s">
+        <v>556</v>
+      </c>
+      <c r="E203" t="s">
         <v>568</v>
-      </c>
-      <c r="E203" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5579,16 +5543,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C204" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D204" t="s">
+        <v>556</v>
+      </c>
+      <c r="E204" t="s">
         <v>568</v>
-      </c>
-      <c r="E204" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5596,16 +5560,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C205" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D205" t="s">
+        <v>556</v>
+      </c>
+      <c r="E205" t="s">
         <v>568</v>
-      </c>
-      <c r="E205" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5613,16 +5577,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C206" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D206" t="s">
+        <v>557</v>
+      </c>
+      <c r="E206" t="s">
         <v>568</v>
-      </c>
-      <c r="E206" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5630,16 +5594,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C207" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D207" t="s">
+        <v>558</v>
+      </c>
+      <c r="E207" t="s">
         <v>568</v>
-      </c>
-      <c r="E207" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5647,16 +5611,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C208" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D208" t="s">
+        <v>558</v>
+      </c>
+      <c r="E208" t="s">
         <v>568</v>
-      </c>
-      <c r="E208" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5664,16 +5628,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C209" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D209" t="s">
+        <v>558</v>
+      </c>
+      <c r="E209" t="s">
         <v>568</v>
-      </c>
-      <c r="E209" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5681,16 +5645,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C210" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D210" t="s">
+        <v>559</v>
+      </c>
+      <c r="E210" t="s">
         <v>568</v>
-      </c>
-      <c r="E210" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5698,16 +5662,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C211" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D211" t="s">
+        <v>559</v>
+      </c>
+      <c r="E211" t="s">
         <v>568</v>
-      </c>
-      <c r="E211" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5715,16 +5679,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C212" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D212" t="s">
+        <v>545</v>
+      </c>
+      <c r="E212" t="s">
         <v>569</v>
-      </c>
-      <c r="E212" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5732,16 +5696,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C213" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D213" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="E213" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5749,16 +5713,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C214" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D214" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="E214" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5766,16 +5730,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C215" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D215" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="E215" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5783,16 +5747,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C216" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="D216" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="E216" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5800,16 +5764,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C217" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D217" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="E217" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5817,16 +5781,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C218" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D218" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E218" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5834,16 +5798,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C219" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D219" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E219" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5851,16 +5815,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C220" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D220" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E220" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5868,16 +5832,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C221" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D221" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E221" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5885,16 +5849,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C222" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D222" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E222" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5902,16 +5866,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C223" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D223" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E223" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5919,16 +5883,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C224" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D224" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E224" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5936,16 +5900,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C225" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D225" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E225" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5953,16 +5917,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C226" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D226" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E226" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5970,16 +5934,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C227" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D227" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E227" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5987,16 +5951,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C228" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D228" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="E228" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6004,16 +5968,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C229" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="D229" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="E229" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6021,16 +5985,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C230" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D230" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="E230" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6038,16 +6002,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C231" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D231" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="E231" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6055,16 +6019,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C232" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D232" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="E232" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6072,16 +6036,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C233" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D233" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="E233" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6089,16 +6053,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C234" t="s">
         <v>510</v>
       </c>
       <c r="D234" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="E234" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6106,16 +6070,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C235" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D235" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="E235" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6123,16 +6087,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C236" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D236" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="E236" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6140,16 +6104,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C237" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D237" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="E237" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6157,16 +6121,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C238" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D238" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="E238" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6174,16 +6138,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C239" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D239" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="E239" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6191,16 +6155,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C240" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D240" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="E240" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6208,16 +6172,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C241" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D241" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="E241" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6225,16 +6189,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C242" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D242" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E242" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6242,16 +6206,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C243" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D243" t="s">
-        <v>558</v>
+        <v>277</v>
       </c>
       <c r="E243" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6259,16 +6223,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C244" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D244" t="s">
-        <v>558</v>
+        <v>277</v>
       </c>
       <c r="E244" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6276,16 +6240,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C245" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D245" t="s">
-        <v>564</v>
+        <v>277</v>
       </c>
       <c r="E245" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6293,16 +6257,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C246" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D246" t="s">
-        <v>559</v>
+        <v>277</v>
       </c>
       <c r="E246" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6310,16 +6274,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C247" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D247" t="s">
-        <v>559</v>
+        <v>277</v>
       </c>
       <c r="E247" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6327,16 +6291,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C248" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D248" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E248" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6344,16 +6308,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C249" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D249" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E249" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6361,16 +6325,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C250" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D250" t="s">
-        <v>283</v>
+        <v>561</v>
       </c>
       <c r="E250" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6378,16 +6342,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C251" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D251" t="s">
-        <v>283</v>
+        <v>561</v>
       </c>
       <c r="E251" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6395,16 +6359,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C252" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D252" t="s">
-        <v>283</v>
+        <v>561</v>
       </c>
       <c r="E252" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6412,16 +6376,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C253" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D253" t="s">
-        <v>283</v>
+        <v>562</v>
       </c>
       <c r="E253" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6429,16 +6393,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C254" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D254" t="s">
-        <v>283</v>
+        <v>562</v>
       </c>
       <c r="E254" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6446,16 +6410,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C255" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D255" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="E255" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6463,16 +6427,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C256" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D256" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="E256" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6480,16 +6444,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C257" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D257" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="E257" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6497,16 +6461,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C258" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D258" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="E258" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6514,16 +6478,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C259" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D259" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="E259" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6531,16 +6495,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C260" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D260" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="E260" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6548,16 +6512,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C261" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D261" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="E261" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6565,16 +6529,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C262" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D262" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="E262" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6582,16 +6546,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C263" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D263" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="E263" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6599,16 +6563,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C264" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D264" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="E264" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6616,16 +6580,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C265" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D265" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="E265" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6633,16 +6597,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C266" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D266" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="E266" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6650,16 +6614,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C267" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D267" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="E267" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6667,118 +6631,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C268" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D268" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="E268" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" t="s">
-        <v>272</v>
-      </c>
-      <c r="B269" t="s">
-        <v>282</v>
-      </c>
-      <c r="C269" t="s">
-        <v>550</v>
-      </c>
-      <c r="D269" t="s">
-        <v>575</v>
-      </c>
-      <c r="E269" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="A270" t="s">
-        <v>273</v>
-      </c>
-      <c r="B270" t="s">
-        <v>285</v>
-      </c>
-      <c r="C270" t="s">
-        <v>551</v>
-      </c>
-      <c r="D270" t="s">
-        <v>576</v>
-      </c>
-      <c r="E270" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271" t="s">
-        <v>274</v>
-      </c>
-      <c r="B271" t="s">
-        <v>285</v>
-      </c>
-      <c r="C271" t="s">
-        <v>552</v>
-      </c>
-      <c r="D271" t="s">
-        <v>576</v>
-      </c>
-      <c r="E271" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" t="s">
-        <v>275</v>
-      </c>
-      <c r="B272" t="s">
-        <v>285</v>
-      </c>
-      <c r="C272" t="s">
-        <v>553</v>
-      </c>
-      <c r="D272" t="s">
-        <v>576</v>
-      </c>
-      <c r="E272" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" t="s">
-        <v>276</v>
-      </c>
-      <c r="B273" t="s">
-        <v>285</v>
-      </c>
-      <c r="C273" t="s">
-        <v>554</v>
-      </c>
-      <c r="D273" t="s">
-        <v>576</v>
-      </c>
-      <c r="E273" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274" t="s">
-        <v>277</v>
-      </c>
-      <c r="B274" t="s">
-        <v>278</v>
-      </c>
-      <c r="C274" t="s">
-        <v>555</v>
-      </c>
-      <c r="D274" t="s">
-        <v>577</v>
-      </c>
-      <c r="E274" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="600">
   <si>
     <t>Pāli1</t>
   </si>
@@ -46,12 +46,36 @@
     <t>sāvaka</t>
   </si>
   <si>
+    <t>adhigama</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
     <t>loka 2</t>
   </si>
   <si>
     <t>sagga 2</t>
   </si>
   <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 2</t>
+  </si>
+  <si>
+    <t>nakha</t>
+  </si>
+  <si>
+    <t>loma</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
     <t>vinaya 1</t>
   </si>
   <si>
@@ -76,6 +100,9 @@
     <t>puggala</t>
   </si>
   <si>
+    <t>uposatha</t>
+  </si>
+  <si>
     <t>bhava 2</t>
   </si>
   <si>
@@ -142,6 +169,9 @@
     <t>sakuṇa</t>
   </si>
   <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
     <t>niraya</t>
   </si>
   <si>
@@ -268,6 +298,9 @@
     <t>paribbājaka</t>
   </si>
   <si>
+    <t>rukkha</t>
+  </si>
+  <si>
     <t>buddha 1</t>
   </si>
   <si>
@@ -289,6 +322,9 @@
     <t>bāla 4</t>
   </si>
   <si>
+    <t>magga 1</t>
+  </si>
+  <si>
     <t>kāya 1</t>
   </si>
   <si>
@@ -298,9 +334,15 @@
     <t>cora</t>
   </si>
   <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
     <t>attha 5</t>
   </si>
   <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
     <t>patta 1</t>
   </si>
   <si>
@@ -334,9 +376,6 @@
     <t>thera 2</t>
   </si>
   <si>
-    <t>dhamma 3</t>
-  </si>
-  <si>
     <t>dhamma 9</t>
   </si>
   <si>
@@ -412,6 +451,9 @@
     <t>vadati 1</t>
   </si>
   <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
     <t>rakkhati 1</t>
   </si>
   <si>
@@ -643,6 +685,9 @@
     <t>ñāti</t>
   </si>
   <si>
+    <t>karoti</t>
+  </si>
+  <si>
     <t>karohi</t>
   </si>
   <si>
@@ -661,6 +706,9 @@
     <t>āsi 1</t>
   </si>
   <si>
+    <t>taca 1</t>
+  </si>
+  <si>
     <t>kāra 2</t>
   </si>
   <si>
@@ -670,9 +718,6 @@
     <t>dava</t>
   </si>
   <si>
-    <t>taca 1</t>
-  </si>
-  <si>
     <t>ājīva</t>
   </si>
   <si>
@@ -871,12 +916,36 @@
     <t>disciple; pupil; lit. hearer</t>
   </si>
   <si>
+    <t>arrival (at); attainment (of); reaching (of)</t>
+  </si>
+  <si>
+    <t>method; system; (right) path</t>
+  </si>
+  <si>
+    <t>surpassing; overcoming; going beyond</t>
+  </si>
+  <si>
     <t>world; plane of existence</t>
   </si>
   <si>
     <t>heaven; state of happiness</t>
   </si>
   <si>
+    <t>distinction; attainment</t>
+  </si>
+  <si>
+    <t>tooth; tusk; fang</t>
+  </si>
+  <si>
+    <t>a nail; a claw</t>
+  </si>
+  <si>
+    <t>the hair on the body; pelt</t>
+  </si>
+  <si>
+    <t>hair of the head</t>
+  </si>
+  <si>
     <t>discipline; training; lit. leading out (from unwholesome)</t>
   </si>
   <si>
@@ -901,6 +970,9 @@
     <t>an individual; a person</t>
   </si>
   <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
     <t>being; existence; becoming</t>
   </si>
   <si>
@@ -967,6 +1039,9 @@
     <t>bird</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>hell; lit. no good fortune</t>
   </si>
   <si>
@@ -1093,6 +1168,9 @@
     <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
   </si>
   <si>
+    <t>tree</t>
+  </si>
+  <si>
     <t>the Buddha; Awakened One</t>
   </si>
   <si>
@@ -1114,6 +1192,9 @@
     <t>fool; immature person; ignorant person</t>
   </si>
   <si>
+    <t>road; path; track</t>
+  </si>
+  <si>
     <t>body; physical body; physical process; lit. collection</t>
   </si>
   <si>
@@ -1123,9 +1204,15 @@
     <t>thief</t>
   </si>
   <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
     <t>need (for); want (for)</t>
   </si>
   <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
     <t>bowl; alms bowl</t>
   </si>
   <si>
@@ -1159,9 +1246,6 @@
     <t>elder; senior monk; monk with 10 or more vassa; lit. lasting</t>
   </si>
   <si>
-    <t>mental phenomena; mind object</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
@@ -1237,6 +1321,9 @@
     <t>says (to); speaks (to); tells (to)</t>
   </si>
   <si>
+    <t>recites</t>
+  </si>
+  <si>
     <t>wards off; prevents; guards against</t>
   </si>
   <si>
@@ -1465,6 +1552,9 @@
     <t>family; relative; lit. known</t>
   </si>
   <si>
+    <t>does; makes; acts; performs; builds</t>
+  </si>
+  <si>
     <t>do! make! may you preform; you must do</t>
   </si>
   <si>
@@ -1483,6 +1573,9 @@
     <t>one was; it was</t>
   </si>
   <si>
+    <t>skin</t>
+  </si>
+  <si>
     <t>deed; action; service</t>
   </si>
   <si>
@@ -1490,9 +1583,6 @@
   </si>
   <si>
     <t>pleasure; fun; play; sport</t>
-  </si>
-  <si>
-    <t>skin</t>
   </si>
   <si>
     <t>livelihood; way of earning a living</t>
@@ -2081,7 +2171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E268"/>
+  <dimension ref="A1:E283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2109,16 +2199,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="D2" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E2" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2126,16 +2216,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E3" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2143,16 +2233,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E4" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2160,16 +2250,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C5" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E5" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2177,16 +2267,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D6" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E6" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2194,16 +2284,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D7" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E7" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2211,16 +2301,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C8" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="D8" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E8" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2228,16 +2318,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C9" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="D9" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E9" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2245,16 +2335,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="D10" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E10" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2262,16 +2352,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C11" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="D11" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E11" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2279,16 +2369,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C12" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="D12" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E12" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2296,16 +2386,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="D13" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E13" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2313,16 +2403,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="D14" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E14" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2330,16 +2420,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C15" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="D15" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E15" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2347,16 +2437,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C16" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="D16" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E16" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2364,16 +2454,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C17" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="D17" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E17" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2381,16 +2471,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D18" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E18" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2398,16 +2488,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C19" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="D19" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E19" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2415,16 +2505,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C20" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="D20" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E20" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2432,16 +2522,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C21" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="D21" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E21" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2449,16 +2539,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C22" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="D22" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E22" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2466,16 +2556,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C23" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="D23" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E23" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2483,16 +2573,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C24" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="D24" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E24" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2500,16 +2590,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C25" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D25" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E25" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2517,16 +2607,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C26" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="D26" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E26" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2534,16 +2624,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C27" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="D27" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E27" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2551,16 +2641,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C28" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="D28" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E28" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2568,16 +2658,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C29" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="D29" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E29" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2585,16 +2675,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C30" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="D30" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E30" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2602,16 +2692,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C31" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="D31" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E31" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2619,16 +2709,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C32" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="D32" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E32" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2636,16 +2726,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C33" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="D33" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E33" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2653,16 +2743,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C34" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="D34" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E34" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2670,16 +2760,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C35" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="D35" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E35" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2687,16 +2777,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C36" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="D36" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E36" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2704,16 +2794,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C37" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="D37" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E37" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2721,16 +2811,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C38" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="D38" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E38" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2738,16 +2828,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C39" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="D39" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E39" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2755,16 +2845,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C40" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="D40" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E40" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2772,16 +2862,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C41" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="D41" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E41" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2789,16 +2879,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C42" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="D42" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E42" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2806,16 +2896,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C43" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="D43" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E43" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2823,16 +2913,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C44" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="D44" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E44" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2840,16 +2930,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C45" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="D45" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E45" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2857,16 +2947,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C46" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="D46" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E46" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2874,16 +2964,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C47" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="D47" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E47" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2891,16 +2981,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C48" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="D48" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E48" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2908,16 +2998,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C49" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="D49" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E49" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2925,16 +3015,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C50" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="D50" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E50" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2942,16 +3032,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C51" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="D51" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E51" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2959,16 +3049,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C52" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D52" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E52" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2976,16 +3066,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C53" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="D53" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E53" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2993,16 +3083,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C54" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="D54" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E54" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3010,16 +3100,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C55" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="D55" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E55" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3027,16 +3117,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C56" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="D56" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E56" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3044,16 +3134,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C57" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D57" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E57" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3061,16 +3151,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C58" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="D58" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E58" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3078,16 +3168,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C59" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="D59" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E59" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3095,16 +3185,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C60" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="D60" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E60" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3112,16 +3202,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C61" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="D61" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E61" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3129,16 +3219,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C62" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="D62" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E62" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3146,16 +3236,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C63" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="D63" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E63" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3163,16 +3253,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C64" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="D64" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E64" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3180,16 +3270,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C65" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="D65" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E65" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3197,16 +3287,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C66" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="D66" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E66" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3214,16 +3304,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C67" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="D67" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E67" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3231,16 +3321,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C68" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="D68" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E68" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3248,16 +3338,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C69" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="D69" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E69" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3265,16 +3355,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C70" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="D70" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E70" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3282,16 +3372,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C71" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="D71" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E71" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3299,16 +3389,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C72" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="D72" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E72" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3316,16 +3406,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C73" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="D73" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E73" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3333,16 +3423,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C74" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="D74" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E74" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3350,16 +3440,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C75" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="D75" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E75" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3367,16 +3457,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C76" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="D76" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E76" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3384,16 +3474,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C77" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="D77" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E77" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3401,16 +3491,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C78" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="D78" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E78" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3418,16 +3508,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C79" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="D79" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E79" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3435,16 +3525,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C80" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="D80" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E80" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3452,16 +3542,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C81" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="D81" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E81" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3469,16 +3559,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C82" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="D82" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E82" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3486,16 +3576,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C83" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="D83" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E83" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3503,16 +3593,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C84" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="D84" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E84" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3520,16 +3610,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C85" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D85" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E85" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3537,16 +3627,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C86" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="D86" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E86" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3554,16 +3644,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C87" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="D87" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E87" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3571,16 +3661,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C88" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="D88" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E88" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3588,16 +3678,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C89" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="D89" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E89" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3605,16 +3695,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C90" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="D90" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E90" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3622,16 +3712,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C91" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="D91" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E91" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3639,16 +3729,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C92" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="D92" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E92" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3656,16 +3746,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C93" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="D93" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E93" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3673,16 +3763,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C94" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="D94" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E94" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3690,16 +3780,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C95" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="D95" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E95" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3707,16 +3797,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C96" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="D96" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E96" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3724,16 +3814,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C97" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="D97" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E97" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3741,16 +3831,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C98" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="D98" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E98" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3758,16 +3848,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C99" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="D99" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E99" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3775,16 +3865,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C100" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="D100" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E100" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3792,16 +3882,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C101" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="D101" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E101" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3809,16 +3899,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C102" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="D102" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E102" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3826,16 +3916,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C103" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="D103" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E103" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3843,16 +3933,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C104" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="D104" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E104" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3860,16 +3950,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C105" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="D105" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E105" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3877,16 +3967,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C106" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="D106" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E106" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3894,16 +3984,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C107" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="D107" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E107" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3911,16 +4001,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C108" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="D108" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E108" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3928,16 +4018,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C109" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="D109" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E109" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3945,16 +4035,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C110" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="D110" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E110" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3962,16 +4052,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C111" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="D111" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E111" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3979,16 +4069,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C112" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="D112" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E112" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3996,16 +4086,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C113" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="D113" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E113" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4013,16 +4103,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C114" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="D114" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E114" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4030,16 +4120,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C115" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="D115" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="E115" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4047,16 +4137,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C116" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="D116" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="E116" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4064,16 +4154,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C117" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="D117" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E117" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4081,16 +4171,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C118" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D118" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E118" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4098,16 +4188,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C119" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="D119" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="E119" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4115,16 +4205,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C120" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="D120" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="E120" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4132,16 +4222,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C121" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="D121" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="E121" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4149,16 +4239,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C122" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="D122" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="E122" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4166,16 +4256,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C123" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="D123" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="E123" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4183,16 +4273,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C124" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="D124" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="E124" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4200,16 +4290,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C125" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D125" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="E125" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4217,16 +4307,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C126" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="D126" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="E126" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4234,16 +4324,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C127" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="D127" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="E127" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4251,16 +4341,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C128" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="D128" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
       <c r="E128" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4268,16 +4358,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C129" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="D129" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
       <c r="E129" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4285,16 +4375,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C130" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D130" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="E130" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4302,16 +4392,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C131" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="D131" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="E131" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4319,16 +4409,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C132" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="D132" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="E132" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4336,16 +4426,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C133" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="D133" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="E133" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4353,16 +4443,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C134" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="D134" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="E134" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4370,16 +4460,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C135" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="D135" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="E135" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4387,16 +4477,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C136" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="D136" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="E136" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4404,16 +4494,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C137" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="D137" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="E137" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4421,16 +4511,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C138" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="D138" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="E138" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4438,16 +4528,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C139" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="D139" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="E139" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4455,16 +4545,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C140" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="D140" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="E140" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4472,16 +4562,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C141" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="D141" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="E141" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4489,16 +4579,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C142" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="D142" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="E142" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4506,16 +4596,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C143" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="D143" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="E143" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4523,16 +4613,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C144" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="D144" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="E144" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4540,16 +4630,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C145" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="D145" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="E145" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4557,16 +4647,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C146" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="D146" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="E146" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4574,16 +4664,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C147" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="D147" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
       <c r="E147" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4591,16 +4681,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C148" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="D148" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
       <c r="E148" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4608,16 +4698,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C149" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="D149" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
       <c r="E149" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4625,16 +4715,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C150" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="D150" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
       <c r="E150" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4642,16 +4732,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C151" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="D151" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="E151" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4659,16 +4749,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C152" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="D152" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="E152" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4676,16 +4766,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C153" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="D153" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="E153" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4693,16 +4783,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C154" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="D154" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="E154" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4710,16 +4800,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C155" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="D155" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="E155" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4727,16 +4817,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C156" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="D156" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="E156" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4744,16 +4834,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C157" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="D157" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="E157" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4761,16 +4851,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C158" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="D158" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="E158" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4778,16 +4868,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C159" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="D159" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="E159" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4795,16 +4885,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C160" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="D160" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
       <c r="E160" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4812,16 +4902,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C161" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="D161" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="E161" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4829,16 +4919,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C162" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="D162" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="E162" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4846,16 +4936,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C163" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="D163" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="E163" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4863,16 +4953,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C164" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="D164" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="E164" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4880,16 +4970,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="C165" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="D165" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="E165" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4897,16 +4987,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C166" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="D166" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="E166" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4914,16 +5004,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C167" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="D167" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="E167" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4931,16 +5021,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C168" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D168" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="E168" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4948,16 +5038,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C169" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="D169" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="E169" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4965,16 +5055,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C170" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="D170" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="E170" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4982,16 +5072,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C171" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="D171" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="E171" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4999,16 +5089,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C172" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D172" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="E172" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5016,16 +5106,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C173" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D173" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="E173" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5033,16 +5123,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C174" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="D174" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="E174" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5050,16 +5140,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C175" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="D175" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="E175" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5067,16 +5157,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C176" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="D176" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="E176" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5084,16 +5174,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C177" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="D177" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="E177" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5101,16 +5191,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C178" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="D178" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="E178" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5118,16 +5208,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C179" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="D179" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="E179" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5135,16 +5225,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C180" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="D180" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="E180" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5152,16 +5242,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C181" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="D181" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="E181" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5169,16 +5259,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C182" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="D182" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="E182" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5186,16 +5276,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C183" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="D183" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="E183" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5203,16 +5293,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C184" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="D184" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="E184" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5220,16 +5310,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C185" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="D185" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="E185" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5237,16 +5327,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C186" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="D186" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="E186" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5254,16 +5344,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C187" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="D187" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
       <c r="E187" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5271,16 +5361,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C188" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="D188" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
       <c r="E188" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5288,16 +5378,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C189" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="D189" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="E189" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5305,16 +5395,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C190" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="D190" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="E190" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5322,16 +5412,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C191" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="D191" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="E191" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5339,16 +5429,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C192" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="D192" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="E192" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5356,16 +5446,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C193" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="D193" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="E193" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5373,16 +5463,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C194" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="D194" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="E194" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5390,16 +5480,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C195" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="D195" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="E195" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5407,16 +5497,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C196" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="D196" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="E196" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5424,16 +5514,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="C197" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="D197" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="E197" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5441,16 +5531,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="C198" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="D198" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="E198" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5458,16 +5548,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="C199" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="D199" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="E199" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5475,16 +5565,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C200" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D200" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="E200" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5492,16 +5582,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C201" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="D201" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="E201" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5509,16 +5599,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C202" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="D202" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="E202" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5526,16 +5616,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C203" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="D203" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="E203" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5543,16 +5633,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C204" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="D204" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="E204" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5560,16 +5650,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C205" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="D205" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="E205" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5577,16 +5667,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="C206" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="D206" t="s">
-        <v>557</v>
+        <v>584</v>
       </c>
       <c r="E206" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5594,16 +5684,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C207" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="D207" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="E207" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5611,16 +5701,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C208" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="D208" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="E208" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5628,16 +5718,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C209" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="D209" t="s">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="E209" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5645,16 +5735,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C210" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="D210" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
       <c r="E210" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5662,16 +5752,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C211" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="D211" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
       <c r="E211" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5679,16 +5769,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C212" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="D212" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="E212" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5696,16 +5786,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C213" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="D213" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="E213" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5713,16 +5803,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C214" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="D214" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="E214" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5730,16 +5820,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C215" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="D215" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="E215" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5747,16 +5837,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C216" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="D216" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="E216" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5764,16 +5854,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C217" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="D217" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="E217" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5781,16 +5871,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C218" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="D218" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="E218" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5798,16 +5888,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C219" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="D219" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="E219" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5815,16 +5905,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C220" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="D220" t="s">
-        <v>545</v>
+        <v>587</v>
       </c>
       <c r="E220" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5832,16 +5922,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="C221" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="D221" t="s">
-        <v>545</v>
+        <v>587</v>
       </c>
       <c r="E221" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5849,16 +5939,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C222" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="D222" t="s">
-        <v>545</v>
+        <v>588</v>
       </c>
       <c r="E222" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5866,16 +5956,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C223" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="D223" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="E223" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5883,16 +5973,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C224" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="D224" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="E224" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5900,16 +5990,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C225" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="D225" t="s">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="E225" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5917,16 +6007,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C226" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="D226" t="s">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="E226" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5934,16 +6024,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C227" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="D227" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="E227" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5951,16 +6041,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C228" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="D228" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="E228" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5968,16 +6058,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C229" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="D229" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="E229" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5985,16 +6075,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C230" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="D230" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="E230" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6002,16 +6092,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C231" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="D231" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="E231" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6019,16 +6109,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C232" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="D232" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="E232" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6036,16 +6126,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C233" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="D233" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="E233" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6053,16 +6143,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C234" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="D234" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="E234" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6070,16 +6160,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C235" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="D235" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="E235" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6087,16 +6177,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C236" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="D236" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="E236" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6104,16 +6194,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C237" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="D237" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="E237" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6121,16 +6211,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="C238" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="D238" t="s">
-        <v>552</v>
+        <v>590</v>
       </c>
       <c r="E238" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6138,16 +6228,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C239" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="D239" t="s">
-        <v>548</v>
+        <v>590</v>
       </c>
       <c r="E239" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6155,16 +6245,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C240" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="D240" t="s">
-        <v>548</v>
+        <v>590</v>
       </c>
       <c r="E240" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6172,16 +6262,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="C241" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="D241" t="s">
-        <v>554</v>
+        <v>590</v>
       </c>
       <c r="E241" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6189,16 +6279,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="C242" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="D242" t="s">
-        <v>554</v>
+        <v>590</v>
       </c>
       <c r="E242" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6206,16 +6296,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C243" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="D243" t="s">
-        <v>277</v>
+        <v>590</v>
       </c>
       <c r="E243" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6223,16 +6313,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C244" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="D244" t="s">
-        <v>277</v>
+        <v>590</v>
       </c>
       <c r="E244" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6240,16 +6330,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C245" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="D245" t="s">
-        <v>277</v>
+        <v>590</v>
       </c>
       <c r="E245" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6257,16 +6347,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C246" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="D246" t="s">
-        <v>277</v>
+        <v>590</v>
       </c>
       <c r="E246" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6274,16 +6364,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C247" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="D247" t="s">
-        <v>277</v>
+        <v>590</v>
       </c>
       <c r="E247" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6291,16 +6381,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C248" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="D248" t="s">
-        <v>561</v>
+        <v>590</v>
       </c>
       <c r="E248" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6308,16 +6398,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C249" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="D249" t="s">
-        <v>561</v>
+        <v>590</v>
       </c>
       <c r="E249" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6325,16 +6415,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C250" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="D250" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="E250" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6342,16 +6432,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C251" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="D251" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="E251" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6359,16 +6449,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C252" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="D252" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="E252" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6376,16 +6466,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C253" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="D253" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="E253" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6393,16 +6483,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C254" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="D254" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="E254" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6410,16 +6500,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C255" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="D255" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="E255" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6427,16 +6517,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C256" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="D256" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="E256" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6444,16 +6534,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C257" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="D257" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="E257" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6461,16 +6551,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C258" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="D258" t="s">
-        <v>563</v>
+        <v>292</v>
       </c>
       <c r="E258" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6478,16 +6568,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C259" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="D259" t="s">
-        <v>563</v>
+        <v>292</v>
       </c>
       <c r="E259" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6495,16 +6585,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C260" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="D260" t="s">
-        <v>563</v>
+        <v>292</v>
       </c>
       <c r="E260" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6512,16 +6602,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C261" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="D261" t="s">
-        <v>563</v>
+        <v>292</v>
       </c>
       <c r="E261" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6529,16 +6619,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C262" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="D262" t="s">
-        <v>563</v>
+        <v>292</v>
       </c>
       <c r="E262" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6546,16 +6636,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="C263" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="D263" t="s">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="E263" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6563,16 +6653,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C264" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="D264" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="E264" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6580,16 +6670,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C265" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="D265" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="E265" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6597,16 +6687,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C266" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="D266" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="E266" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6614,16 +6704,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C267" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="D267" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="E267" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6631,16 +6721,271 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
+        <v>293</v>
+      </c>
+      <c r="C268" t="s">
+        <v>559</v>
+      </c>
+      <c r="D268" t="s">
+        <v>592</v>
+      </c>
+      <c r="E268" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
         <v>272</v>
       </c>
-      <c r="C268" t="s">
-        <v>544</v>
-      </c>
-      <c r="D268" t="s">
+      <c r="B269" t="s">
+        <v>293</v>
+      </c>
+      <c r="C269" t="s">
+        <v>560</v>
+      </c>
+      <c r="D269" t="s">
+        <v>592</v>
+      </c>
+      <c r="E269" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>273</v>
+      </c>
+      <c r="B270" t="s">
+        <v>291</v>
+      </c>
+      <c r="C270" t="s">
+        <v>561</v>
+      </c>
+      <c r="D270" t="s">
+        <v>593</v>
+      </c>
+      <c r="E270" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>274</v>
+      </c>
+      <c r="B271" t="s">
+        <v>291</v>
+      </c>
+      <c r="C271" t="s">
+        <v>562</v>
+      </c>
+      <c r="D271" t="s">
+        <v>593</v>
+      </c>
+      <c r="E271" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>275</v>
+      </c>
+      <c r="B272" t="s">
+        <v>291</v>
+      </c>
+      <c r="C272" t="s">
+        <v>563</v>
+      </c>
+      <c r="D272" t="s">
+        <v>593</v>
+      </c>
+      <c r="E272" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>276</v>
+      </c>
+      <c r="B273" t="s">
+        <v>291</v>
+      </c>
+      <c r="C273" t="s">
+        <v>564</v>
+      </c>
+      <c r="D273" t="s">
+        <v>593</v>
+      </c>
+      <c r="E273" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>277</v>
+      </c>
+      <c r="B274" t="s">
+        <v>291</v>
+      </c>
+      <c r="C274" t="s">
         <v>565</v>
       </c>
-      <c r="E268" t="s">
+      <c r="D274" t="s">
+        <v>593</v>
+      </c>
+      <c r="E274" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>278</v>
+      </c>
+      <c r="B275" t="s">
+        <v>291</v>
+      </c>
+      <c r="C275" t="s">
+        <v>566</v>
+      </c>
+      <c r="D275" t="s">
+        <v>593</v>
+      </c>
+      <c r="E275" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>279</v>
+      </c>
+      <c r="B276" t="s">
+        <v>291</v>
+      </c>
+      <c r="C276" t="s">
+        <v>567</v>
+      </c>
+      <c r="D276" t="s">
+        <v>593</v>
+      </c>
+      <c r="E276" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>280</v>
+      </c>
+      <c r="B277" t="s">
+        <v>291</v>
+      </c>
+      <c r="C277" t="s">
+        <v>568</v>
+      </c>
+      <c r="D277" t="s">
+        <v>593</v>
+      </c>
+      <c r="E277" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>281</v>
+      </c>
+      <c r="B278" t="s">
+        <v>288</v>
+      </c>
+      <c r="C278" t="s">
         <v>569</v>
+      </c>
+      <c r="D278" t="s">
+        <v>580</v>
+      </c>
+      <c r="E278" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>282</v>
+      </c>
+      <c r="B279" t="s">
+        <v>294</v>
+      </c>
+      <c r="C279" t="s">
+        <v>570</v>
+      </c>
+      <c r="D279" t="s">
+        <v>594</v>
+      </c>
+      <c r="E279" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>283</v>
+      </c>
+      <c r="B280" t="s">
+        <v>294</v>
+      </c>
+      <c r="C280" t="s">
+        <v>571</v>
+      </c>
+      <c r="D280" t="s">
+        <v>594</v>
+      </c>
+      <c r="E280" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>284</v>
+      </c>
+      <c r="B281" t="s">
+        <v>294</v>
+      </c>
+      <c r="C281" t="s">
+        <v>572</v>
+      </c>
+      <c r="D281" t="s">
+        <v>594</v>
+      </c>
+      <c r="E281" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>285</v>
+      </c>
+      <c r="B282" t="s">
+        <v>294</v>
+      </c>
+      <c r="C282" t="s">
+        <v>573</v>
+      </c>
+      <c r="D282" t="s">
+        <v>594</v>
+      </c>
+      <c r="E282" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>286</v>
+      </c>
+      <c r="B283" t="s">
+        <v>287</v>
+      </c>
+      <c r="C283" t="s">
+        <v>574</v>
+      </c>
+      <c r="D283" t="s">
+        <v>595</v>
+      </c>
+      <c r="E283" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -55,12 +55,6 @@
     <t>samatikkama</t>
   </si>
   <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>sagga 2</t>
-  </si>
-  <si>
     <t>visesa 1</t>
   </si>
   <si>
@@ -322,9 +316,6 @@
     <t>bāla 4</t>
   </si>
   <si>
-    <t>magga 1</t>
-  </si>
-  <si>
     <t>kāya 1</t>
   </si>
   <si>
@@ -466,6 +457,9 @@
     <t>yācati</t>
   </si>
   <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
     <t>tasati 1</t>
   </si>
   <si>
@@ -511,6 +505,9 @@
     <t>ceteti 2</t>
   </si>
   <si>
+    <t>paṭisaṃvedeti</t>
+  </si>
+  <si>
     <t>vedeti 1</t>
   </si>
   <si>
@@ -529,6 +526,9 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>paṭiggaṇhāti 1</t>
+  </si>
+  <si>
     <t>paṭibhāti</t>
   </si>
   <si>
@@ -925,12 +925,6 @@
     <t>surpassing; overcoming; going beyond</t>
   </si>
   <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>heaven; state of happiness</t>
-  </si>
-  <si>
     <t>distinction; attainment</t>
   </si>
   <si>
@@ -1192,9 +1186,6 @@
     <t>fool; immature person; ignorant person</t>
   </si>
   <si>
-    <t>road; path; track</t>
-  </si>
-  <si>
     <t>body; physical body; physical process; lit. collection</t>
   </si>
   <si>
@@ -1261,7 +1252,7 @@
     <t>attention; mental application; lit. making in mind</t>
   </si>
   <si>
-    <t>(vinaya) offence requiring involvement of the Community from start to finish</t>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
     <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>
@@ -1336,6 +1327,9 @@
     <t>asks (for); begs (for) requests</t>
   </si>
   <si>
+    <t>obtains; receives; gets</t>
+  </si>
+  <si>
     <t>is afraid (of); fears</t>
   </si>
   <si>
@@ -1381,6 +1375,9 @@
     <t>intends; will (to); lit. thinks</t>
   </si>
   <si>
+    <t>undergoes; feels; experiences</t>
+  </si>
+  <si>
     <t>feels; experiences; senses</t>
   </si>
   <si>
@@ -1397,6 +1394,9 @@
   </si>
   <si>
     <t>he must hear! may he listen!</t>
+  </si>
+  <si>
+    <t>takes; accepts; receives</t>
   </si>
   <si>
     <t>comes to mind; occurs (to); appears; becomes evident</t>
@@ -4296,7 +4296,7 @@
         <v>418</v>
       </c>
       <c r="D125" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E125" t="s">
         <v>596</v>
@@ -4313,7 +4313,7 @@
         <v>419</v>
       </c>
       <c r="D126" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E126" t="s">
         <v>596</v>
@@ -4333,7 +4333,7 @@
         <v>575</v>
       </c>
       <c r="E127" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4347,10 +4347,10 @@
         <v>421</v>
       </c>
       <c r="D128" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E128" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4364,10 +4364,10 @@
         <v>422</v>
       </c>
       <c r="D129" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E129" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4375,13 +4375,13 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C130" t="s">
         <v>423</v>
       </c>
       <c r="D130" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E130" t="s">
         <v>597</v>
@@ -4392,13 +4392,13 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C131" t="s">
         <v>424</v>
       </c>
       <c r="D131" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E131" t="s">
         <v>597</v>
@@ -4409,13 +4409,13 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C132" t="s">
         <v>425</v>
       </c>
       <c r="D132" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E132" t="s">
         <v>597</v>
@@ -4460,7 +4460,7 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C135" t="s">
         <v>428</v>
@@ -4511,7 +4511,7 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C138" t="s">
         <v>431</v>
@@ -4834,7 +4834,7 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C157" t="s">
         <v>450</v>
@@ -4868,13 +4868,13 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C159" t="s">
         <v>452</v>
       </c>
       <c r="D159" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E159" t="s">
         <v>597</v>
@@ -4891,7 +4891,7 @@
         <v>453</v>
       </c>
       <c r="D160" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E160" t="s">
         <v>597</v>
@@ -4953,13 +4953,13 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C164" t="s">
         <v>457</v>
       </c>
       <c r="D164" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E164" t="s">
         <v>597</v>
@@ -4970,13 +4970,13 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C165" t="s">
         <v>458</v>
       </c>
       <c r="D165" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E165" t="s">
         <v>597</v>
@@ -4987,7 +4987,7 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C166" t="s">
         <v>459</v>
@@ -5004,7 +5004,7 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C167" t="s">
         <v>460</v>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="608">
   <si>
     <t>Pāli1</t>
   </si>
@@ -508,6 +508,9 @@
     <t>paṭisaṃvedeti</t>
   </si>
   <si>
+    <t>paṭiggaheti</t>
+  </si>
+  <si>
     <t>vedeti 1</t>
   </si>
   <si>
@@ -571,6 +574,9 @@
     <t>uppajjati 1</t>
   </si>
   <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
@@ -580,6 +586,9 @@
     <t>nibbindati</t>
   </si>
   <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
     <t>bhuñjati 1</t>
   </si>
   <si>
@@ -691,6 +700,9 @@
     <t>karohi</t>
   </si>
   <si>
+    <t>abhisaṅkharoti</t>
+  </si>
+  <si>
     <t>abhāsi 1</t>
   </si>
   <si>
@@ -979,7 +991,7 @@
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
-    <t>black gram; Vigna mungo</t>
+    <t>bean</t>
   </si>
   <si>
     <t>child; son</t>
@@ -1378,6 +1390,9 @@
     <t>undergoes; feels; experiences</t>
   </si>
   <si>
+    <t>takes; accepts; receives</t>
+  </si>
+  <si>
     <t>feels; experiences; senses</t>
   </si>
   <si>
@@ -1396,9 +1411,6 @@
     <t>he must hear! may he listen!</t>
   </si>
   <si>
-    <t>takes; accepts; receives</t>
-  </si>
-  <si>
     <t>comes to mind; occurs (to); appears; becomes evident</t>
   </si>
   <si>
@@ -1441,6 +1453,9 @@
     <t>takes place; arises; appears</t>
   </si>
   <si>
+    <t>is reborn in; re-arises; lit. goes towards</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
@@ -1450,6 +1465,9 @@
     <t>is disenchanted; is disinterested; is disillusioned</t>
   </si>
   <si>
+    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
+  </si>
+  <si>
     <t>eats; consumes</t>
   </si>
   <si>
@@ -1540,7 +1558,7 @@
     <t>seer; sage</t>
   </si>
   <si>
-    <t>perfect peace of mind; stability; stillness; composure; collectedness of mind; lit. putting together</t>
+    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure; lit. putting together</t>
   </si>
   <si>
     <t>chief; chieftain; headman; leader</t>
@@ -1558,6 +1576,9 @@
     <t>do! make! may you preform; you must do</t>
   </si>
   <si>
+    <t>does; performs; creates; constructs</t>
+  </si>
+  <si>
     <t>spoke; said</t>
   </si>
   <si>
@@ -1778,6 +1799,9 @@
   </si>
   <si>
     <t>karoti-pr</t>
+  </si>
+  <si>
+    <t>oti-pr</t>
   </si>
   <si>
     <t>āsi-aor</t>
@@ -2171,7 +2195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E283"/>
+  <dimension ref="A1:E287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2199,16 +2223,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D2" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E2" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2216,16 +2240,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D3" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E3" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2233,16 +2257,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D4" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E4" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2250,16 +2274,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D5" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E5" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2267,16 +2291,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D6" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E6" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2284,16 +2308,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2301,16 +2325,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C8" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D8" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E8" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2318,16 +2342,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D9" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E9" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2335,16 +2359,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C10" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D10" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E10" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2352,16 +2376,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C11" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D11" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E11" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2369,16 +2393,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D12" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E12" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2386,16 +2410,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D13" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E13" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2403,16 +2427,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C14" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D14" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E14" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2420,16 +2444,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C15" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D15" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E15" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2437,16 +2461,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D16" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E16" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2454,16 +2478,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C17" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D17" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E17" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2471,16 +2495,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C18" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D18" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E18" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2488,16 +2512,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C19" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D19" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E19" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2505,16 +2529,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C20" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D20" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E20" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2522,16 +2546,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C21" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D21" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E21" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2539,16 +2563,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C22" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D22" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E22" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2556,16 +2580,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C23" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D23" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E23" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2573,16 +2597,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C24" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D24" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E24" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2590,16 +2614,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C25" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D25" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E25" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2607,16 +2631,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C26" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D26" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E26" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2624,16 +2648,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C27" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D27" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E27" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2641,16 +2665,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C28" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D28" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E28" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2658,16 +2682,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C29" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D29" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E29" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2675,16 +2699,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C30" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D30" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E30" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2692,16 +2716,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C31" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D31" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E31" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2709,16 +2733,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C32" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D32" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E32" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2726,16 +2750,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C33" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D33" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E33" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2743,16 +2767,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C34" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D34" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E34" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2760,16 +2784,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C35" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D35" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E35" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2777,16 +2801,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C36" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D36" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E36" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2794,16 +2818,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C37" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D37" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E37" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2811,16 +2835,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C38" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D38" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E38" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2828,16 +2852,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C39" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D39" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E39" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2845,16 +2869,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C40" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D40" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E40" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2862,16 +2886,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C41" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D41" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E41" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2879,16 +2903,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C42" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D42" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E42" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2896,16 +2920,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C43" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D43" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E43" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2913,16 +2937,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C44" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D44" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E44" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2930,16 +2954,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C45" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D45" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E45" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2947,16 +2971,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C46" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D46" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E46" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2964,16 +2988,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C47" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D47" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E47" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2981,16 +3005,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C48" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D48" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E48" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2998,16 +3022,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C49" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D49" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E49" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3015,16 +3039,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C50" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D50" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E50" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3032,16 +3056,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C51" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D51" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E51" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3049,16 +3073,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C52" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D52" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E52" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3066,16 +3090,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C53" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D53" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E53" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3083,16 +3107,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C54" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D54" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E54" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3100,16 +3124,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C55" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D55" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E55" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3117,16 +3141,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C56" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D56" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E56" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3134,16 +3158,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C57" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D57" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E57" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3151,16 +3175,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C58" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D58" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E58" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3168,16 +3192,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C59" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D59" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E59" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3185,16 +3209,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C60" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D60" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E60" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3202,16 +3226,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C61" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D61" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E61" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3219,16 +3243,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C62" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D62" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E62" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3236,16 +3260,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C63" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D63" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E63" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3253,16 +3277,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C64" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D64" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E64" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3270,16 +3294,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C65" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D65" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E65" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3287,16 +3311,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C66" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D66" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E66" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3304,16 +3328,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C67" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D67" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E67" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3321,16 +3345,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C68" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D68" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E68" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3338,16 +3362,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C69" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D69" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E69" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3355,16 +3379,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C70" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D70" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E70" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3372,16 +3396,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C71" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D71" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E71" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3389,16 +3413,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C72" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D72" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E72" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3406,16 +3430,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C73" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D73" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E73" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3423,16 +3447,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C74" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D74" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E74" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3440,16 +3464,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C75" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D75" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E75" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3457,16 +3481,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C76" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D76" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E76" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3474,16 +3498,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C77" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D77" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E77" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3491,16 +3515,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C78" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D78" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E78" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3508,16 +3532,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C79" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D79" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E79" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3525,16 +3549,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C80" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D80" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E80" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3542,16 +3566,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C81" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D81" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E81" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3559,16 +3583,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C82" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D82" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E82" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3576,16 +3600,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C83" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D83" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E83" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3593,16 +3617,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C84" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D84" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E84" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3610,16 +3634,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C85" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D85" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E85" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3627,16 +3651,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C86" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D86" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E86" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3644,16 +3668,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C87" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D87" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E87" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3661,16 +3685,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C88" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D88" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E88" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3678,16 +3702,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C89" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D89" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E89" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3695,16 +3719,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C90" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D90" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E90" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3712,16 +3736,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C91" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D91" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E91" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3729,16 +3753,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C92" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D92" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E92" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3746,16 +3770,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C93" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D93" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E93" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3763,16 +3787,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C94" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D94" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E94" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3780,16 +3804,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C95" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D95" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E95" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3797,16 +3821,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C96" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D96" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E96" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3814,16 +3838,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C97" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D97" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E97" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3831,16 +3855,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C98" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D98" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E98" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3848,16 +3872,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C99" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D99" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E99" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3865,16 +3889,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C100" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D100" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E100" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3882,16 +3906,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C101" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D101" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E101" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3899,16 +3923,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C102" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D102" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E102" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3916,16 +3940,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C103" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D103" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E103" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3933,16 +3957,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C104" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D104" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E104" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3950,16 +3974,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C105" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D105" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E105" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3967,16 +3991,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C106" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D106" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E106" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3984,16 +4008,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C107" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D107" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E107" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4001,16 +4025,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C108" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D108" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E108" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4018,16 +4042,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C109" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D109" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E109" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4035,16 +4059,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C110" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D110" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E110" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4052,16 +4076,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C111" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D111" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E111" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4069,16 +4093,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C112" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D112" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E112" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4086,16 +4110,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C113" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D113" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E113" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4103,16 +4127,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C114" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D114" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E114" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4120,16 +4144,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C115" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D115" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E115" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4137,16 +4161,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C116" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D116" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E116" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4154,16 +4178,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C117" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D117" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E117" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4171,16 +4195,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C118" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D118" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E118" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4188,16 +4212,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C119" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D119" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E119" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4205,16 +4229,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C120" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D120" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E120" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4222,16 +4246,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C121" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D121" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E121" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4239,16 +4263,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C122" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D122" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E122" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4256,16 +4280,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C123" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D123" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E123" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4273,16 +4297,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C124" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D124" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E124" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4290,16 +4314,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C125" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D125" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="E125" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4307,16 +4331,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C126" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D126" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="E126" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4324,16 +4348,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C127" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D127" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E127" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4341,16 +4365,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C128" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D128" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E128" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4358,16 +4382,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C129" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D129" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E129" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4375,16 +4399,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C130" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D130" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E130" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4392,16 +4416,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C131" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D131" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E131" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4409,16 +4433,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C132" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D132" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E132" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4426,16 +4450,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C133" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D133" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E133" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4443,16 +4467,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C134" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D134" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E134" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4460,16 +4484,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C135" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D135" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E135" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4477,16 +4501,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C136" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D136" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E136" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4494,16 +4518,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C137" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D137" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E137" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4511,16 +4535,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C138" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D138" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E138" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4528,16 +4552,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C139" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D139" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E139" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4545,16 +4569,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C140" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D140" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E140" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4562,16 +4586,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C141" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D141" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E141" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4579,16 +4603,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C142" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D142" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E142" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4596,16 +4620,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C143" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D143" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E143" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4613,16 +4637,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C144" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D144" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E144" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4630,16 +4654,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C145" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D145" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E145" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4647,16 +4671,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C146" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D146" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E146" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4664,16 +4688,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C147" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D147" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E147" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4681,16 +4705,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C148" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D148" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E148" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4698,16 +4722,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C149" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D149" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E149" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4715,16 +4739,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C150" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D150" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E150" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4732,16 +4756,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C151" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D151" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E151" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4749,16 +4773,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C152" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D152" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E152" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4766,16 +4790,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C153" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D153" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E153" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4783,16 +4807,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C154" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D154" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E154" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4800,16 +4824,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C155" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D155" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E155" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4817,16 +4841,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C156" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D156" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E156" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4834,16 +4858,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C157" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D157" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E157" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4851,16 +4875,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C158" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D158" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E158" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4868,16 +4892,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C159" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D159" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="E159" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4885,16 +4909,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C160" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D160" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="E160" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4902,16 +4926,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C161" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D161" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="E161" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4919,16 +4943,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C162" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D162" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="E162" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4936,16 +4960,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C163" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D163" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="E163" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4953,16 +4977,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C164" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D164" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="E164" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4970,16 +4994,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C165" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D165" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="E165" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4987,16 +5011,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C166" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D166" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="E166" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5004,16 +5028,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C167" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D167" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="E167" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5021,16 +5045,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C168" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D168" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="E168" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5038,16 +5062,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C169" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D169" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="E169" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5055,16 +5079,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C170" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D170" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="E170" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5072,16 +5096,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C171" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D171" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="E171" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5089,16 +5113,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C172" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D172" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="E172" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5106,16 +5130,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C173" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D173" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="E173" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5123,16 +5147,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C174" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D174" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="E174" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5140,16 +5164,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C175" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D175" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E175" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5157,16 +5181,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C176" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D176" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E176" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5174,16 +5198,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C177" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D177" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E177" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5191,16 +5215,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C178" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D178" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E178" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5208,16 +5232,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C179" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D179" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E179" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5225,16 +5249,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C180" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D180" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E180" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5242,16 +5266,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C181" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D181" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="E181" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5259,16 +5283,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C182" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D182" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E182" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5276,16 +5300,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C183" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D183" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E183" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5293,16 +5317,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C184" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D184" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E184" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5310,16 +5334,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C185" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D185" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E185" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5327,16 +5351,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C186" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D186" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E186" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5344,16 +5368,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C187" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D187" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E187" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5361,16 +5385,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C188" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D188" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E188" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5378,16 +5402,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C189" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D189" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E189" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5395,16 +5419,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C190" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D190" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E190" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5412,16 +5436,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C191" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D191" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E191" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5429,16 +5453,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C192" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D192" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="E192" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5446,16 +5470,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C193" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D193" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="E193" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5463,16 +5487,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C194" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D194" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="E194" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5480,16 +5504,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C195" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D195" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="E195" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5497,16 +5521,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C196" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D196" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="E196" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5514,16 +5538,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C197" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D197" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="E197" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5531,16 +5555,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C198" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D198" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="E198" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5548,16 +5572,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C199" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D199" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="E199" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5565,16 +5589,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C200" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D200" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="E200" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5582,16 +5606,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C201" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D201" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="E201" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5599,16 +5623,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C202" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D202" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="E202" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5616,16 +5640,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C203" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D203" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="E203" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5633,16 +5657,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C204" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D204" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="E204" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5650,16 +5674,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C205" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D205" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="E205" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5667,16 +5691,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C206" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D206" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="E206" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5684,16 +5708,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C207" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D207" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="E207" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5701,16 +5725,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C208" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D208" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="E208" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5718,16 +5742,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C209" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D209" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="E209" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5735,16 +5759,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C210" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D210" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="E210" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5752,16 +5776,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C211" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D211" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="E211" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5769,16 +5793,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C212" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D212" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="E212" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5786,16 +5810,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C213" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D213" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="E213" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5803,16 +5827,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C214" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D214" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="E214" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5820,16 +5844,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C215" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D215" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="E215" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5837,16 +5861,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C216" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D216" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="E216" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5854,16 +5878,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C217" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D217" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="E217" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5871,16 +5895,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C218" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D218" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="E218" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5888,16 +5912,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C219" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D219" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="E219" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5905,16 +5929,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C220" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D220" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="E220" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5922,16 +5946,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C221" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D221" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="E221" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5939,16 +5963,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C222" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D222" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="E222" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5956,16 +5980,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C223" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D223" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="E223" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5973,16 +5997,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C224" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D224" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="E224" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5990,16 +6014,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C225" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D225" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="E225" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6007,16 +6031,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C226" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D226" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="E226" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6024,16 +6048,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C227" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D227" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="E227" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6041,16 +6065,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C228" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D228" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="E228" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6058,16 +6082,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C229" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D229" t="s">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="E229" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6075,16 +6099,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C230" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D230" t="s">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="E230" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6092,16 +6116,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C231" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D231" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E231" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6109,16 +6133,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C232" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D232" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E232" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6126,16 +6150,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C233" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D233" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E233" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6143,16 +6167,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C234" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D234" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E234" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6160,16 +6184,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C235" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D235" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E235" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6177,16 +6201,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C236" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D236" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E236" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6194,16 +6218,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C237" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D237" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E237" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6214,13 +6238,13 @@
         <v>291</v>
       </c>
       <c r="C238" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D238" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E238" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6231,13 +6255,13 @@
         <v>291</v>
       </c>
       <c r="C239" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D239" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E239" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6248,13 +6272,13 @@
         <v>291</v>
       </c>
       <c r="C240" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D240" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E240" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6265,13 +6289,13 @@
         <v>291</v>
       </c>
       <c r="C241" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D241" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E241" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6279,16 +6303,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C242" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D242" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="E242" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6296,16 +6320,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C243" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D243" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="E243" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6313,16 +6337,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C244" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="D244" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="E244" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6330,16 +6354,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C245" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D245" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="E245" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6347,16 +6371,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C246" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D246" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="E246" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6364,16 +6388,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C247" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D247" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="E247" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6381,16 +6405,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C248" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D248" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="E248" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6398,16 +6422,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C249" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D249" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="E249" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6415,16 +6439,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C250" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D250" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="E250" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6432,16 +6456,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C251" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D251" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="E251" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6449,16 +6473,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C252" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D252" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="E252" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6466,16 +6490,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C253" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D253" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="E253" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6483,16 +6507,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C254" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D254" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E254" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6500,16 +6524,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C255" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D255" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E255" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6517,16 +6541,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C256" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D256" t="s">
         <v>584</v>
       </c>
       <c r="E256" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6534,16 +6558,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C257" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D257" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="E257" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6554,13 +6578,13 @@
         <v>292</v>
       </c>
       <c r="C258" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D258" t="s">
-        <v>292</v>
+        <v>585</v>
       </c>
       <c r="E258" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6571,13 +6595,13 @@
         <v>292</v>
       </c>
       <c r="C259" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D259" t="s">
-        <v>292</v>
+        <v>585</v>
       </c>
       <c r="E259" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6585,16 +6609,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C260" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D260" t="s">
-        <v>292</v>
+        <v>591</v>
       </c>
       <c r="E260" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6602,16 +6626,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C261" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D261" t="s">
-        <v>292</v>
+        <v>591</v>
       </c>
       <c r="E261" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6619,16 +6643,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C262" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D262" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E262" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6636,16 +6660,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C263" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D263" t="s">
-        <v>591</v>
+        <v>296</v>
       </c>
       <c r="E263" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6653,16 +6677,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C264" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D264" t="s">
-        <v>591</v>
+        <v>296</v>
       </c>
       <c r="E264" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6670,16 +6694,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C265" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D265" t="s">
-        <v>591</v>
+        <v>296</v>
       </c>
       <c r="E265" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6687,16 +6711,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C266" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D266" t="s">
-        <v>591</v>
+        <v>296</v>
       </c>
       <c r="E266" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6704,16 +6728,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C267" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D267" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="E267" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6721,16 +6745,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C268" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D268" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="E268" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6738,16 +6762,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C269" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D269" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="E269" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6755,16 +6779,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C270" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D270" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="E270" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6772,16 +6796,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C271" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D271" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="E271" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6789,16 +6813,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C272" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D272" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E272" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6806,16 +6830,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C273" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D273" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E273" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6823,16 +6847,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C274" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D274" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="E274" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6840,16 +6864,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C275" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D275" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="E275" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6857,16 +6881,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C276" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D276" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="E276" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6874,16 +6898,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C277" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D277" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="E277" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6891,16 +6915,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C278" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D278" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="E278" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6908,16 +6932,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C279" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D279" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="E279" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6925,16 +6949,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C280" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D280" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="E280" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6942,16 +6966,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C281" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D281" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="E281" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6959,16 +6983,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C282" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D282" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="E282" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6976,16 +7000,84 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
+        <v>298</v>
+      </c>
+      <c r="C283" t="s">
+        <v>577</v>
+      </c>
+      <c r="D283" t="s">
+        <v>602</v>
+      </c>
+      <c r="E283" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
         <v>287</v>
       </c>
-      <c r="C283" t="s">
-        <v>574</v>
-      </c>
-      <c r="D283" t="s">
-        <v>595</v>
-      </c>
-      <c r="E283" t="s">
-        <v>599</v>
+      <c r="B284" t="s">
+        <v>298</v>
+      </c>
+      <c r="C284" t="s">
+        <v>578</v>
+      </c>
+      <c r="D284" t="s">
+        <v>602</v>
+      </c>
+      <c r="E284" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>288</v>
+      </c>
+      <c r="B285" t="s">
+        <v>298</v>
+      </c>
+      <c r="C285" t="s">
+        <v>579</v>
+      </c>
+      <c r="D285" t="s">
+        <v>602</v>
+      </c>
+      <c r="E285" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>289</v>
+      </c>
+      <c r="B286" t="s">
+        <v>298</v>
+      </c>
+      <c r="C286" t="s">
+        <v>580</v>
+      </c>
+      <c r="D286" t="s">
+        <v>602</v>
+      </c>
+      <c r="E286" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>290</v>
+      </c>
+      <c r="B287" t="s">
+        <v>291</v>
+      </c>
+      <c r="C287" t="s">
+        <v>581</v>
+      </c>
+      <c r="D287" t="s">
+        <v>603</v>
+      </c>
+      <c r="E287" t="s">
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="619">
   <si>
     <t>Pāli1</t>
   </si>
@@ -535,7 +535,7 @@
     <t>paṭibhāti</t>
   </si>
   <si>
-    <t>paṭijānāti 2</t>
+    <t>paṭijānāti 3</t>
   </si>
   <si>
     <t>jināti 2</t>
@@ -622,6 +622,9 @@
     <t>āmantesi</t>
   </si>
   <si>
+    <t>pāturahosi</t>
+  </si>
+  <si>
     <t>homa 3</t>
   </si>
   <si>
@@ -880,12 +883,24 @@
     <t>vādī 1</t>
   </si>
   <si>
+    <t>vippaṭisārī</t>
+  </si>
+  <si>
     <t>bhogī 1</t>
   </si>
   <si>
     <t>gavesī 1</t>
   </si>
   <si>
+    <t>pītipaṭisaṃvedī</t>
+  </si>
+  <si>
+    <t>sakadāgāmī</t>
+  </si>
+  <si>
+    <t>sabrahmacārī</t>
+  </si>
+  <si>
     <t>pakkhī</t>
   </si>
   <si>
@@ -1114,7 +1129,7 @@
     <t>mass; heap; pile</t>
   </si>
   <si>
-    <t>personal name of the Buddha; of the Gotama family; lit. excellent bull</t>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
   </si>
   <si>
     <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
@@ -1366,7 +1381,7 @@
     <t>leads (to); is useful (for); is conducive to</t>
   </si>
   <si>
-    <t>goes; moves; walks</t>
+    <t>goes; walks; moves; wanders around</t>
   </si>
   <si>
     <t>enjoys; finds high pleasure in</t>
@@ -1501,6 +1516,9 @@
     <t>addressed; said (to)</t>
   </si>
   <si>
+    <t>appeared; manifested; lit. became visible</t>
+  </si>
+  <si>
     <t>may you all be! you all must be!</t>
   </si>
   <si>
@@ -1753,12 +1771,24 @@
     <t>speaking; saying; telling</t>
   </si>
   <si>
+    <t>remorseful; regretful; sorry; lit. remembering back negatively</t>
+  </si>
+  <si>
     <t>enjoying; using; experiencing; partaking in</t>
   </si>
   <si>
     <t>seeking; searching for; looking for</t>
   </si>
   <si>
+    <t>experiencing heart-felt joy; feeling delight; sensitive to rapture</t>
+  </si>
+  <si>
+    <t>who returns once; once-returner</t>
+  </si>
+  <si>
+    <t>fellow monk; spiritual companion</t>
+  </si>
+  <si>
     <t>bird; lit. with wings</t>
   </si>
   <si>
@@ -1784,6 +1814,9 @@
   </si>
   <si>
     <t>esi-aor</t>
+  </si>
+  <si>
+    <t>hosi-aor</t>
   </si>
   <si>
     <t>hoti-pr</t>
@@ -2195,7 +2228,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E287"/>
+  <dimension ref="A1:E292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2223,16 +2256,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D2" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E2" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2240,16 +2273,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D3" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E3" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2257,16 +2290,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C4" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D4" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E4" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2274,16 +2307,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C5" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D5" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2291,16 +2324,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D6" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E6" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2308,16 +2341,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E7" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2325,16 +2358,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D8" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E8" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2342,16 +2375,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C9" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D9" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E9" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2359,16 +2392,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D10" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E10" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2376,16 +2409,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C11" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D11" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E11" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2393,16 +2426,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C12" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D12" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E12" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2410,16 +2443,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C13" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D13" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E13" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2427,16 +2460,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C14" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D14" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E14" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2444,16 +2477,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C15" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D15" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E15" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2461,16 +2494,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C16" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D16" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E16" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2478,16 +2511,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C17" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D17" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E17" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2495,16 +2528,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C18" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D18" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E18" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2512,16 +2545,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C19" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D19" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E19" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2529,16 +2562,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C20" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D20" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E20" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2546,16 +2579,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C21" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D21" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E21" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2563,16 +2596,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C22" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D22" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E22" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2580,16 +2613,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C23" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D23" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E23" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2597,16 +2630,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C24" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D24" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E24" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2614,16 +2647,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C25" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D25" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E25" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2631,16 +2664,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C26" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D26" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E26" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2648,16 +2681,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C27" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D27" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E27" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2665,16 +2698,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C28" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D28" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E28" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2682,16 +2715,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C29" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D29" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E29" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2699,16 +2732,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C30" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D30" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E30" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2716,16 +2749,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C31" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D31" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E31" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2733,16 +2766,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C32" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D32" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E32" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2750,16 +2783,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C33" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D33" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E33" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2767,16 +2800,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C34" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D34" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E34" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2784,16 +2817,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C35" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D35" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E35" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2801,16 +2834,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C36" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D36" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E36" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2818,16 +2851,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C37" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D37" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E37" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2835,16 +2868,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C38" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D38" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E38" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2852,16 +2885,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C39" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D39" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E39" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2869,16 +2902,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C40" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D40" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E40" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2886,16 +2919,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C41" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D41" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E41" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2903,16 +2936,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C42" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D42" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E42" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2920,16 +2953,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C43" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D43" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E43" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2937,16 +2970,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C44" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D44" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E44" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2954,16 +2987,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C45" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D45" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E45" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2971,16 +3004,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C46" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D46" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E46" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2988,16 +3021,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C47" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D47" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E47" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3005,16 +3038,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C48" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D48" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E48" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3022,16 +3055,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C49" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D49" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E49" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3039,16 +3072,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C50" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D50" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E50" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3056,16 +3089,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C51" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D51" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E51" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3073,16 +3106,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C52" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D52" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E52" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3090,16 +3123,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C53" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D53" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E53" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3107,16 +3140,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C54" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D54" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E54" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3124,16 +3157,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C55" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D55" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E55" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3141,16 +3174,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C56" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D56" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E56" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3158,16 +3191,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C57" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D57" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E57" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3175,16 +3208,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C58" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D58" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E58" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3192,16 +3225,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C59" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D59" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E59" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3209,16 +3242,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C60" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D60" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E60" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3226,16 +3259,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C61" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D61" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E61" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3243,16 +3276,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C62" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D62" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E62" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3260,16 +3293,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C63" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D63" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E63" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3277,16 +3310,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C64" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D64" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E64" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3294,16 +3327,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C65" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D65" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E65" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3311,16 +3344,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C66" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D66" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E66" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3328,16 +3361,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C67" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D67" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E67" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3345,16 +3378,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C68" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D68" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E68" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3362,16 +3395,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C69" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D69" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E69" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3379,16 +3412,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C70" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D70" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E70" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3396,16 +3429,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C71" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D71" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E71" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3413,16 +3446,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C72" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D72" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E72" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3430,16 +3463,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C73" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D73" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E73" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3447,16 +3480,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C74" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D74" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E74" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3464,16 +3497,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C75" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D75" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E75" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3481,16 +3514,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C76" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D76" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E76" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3498,16 +3531,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C77" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D77" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E77" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3515,16 +3548,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C78" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D78" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E78" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3532,16 +3565,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C79" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D79" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E79" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3549,16 +3582,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C80" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D80" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E80" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3566,16 +3599,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C81" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D81" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E81" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3583,16 +3616,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C82" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D82" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E82" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3600,16 +3633,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C83" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D83" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E83" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3617,16 +3650,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C84" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D84" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E84" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3634,16 +3667,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C85" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D85" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E85" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3651,16 +3684,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C86" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D86" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E86" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3668,16 +3701,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C87" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D87" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E87" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3685,16 +3718,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C88" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D88" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E88" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3702,16 +3735,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C89" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D89" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E89" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3719,16 +3752,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C90" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D90" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E90" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3736,16 +3769,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C91" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D91" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E91" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3753,16 +3786,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C92" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D92" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E92" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3770,16 +3803,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C93" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D93" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E93" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3787,16 +3820,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C94" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D94" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E94" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3804,16 +3837,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C95" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D95" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E95" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3821,16 +3854,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C96" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D96" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E96" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3838,16 +3871,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C97" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D97" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E97" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3855,16 +3888,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C98" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D98" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E98" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3872,16 +3905,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C99" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D99" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E99" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3889,16 +3922,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C100" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D100" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E100" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3906,16 +3939,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C101" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D101" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E101" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3923,16 +3956,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C102" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D102" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E102" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3940,16 +3973,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C103" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D103" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E103" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3957,16 +3990,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C104" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D104" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E104" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3974,16 +4007,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C105" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D105" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E105" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3991,16 +4024,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C106" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D106" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E106" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4008,16 +4041,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C107" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D107" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E107" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4025,16 +4058,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C108" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D108" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E108" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4042,16 +4075,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C109" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D109" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E109" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4059,16 +4092,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C110" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D110" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E110" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4076,16 +4109,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C111" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D111" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E111" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4093,16 +4126,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C112" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D112" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E112" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4110,16 +4143,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C113" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D113" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E113" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4127,16 +4160,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C114" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D114" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E114" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4144,16 +4177,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C115" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D115" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E115" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4161,16 +4194,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C116" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D116" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E116" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4178,16 +4211,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C117" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D117" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E117" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4195,16 +4228,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C118" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D118" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E118" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4212,16 +4245,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C119" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D119" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E119" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4229,16 +4262,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C120" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D120" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E120" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4246,16 +4279,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C121" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D121" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E121" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4263,16 +4296,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C122" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D122" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E122" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4280,16 +4313,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C123" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D123" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E123" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4297,16 +4330,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C124" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D124" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E124" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4314,16 +4347,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C125" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D125" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="E125" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4331,16 +4364,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C126" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D126" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="E126" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4348,16 +4381,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C127" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D127" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E127" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4365,16 +4398,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C128" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D128" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E128" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4382,16 +4415,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C129" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D129" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E129" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4399,16 +4432,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C130" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D130" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E130" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4416,16 +4449,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C131" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D131" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E131" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4433,16 +4466,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C132" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D132" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E132" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4450,16 +4483,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C133" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D133" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E133" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4467,16 +4500,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C134" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D134" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E134" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4484,16 +4517,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C135" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D135" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E135" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4501,16 +4534,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C136" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D136" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E136" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4518,16 +4551,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C137" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D137" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E137" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4535,16 +4568,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C138" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D138" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E138" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4552,16 +4585,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C139" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D139" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E139" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4569,16 +4602,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C140" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D140" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E140" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4586,16 +4619,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C141" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D141" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E141" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4603,16 +4636,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C142" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D142" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E142" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4620,16 +4653,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C143" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D143" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E143" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4637,16 +4670,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C144" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D144" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E144" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4654,16 +4687,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C145" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D145" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E145" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4671,16 +4704,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C146" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D146" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E146" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4688,16 +4721,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C147" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D147" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E147" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4705,16 +4738,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C148" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D148" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E148" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4722,16 +4755,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C149" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D149" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E149" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4739,16 +4772,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C150" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D150" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E150" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4756,16 +4789,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C151" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D151" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E151" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4773,16 +4806,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C152" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D152" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E152" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4790,16 +4823,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C153" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D153" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E153" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4807,16 +4840,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C154" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D154" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E154" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4824,16 +4857,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C155" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D155" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E155" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4841,16 +4874,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C156" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D156" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E156" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4858,16 +4891,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C157" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D157" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E157" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4875,16 +4908,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C158" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D158" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E158" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4892,16 +4925,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C159" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D159" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="E159" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4909,16 +4942,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C160" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D160" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="E160" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4926,16 +4959,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C161" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D161" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="E161" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4943,16 +4976,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C162" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D162" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="E162" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4960,16 +4993,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C163" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D163" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="E163" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4977,16 +5010,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C164" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D164" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="E164" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4994,16 +5027,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C165" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D165" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="E165" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5011,16 +5044,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C166" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D166" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="E166" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5028,16 +5061,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C167" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D167" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="E167" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5045,16 +5078,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C168" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D168" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="E168" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5062,16 +5095,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C169" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D169" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="E169" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5079,16 +5112,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C170" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D170" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="E170" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5096,16 +5129,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C171" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D171" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="E171" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5113,16 +5146,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C172" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D172" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="E172" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5130,16 +5163,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C173" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D173" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="E173" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5147,16 +5180,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C174" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D174" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="E174" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5164,16 +5197,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C175" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D175" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E175" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5181,16 +5214,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C176" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D176" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E176" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5198,16 +5231,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C177" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D177" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E177" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5215,16 +5248,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C178" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D178" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E178" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5232,16 +5265,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C179" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D179" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E179" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5249,16 +5282,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C180" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D180" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E180" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5266,16 +5299,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C181" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D181" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E181" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5283,16 +5316,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C182" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D182" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E182" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5300,16 +5333,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C183" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D183" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E183" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5317,16 +5350,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C184" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D184" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E184" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5334,16 +5367,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C185" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D185" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E185" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5351,16 +5384,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C186" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D186" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E186" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5368,16 +5401,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C187" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D187" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E187" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5385,16 +5418,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C188" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D188" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E188" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5402,16 +5435,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C189" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D189" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E189" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5419,16 +5452,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C190" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D190" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E190" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5436,16 +5469,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C191" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="D191" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E191" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5453,16 +5486,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C192" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="D192" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="E192" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5470,16 +5503,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C193" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D193" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="E193" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5487,16 +5520,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C194" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D194" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="E194" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5504,16 +5537,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C195" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D195" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="E195" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5521,16 +5554,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C196" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D196" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="E196" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5538,16 +5571,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C197" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="D197" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="E197" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5555,16 +5588,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C198" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D198" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="E198" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5572,16 +5605,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C199" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D199" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="E199" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5589,16 +5622,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C200" t="s">
         <v>495</v>
       </c>
       <c r="D200" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="E200" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5606,16 +5639,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C201" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D201" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="E201" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5623,16 +5656,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C202" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D202" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="E202" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5640,16 +5673,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C203" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="D203" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="E203" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5657,16 +5690,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C204" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D204" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="E204" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5674,16 +5707,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C205" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="D205" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="E205" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5691,16 +5724,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C206" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D206" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="E206" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5708,16 +5741,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C207" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D207" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="E207" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5725,16 +5758,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C208" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D208" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="E208" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5742,16 +5775,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C209" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="D209" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="E209" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5759,16 +5792,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C210" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D210" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="E210" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5776,16 +5809,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C211" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D211" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="E211" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5793,16 +5826,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C212" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D212" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="E212" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5810,16 +5843,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C213" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D213" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="E213" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5827,16 +5860,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C214" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D214" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E214" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5844,16 +5877,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C215" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D215" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E215" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5861,16 +5894,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C216" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="D216" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E216" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5878,16 +5911,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C217" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="D217" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E217" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5895,16 +5928,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C218" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="D218" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E218" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5912,16 +5945,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C219" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D219" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E219" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5929,16 +5962,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C220" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D220" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E220" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5946,16 +5979,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C221" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="D221" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E221" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5963,16 +5996,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C222" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D222" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E222" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5980,16 +6013,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C223" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D223" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="E223" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5997,16 +6030,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C224" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D224" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="E224" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6014,16 +6047,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C225" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D225" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="E225" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6031,16 +6064,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C226" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D226" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="E226" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6048,16 +6081,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C227" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D227" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="E227" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6065,16 +6098,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C228" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="D228" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="E228" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6082,16 +6115,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C229" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D229" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="E229" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6099,16 +6132,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C230" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="D230" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="E230" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6116,16 +6149,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C231" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D231" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="E231" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6133,16 +6166,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C232" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D232" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E232" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6150,16 +6183,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C233" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D233" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E233" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6167,16 +6200,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C234" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D234" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E234" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6184,16 +6217,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C235" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D235" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E235" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6201,16 +6234,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C236" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="D236" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E236" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6218,16 +6251,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C237" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="D237" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E237" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6235,16 +6268,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C238" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D238" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E238" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6252,16 +6285,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C239" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D239" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E239" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6269,16 +6302,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C240" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D240" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E240" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6286,16 +6319,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C241" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D241" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E241" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6303,16 +6336,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C242" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D242" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E242" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6320,16 +6353,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C243" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D243" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="E243" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6337,16 +6370,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C244" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D244" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="E244" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6354,16 +6387,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C245" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D245" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="E245" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6371,16 +6404,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C246" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D246" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="E246" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6388,16 +6421,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C247" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D247" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="E247" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6405,16 +6438,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C248" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="D248" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="E248" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6422,16 +6455,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C249" t="s">
         <v>543</v>
       </c>
       <c r="D249" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="E249" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6439,16 +6472,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C250" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D250" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="E250" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6456,16 +6489,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C251" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="D251" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="E251" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6473,16 +6506,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C252" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D252" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="E252" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6490,16 +6523,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C253" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D253" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="E253" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6507,16 +6540,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C254" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D254" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="E254" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6524,16 +6557,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C255" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D255" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E255" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6541,16 +6574,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C256" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="D256" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="E256" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6558,16 +6591,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C257" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D257" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E257" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6575,16 +6608,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C258" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="D258" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="E258" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6592,16 +6625,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C259" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D259" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="E259" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6609,16 +6642,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C260" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D260" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="E260" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6626,16 +6659,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C261" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D261" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="E261" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6643,16 +6676,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C262" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="D262" t="s">
-        <v>296</v>
+        <v>602</v>
       </c>
       <c r="E262" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6660,16 +6693,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C263" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="D263" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E263" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6677,16 +6710,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C264" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D264" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E264" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6694,16 +6727,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C265" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="D265" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E265" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6711,16 +6744,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C266" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="D266" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E266" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6728,16 +6761,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C267" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="D267" t="s">
-        <v>599</v>
+        <v>301</v>
       </c>
       <c r="E267" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6745,16 +6778,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C268" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="D268" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="E268" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6762,16 +6795,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C269" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="D269" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="E269" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6779,16 +6812,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C270" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="D270" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="E270" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6796,16 +6829,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C271" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="D271" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="E271" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6813,16 +6846,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C272" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D272" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="E272" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6830,16 +6863,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C273" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="D273" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="E273" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6847,16 +6880,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C274" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D274" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="E274" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6864,16 +6897,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C275" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D275" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="E275" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6881,16 +6914,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C276" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D276" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="E276" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6898,16 +6931,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C277" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="D277" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="E277" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6915,16 +6948,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C278" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D278" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="E278" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6932,16 +6965,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C279" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D279" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="E279" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6949,16 +6982,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C280" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D280" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="E280" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6966,16 +6999,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C281" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="D281" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="E281" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6983,16 +7016,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C282" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D282" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
       <c r="E282" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7000,16 +7033,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C283" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="D283" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E283" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7017,16 +7050,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C284" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D284" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="E284" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7034,16 +7067,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C285" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="D285" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="E285" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7051,16 +7084,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C286" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D286" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="E286" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7068,16 +7101,101 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
+        <v>303</v>
+      </c>
+      <c r="C287" t="s">
+        <v>586</v>
+      </c>
+      <c r="D287" t="s">
+        <v>613</v>
+      </c>
+      <c r="E287" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
         <v>291</v>
       </c>
-      <c r="C287" t="s">
-        <v>581</v>
-      </c>
-      <c r="D287" t="s">
-        <v>603</v>
-      </c>
-      <c r="E287" t="s">
-        <v>607</v>
+      <c r="B288" t="s">
+        <v>303</v>
+      </c>
+      <c r="C288" t="s">
+        <v>587</v>
+      </c>
+      <c r="D288" t="s">
+        <v>613</v>
+      </c>
+      <c r="E288" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>292</v>
+      </c>
+      <c r="B289" t="s">
+        <v>303</v>
+      </c>
+      <c r="C289" t="s">
+        <v>588</v>
+      </c>
+      <c r="D289" t="s">
+        <v>613</v>
+      </c>
+      <c r="E289" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>293</v>
+      </c>
+      <c r="B290" t="s">
+        <v>303</v>
+      </c>
+      <c r="C290" t="s">
+        <v>589</v>
+      </c>
+      <c r="D290" t="s">
+        <v>613</v>
+      </c>
+      <c r="E290" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
+        <v>294</v>
+      </c>
+      <c r="B291" t="s">
+        <v>296</v>
+      </c>
+      <c r="C291" t="s">
+        <v>590</v>
+      </c>
+      <c r="D291" t="s">
+        <v>614</v>
+      </c>
+      <c r="E291" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="s">
+        <v>295</v>
+      </c>
+      <c r="B292" t="s">
+        <v>296</v>
+      </c>
+      <c r="C292" t="s">
+        <v>591</v>
+      </c>
+      <c r="D292" t="s">
+        <v>614</v>
+      </c>
+      <c r="E292" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="623">
   <si>
     <t>Pāli1</t>
   </si>
@@ -622,6 +622,9 @@
     <t>āmantesi</t>
   </si>
   <si>
+    <t>ahosi</t>
+  </si>
+  <si>
     <t>pāturahosi</t>
   </si>
   <si>
@@ -889,6 +892,9 @@
     <t>bhogī 1</t>
   </si>
   <si>
+    <t>anupassī 1</t>
+  </si>
+  <si>
     <t>gavesī 1</t>
   </si>
   <si>
@@ -1516,6 +1522,9 @@
     <t>addressed; said (to)</t>
   </si>
   <si>
+    <t>was; existed; became</t>
+  </si>
+  <si>
     <t>appeared; manifested; lit. became visible</t>
   </si>
   <si>
@@ -1775,6 +1784,9 @@
   </si>
   <si>
     <t>enjoying; using; experiencing; partaking in</t>
+  </si>
+  <si>
+    <t>looking (at); observing; following; noticing; witnessing; watching</t>
   </si>
   <si>
     <t>seeking; searching for; looking for</t>
@@ -2228,7 +2240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E292"/>
+  <dimension ref="A1:E294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2256,16 +2268,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E2" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2273,16 +2285,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D3" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E3" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2290,16 +2302,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D4" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E4" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2307,16 +2319,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E5" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2324,16 +2336,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D6" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E6" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2341,16 +2353,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2358,16 +2370,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D8" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E8" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2375,16 +2387,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D9" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E9" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2392,16 +2404,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D10" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E10" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2409,16 +2421,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D11" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E11" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2426,16 +2438,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D12" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E12" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2443,16 +2455,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C13" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D13" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E13" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2460,16 +2472,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C14" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D14" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E14" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2477,16 +2489,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D15" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E15" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2494,16 +2506,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C16" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D16" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E16" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2511,16 +2523,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C17" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D17" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E17" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2528,16 +2540,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C18" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D18" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E18" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2545,16 +2557,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D19" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E19" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2562,16 +2574,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C20" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D20" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E20" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2579,16 +2591,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C21" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D21" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E21" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2596,16 +2608,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C22" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D22" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E22" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2613,16 +2625,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C23" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D23" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E23" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2630,16 +2642,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C24" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D24" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E24" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2647,16 +2659,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C25" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D25" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E25" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2664,16 +2676,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C26" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D26" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E26" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2681,16 +2693,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C27" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D27" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E27" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2698,16 +2710,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C28" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D28" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E28" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2715,16 +2727,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C29" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D29" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E29" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2732,16 +2744,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C30" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D30" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E30" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2749,16 +2761,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C31" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D31" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E31" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2766,16 +2778,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C32" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D32" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E32" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2783,16 +2795,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C33" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D33" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E33" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2800,16 +2812,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C34" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D34" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E34" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2817,16 +2829,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C35" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D35" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E35" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2834,16 +2846,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C36" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D36" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E36" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2851,16 +2863,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C37" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D37" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E37" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2868,16 +2880,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C38" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D38" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E38" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2885,16 +2897,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C39" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D39" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E39" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2902,16 +2914,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C40" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D40" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E40" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2919,16 +2931,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C41" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D41" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E41" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2936,16 +2948,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C42" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D42" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E42" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2953,16 +2965,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C43" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D43" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E43" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2970,16 +2982,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C44" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D44" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E44" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2987,16 +2999,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C45" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D45" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E45" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3004,16 +3016,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C46" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D46" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E46" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3021,16 +3033,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C47" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D47" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E47" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3038,16 +3050,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C48" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D48" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E48" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3055,16 +3067,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C49" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D49" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E49" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3072,16 +3084,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C50" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D50" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E50" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3089,16 +3101,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C51" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D51" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E51" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3106,16 +3118,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C52" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D52" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E52" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3123,16 +3135,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C53" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D53" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E53" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3140,16 +3152,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C54" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D54" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E54" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3157,16 +3169,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C55" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D55" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E55" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3174,16 +3186,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C56" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D56" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E56" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3191,16 +3203,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C57" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D57" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E57" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3208,16 +3220,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C58" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D58" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E58" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3225,16 +3237,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C59" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D59" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E59" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3242,16 +3254,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C60" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D60" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E60" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3259,16 +3271,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C61" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D61" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E61" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3276,16 +3288,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C62" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D62" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E62" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3293,16 +3305,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C63" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D63" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E63" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3310,16 +3322,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C64" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D64" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E64" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3327,16 +3339,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C65" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D65" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E65" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3344,16 +3356,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C66" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D66" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E66" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3361,16 +3373,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C67" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D67" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E67" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3378,16 +3390,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C68" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D68" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E68" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3395,16 +3407,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C69" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D69" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E69" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3412,16 +3424,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C70" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D70" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E70" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3429,16 +3441,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C71" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D71" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E71" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3446,16 +3458,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C72" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D72" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E72" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3463,16 +3475,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C73" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D73" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E73" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3480,16 +3492,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C74" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D74" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E74" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3497,16 +3509,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C75" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D75" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E75" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3514,16 +3526,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C76" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D76" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E76" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3531,16 +3543,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C77" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D77" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E77" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3548,16 +3560,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C78" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D78" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E78" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3565,16 +3577,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C79" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D79" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E79" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3582,16 +3594,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C80" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D80" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E80" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3599,16 +3611,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C81" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D81" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E81" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3616,16 +3628,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C82" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D82" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E82" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3633,16 +3645,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C83" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D83" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E83" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3650,16 +3662,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C84" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D84" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E84" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3667,16 +3679,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C85" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D85" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E85" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3684,16 +3696,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C86" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D86" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E86" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3701,16 +3713,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C87" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D87" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E87" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3718,16 +3730,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C88" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D88" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E88" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3735,16 +3747,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C89" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D89" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E89" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3752,16 +3764,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C90" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D90" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E90" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3769,16 +3781,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C91" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D91" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E91" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3786,16 +3798,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C92" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D92" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E92" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3803,16 +3815,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C93" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D93" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E93" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3820,16 +3832,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C94" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D94" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E94" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3837,16 +3849,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C95" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D95" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E95" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3854,16 +3866,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C96" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D96" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E96" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3871,16 +3883,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C97" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D97" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E97" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3888,16 +3900,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C98" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D98" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E98" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3905,16 +3917,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C99" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D99" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E99" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3922,16 +3934,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C100" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D100" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E100" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3939,16 +3951,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C101" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D101" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E101" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3956,16 +3968,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C102" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D102" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E102" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3973,16 +3985,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C103" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D103" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E103" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3990,16 +4002,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C104" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D104" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E104" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4007,16 +4019,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C105" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D105" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E105" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4024,16 +4036,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C106" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D106" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E106" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4041,16 +4053,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C107" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D107" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E107" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4058,16 +4070,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C108" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D108" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E108" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4075,16 +4087,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C109" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D109" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E109" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4092,16 +4104,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C110" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D110" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E110" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4109,16 +4121,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C111" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D111" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E111" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4126,16 +4138,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C112" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D112" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E112" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4143,16 +4155,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C113" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D113" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E113" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4160,16 +4172,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C114" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D114" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E114" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4177,16 +4189,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C115" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D115" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E115" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4194,16 +4206,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C116" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D116" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E116" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4211,16 +4223,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C117" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D117" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E117" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4228,16 +4240,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C118" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D118" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E118" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4245,16 +4257,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C119" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D119" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E119" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4262,16 +4274,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C120" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D120" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E120" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4279,16 +4291,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C121" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D121" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E121" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4296,16 +4308,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C122" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D122" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E122" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4313,16 +4325,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C123" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D123" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E123" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4330,16 +4342,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C124" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D124" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E124" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4347,16 +4359,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C125" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D125" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E125" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4364,16 +4376,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C126" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D126" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E126" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4381,16 +4393,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C127" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D127" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E127" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4398,16 +4410,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C128" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D128" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E128" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4415,16 +4427,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C129" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D129" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E129" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4432,16 +4444,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C130" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D130" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E130" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4449,16 +4461,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C131" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D131" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E131" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4466,16 +4478,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C132" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D132" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E132" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4483,16 +4495,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C133" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D133" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E133" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4500,16 +4512,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C134" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D134" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E134" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4517,16 +4529,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C135" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D135" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E135" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4534,16 +4546,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C136" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D136" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E136" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4551,16 +4563,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C137" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D137" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E137" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4568,16 +4580,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C138" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D138" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E138" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4585,16 +4597,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C139" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D139" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E139" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4602,16 +4614,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C140" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D140" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E140" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4619,16 +4631,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C141" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D141" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E141" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4636,16 +4648,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C142" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D142" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E142" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4653,16 +4665,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C143" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D143" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E143" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4670,16 +4682,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C144" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D144" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E144" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4687,16 +4699,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C145" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D145" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E145" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4704,16 +4716,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C146" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D146" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E146" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4721,16 +4733,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C147" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D147" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E147" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4738,16 +4750,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C148" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D148" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E148" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4755,16 +4767,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C149" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D149" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E149" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4772,16 +4784,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C150" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D150" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E150" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4789,16 +4801,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C151" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D151" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E151" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4806,16 +4818,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C152" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D152" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E152" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4823,16 +4835,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C153" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D153" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E153" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4840,16 +4852,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C154" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D154" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E154" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4857,16 +4869,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C155" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D155" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E155" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4874,16 +4886,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C156" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D156" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E156" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4891,16 +4903,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C157" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D157" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E157" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4908,16 +4920,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C158" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D158" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E158" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4925,16 +4937,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C159" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D159" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="E159" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4942,16 +4954,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C160" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D160" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="E160" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4959,16 +4971,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C161" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D161" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="E161" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4976,16 +4988,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C162" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D162" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="E162" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4993,16 +5005,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C163" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D163" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="E163" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5010,16 +5022,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C164" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D164" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="E164" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5027,16 +5039,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C165" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D165" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="E165" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5044,16 +5056,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C166" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D166" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E166" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5061,16 +5073,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C167" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D167" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E167" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5078,16 +5090,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C168" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D168" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E168" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5095,16 +5107,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C169" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D169" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E169" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5112,16 +5124,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C170" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D170" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E170" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5129,16 +5141,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C171" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D171" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E171" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5146,16 +5158,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C172" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D172" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E172" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5163,16 +5175,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C173" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D173" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E173" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5180,16 +5192,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C174" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D174" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E174" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5197,16 +5209,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C175" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D175" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E175" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5214,16 +5226,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C176" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D176" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E176" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5231,16 +5243,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C177" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D177" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E177" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5248,16 +5260,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C178" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D178" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E178" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5265,16 +5277,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C179" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D179" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E179" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5282,16 +5294,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C180" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D180" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E180" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5299,16 +5311,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C181" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D181" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E181" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5316,16 +5328,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C182" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D182" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E182" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5333,16 +5345,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C183" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D183" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E183" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5350,16 +5362,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C184" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D184" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E184" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5367,16 +5379,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C185" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D185" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E185" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5384,16 +5396,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C186" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D186" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E186" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5401,16 +5413,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C187" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D187" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E187" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5418,16 +5430,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C188" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D188" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E188" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5435,16 +5447,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C189" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D189" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E189" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5452,16 +5464,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C190" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D190" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E190" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5469,16 +5481,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C191" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D191" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E191" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5486,16 +5498,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C192" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D192" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="E192" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5503,16 +5515,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C193" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D193" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="E193" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5520,16 +5532,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C194" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D194" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="E194" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5537,16 +5549,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C195" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D195" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="E195" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5554,16 +5566,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C196" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D196" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="E196" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5571,16 +5583,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C197" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D197" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="E197" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5588,16 +5600,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C198" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D198" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="E198" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5605,16 +5617,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C199" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D199" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="E199" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5622,16 +5634,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C200" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="D200" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="E200" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5639,16 +5651,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C201" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D201" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="E201" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5656,16 +5668,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C202" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D202" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="E202" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5673,16 +5685,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C203" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D203" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="E203" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5690,16 +5702,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C204" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D204" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="E204" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5710,13 +5722,13 @@
         <v>299</v>
       </c>
       <c r="C205" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D205" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="E205" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5724,16 +5736,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C206" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D206" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E206" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5741,16 +5753,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C207" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D207" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E207" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5758,16 +5770,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C208" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D208" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E208" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5775,16 +5787,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C209" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D209" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E209" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5792,16 +5804,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C210" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D210" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E210" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5809,16 +5821,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C211" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D211" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E211" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5826,16 +5838,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C212" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D212" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E212" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5843,16 +5855,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C213" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D213" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="E213" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5860,16 +5872,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C214" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D214" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E214" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5877,16 +5889,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C215" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D215" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E215" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5894,16 +5906,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C216" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D216" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E216" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5911,16 +5923,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C217" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D217" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E217" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5928,16 +5940,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C218" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D218" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E218" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5945,16 +5957,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C219" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D219" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E219" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5962,16 +5974,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C220" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D220" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E220" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5979,16 +5991,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C221" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D221" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E221" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5996,16 +6008,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C222" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D222" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E222" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6013,16 +6025,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C223" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D223" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E223" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6030,16 +6042,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C224" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D224" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="E224" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6047,16 +6059,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C225" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D225" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="E225" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6064,16 +6076,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C226" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D226" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E226" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6084,13 +6096,13 @@
         <v>299</v>
       </c>
       <c r="C227" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D227" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E227" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6098,16 +6110,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C228" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D228" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E228" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6115,16 +6127,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C229" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D229" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E229" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6132,16 +6144,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C230" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D230" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="E230" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6149,16 +6161,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C231" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D231" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="E231" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6166,16 +6178,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C232" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D232" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="E232" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6183,16 +6195,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C233" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D233" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E233" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6200,16 +6212,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C234" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D234" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E234" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6217,16 +6229,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C235" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D235" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E235" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6234,16 +6246,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C236" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D236" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E236" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6251,16 +6263,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C237" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D237" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E237" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6268,16 +6280,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C238" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D238" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E238" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6285,16 +6297,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C239" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D239" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E239" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6302,16 +6314,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C240" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D240" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E240" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6319,16 +6331,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C241" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D241" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E241" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6336,16 +6348,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C242" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D242" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E242" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6353,16 +6365,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C243" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D243" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E243" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6370,16 +6382,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C244" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D244" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E244" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6387,16 +6399,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C245" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D245" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E245" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6404,16 +6416,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C246" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D246" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E246" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6421,16 +6433,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C247" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D247" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E247" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6438,16 +6450,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C248" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D248" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E248" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6455,16 +6467,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C249" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="D249" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E249" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6472,16 +6484,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C250" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D250" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E250" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6489,16 +6501,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C251" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D251" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E251" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6506,16 +6518,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C252" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D252" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E252" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6523,16 +6535,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C253" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D253" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E253" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6540,16 +6552,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C254" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D254" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E254" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6557,16 +6569,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C255" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D255" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="E255" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6574,16 +6586,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C256" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D256" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E256" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6591,16 +6603,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C257" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D257" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E257" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6611,13 +6623,13 @@
         <v>299</v>
       </c>
       <c r="C258" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D258" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E258" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6625,16 +6637,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C259" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D259" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="E259" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6642,16 +6654,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C260" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D260" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="E260" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6662,13 +6674,13 @@
         <v>299</v>
       </c>
       <c r="C261" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D261" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E261" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6676,16 +6688,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C262" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D262" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E262" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6696,13 +6708,13 @@
         <v>301</v>
       </c>
       <c r="C263" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D263" t="s">
-        <v>301</v>
+        <v>606</v>
       </c>
       <c r="E263" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6710,16 +6722,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C264" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D264" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E264" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6727,16 +6739,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C265" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D265" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E265" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6744,16 +6756,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C266" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D266" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E266" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6761,16 +6773,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C267" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D267" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E267" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6778,16 +6790,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C268" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D268" t="s">
-        <v>610</v>
+        <v>303</v>
       </c>
       <c r="E268" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6795,16 +6807,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C269" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D269" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E269" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6812,16 +6824,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C270" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D270" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E270" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6829,16 +6841,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C271" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D271" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E271" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6846,16 +6858,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C272" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D272" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E272" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6863,16 +6875,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C273" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D273" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="E273" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6880,16 +6892,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C274" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D274" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="E274" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6897,16 +6909,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C275" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D275" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="E275" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6914,16 +6926,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C276" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D276" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E276" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6931,16 +6943,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C277" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D277" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E277" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6948,16 +6960,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C278" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D278" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E278" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6965,16 +6977,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C279" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D279" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E279" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6982,16 +6994,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C280" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D280" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E280" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6999,16 +7011,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C281" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D281" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E281" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7016,16 +7028,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C282" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D282" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E282" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7033,16 +7045,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C283" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D283" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="E283" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7050,16 +7062,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C284" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D284" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="E284" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7067,16 +7079,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C285" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D285" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E285" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7084,16 +7096,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C286" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D286" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E286" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7101,16 +7113,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C287" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D287" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E287" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7118,16 +7130,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C288" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D288" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E288" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7135,16 +7147,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C289" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D289" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E289" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7152,16 +7164,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C290" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D290" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E290" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7169,16 +7181,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C291" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D291" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="E291" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7186,16 +7198,50 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
+        <v>305</v>
+      </c>
+      <c r="C292" t="s">
+        <v>593</v>
+      </c>
+      <c r="D292" t="s">
+        <v>617</v>
+      </c>
+      <c r="E292" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
         <v>296</v>
       </c>
-      <c r="C292" t="s">
-        <v>591</v>
-      </c>
-      <c r="D292" t="s">
-        <v>614</v>
-      </c>
-      <c r="E292" t="s">
+      <c r="B293" t="s">
+        <v>298</v>
+      </c>
+      <c r="C293" t="s">
+        <v>594</v>
+      </c>
+      <c r="D293" t="s">
         <v>618</v>
+      </c>
+      <c r="E293" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
+        <v>297</v>
+      </c>
+      <c r="B294" t="s">
+        <v>298</v>
+      </c>
+      <c r="C294" t="s">
+        <v>595</v>
+      </c>
+      <c r="D294" t="s">
+        <v>618</v>
+      </c>
+      <c r="E294" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="625">
   <si>
     <t>Pāli1</t>
   </si>
@@ -277,6 +277,9 @@
     <t>vūpasama 1</t>
   </si>
   <si>
+    <t>samudda</t>
+  </si>
+  <si>
     <t>asura</t>
   </si>
   <si>
@@ -1178,6 +1181,9 @@
   </si>
   <si>
     <t>calming (of); subsiding (of); settling (of); peace (of)</t>
+  </si>
+  <si>
+    <t>the sea; ocean</t>
   </si>
   <si>
     <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
@@ -2240,7 +2246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E294"/>
+  <dimension ref="A1:E295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2268,16 +2274,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2285,16 +2291,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2302,16 +2308,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D4" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E4" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2319,16 +2325,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D5" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E5" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2336,16 +2342,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D6" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E6" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2353,16 +2359,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2370,16 +2376,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D8" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E8" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2387,16 +2393,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D9" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E9" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2404,16 +2410,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E10" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2421,16 +2427,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D11" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E11" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2438,16 +2444,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D12" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E12" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2455,16 +2461,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D13" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E13" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2472,16 +2478,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D14" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E14" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2489,16 +2495,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D15" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E15" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2506,16 +2512,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D16" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E16" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2523,16 +2529,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D17" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E17" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2540,16 +2546,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D18" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E18" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2557,16 +2563,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D19" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E19" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2574,16 +2580,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D20" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E20" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2591,16 +2597,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D21" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E21" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2608,16 +2614,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D22" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E22" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2625,16 +2631,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C23" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D23" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E23" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2642,16 +2648,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C24" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D24" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E24" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2659,16 +2665,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D25" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E25" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2676,16 +2682,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D26" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E26" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2693,16 +2699,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D27" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E27" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2710,16 +2716,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D28" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E28" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2727,16 +2733,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C29" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D29" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E29" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2744,16 +2750,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C30" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D30" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E30" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2761,16 +2767,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D31" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E31" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2778,16 +2784,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C32" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D32" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E32" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2795,16 +2801,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C33" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D33" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E33" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2812,16 +2818,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C34" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D34" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E34" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2829,16 +2835,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C35" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D35" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E35" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2846,16 +2852,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C36" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D36" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E36" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2863,16 +2869,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C37" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D37" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E37" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2880,16 +2886,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C38" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D38" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E38" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2897,16 +2903,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C39" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D39" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E39" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2914,16 +2920,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C40" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D40" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E40" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2931,16 +2937,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C41" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D41" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E41" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2948,16 +2954,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C42" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D42" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E42" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2965,16 +2971,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C43" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D43" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E43" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2982,16 +2988,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C44" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D44" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E44" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2999,16 +3005,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C45" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D45" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E45" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3016,16 +3022,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C46" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D46" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E46" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3033,16 +3039,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C47" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D47" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E47" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3050,16 +3056,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C48" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D48" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E48" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3067,16 +3073,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C49" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D49" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E49" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3084,16 +3090,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C50" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D50" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E50" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3101,16 +3107,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D51" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E51" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3118,16 +3124,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C52" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D52" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E52" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3135,16 +3141,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C53" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D53" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E53" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3152,16 +3158,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C54" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D54" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E54" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3169,16 +3175,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C55" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D55" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E55" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3186,16 +3192,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C56" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D56" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E56" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3203,16 +3209,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C57" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D57" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E57" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3220,16 +3226,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C58" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D58" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E58" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3237,16 +3243,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C59" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D59" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E59" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3254,16 +3260,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C60" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D60" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E60" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3271,16 +3277,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C61" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D61" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E61" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3288,16 +3294,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C62" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D62" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E62" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3305,16 +3311,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C63" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D63" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E63" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3322,16 +3328,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C64" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D64" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E64" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3339,16 +3345,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C65" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D65" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E65" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3356,16 +3362,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C66" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D66" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E66" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3373,16 +3379,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C67" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D67" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E67" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3390,16 +3396,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C68" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D68" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E68" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3407,16 +3413,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C69" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D69" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E69" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3424,16 +3430,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C70" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D70" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E70" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3441,16 +3447,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C71" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D71" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E71" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3458,16 +3464,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C72" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D72" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E72" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3475,16 +3481,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C73" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D73" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E73" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3492,16 +3498,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C74" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D74" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E74" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3509,16 +3515,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C75" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D75" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E75" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3526,16 +3532,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C76" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D76" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E76" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3543,16 +3549,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C77" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D77" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E77" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3560,16 +3566,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C78" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D78" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E78" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3577,16 +3583,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C79" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D79" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E79" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3594,16 +3600,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C80" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D80" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E80" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3611,16 +3617,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C81" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D81" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E81" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3628,16 +3634,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C82" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D82" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E82" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3645,16 +3651,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C83" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D83" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E83" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3662,16 +3668,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C84" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D84" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E84" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3679,16 +3685,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C85" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D85" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E85" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3696,16 +3702,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C86" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D86" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E86" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3713,16 +3719,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C87" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D87" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E87" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3730,16 +3736,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C88" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D88" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E88" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3747,16 +3753,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C89" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D89" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E89" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3764,16 +3770,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C90" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D90" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E90" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3781,16 +3787,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C91" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D91" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E91" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3798,16 +3804,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C92" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D92" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E92" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3815,16 +3821,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C93" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D93" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E93" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3832,16 +3838,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C94" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D94" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E94" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3849,16 +3855,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C95" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D95" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E95" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3866,16 +3872,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C96" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D96" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E96" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3883,16 +3889,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C97" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D97" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E97" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3900,16 +3906,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C98" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D98" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E98" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3917,16 +3923,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C99" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D99" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E99" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3934,16 +3940,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C100" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D100" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E100" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3951,16 +3957,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C101" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D101" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E101" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3968,16 +3974,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C102" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D102" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E102" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3985,16 +3991,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C103" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D103" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E103" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4002,16 +4008,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C104" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D104" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E104" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4019,16 +4025,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C105" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D105" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E105" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4036,16 +4042,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C106" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D106" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E106" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4053,16 +4059,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C107" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D107" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E107" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4070,16 +4076,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C108" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D108" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E108" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4087,16 +4093,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C109" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D109" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E109" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4104,16 +4110,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C110" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D110" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E110" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4121,16 +4127,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C111" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D111" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E111" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4138,16 +4144,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C112" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D112" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E112" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4155,16 +4161,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C113" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D113" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E113" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4172,16 +4178,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C114" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D114" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E114" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4189,16 +4195,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C115" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D115" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E115" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4206,16 +4212,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C116" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D116" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E116" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4223,16 +4229,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C117" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D117" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E117" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4240,16 +4246,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C118" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D118" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E118" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4257,16 +4263,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C119" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D119" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E119" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4274,16 +4280,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C120" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D120" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E120" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4291,16 +4297,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C121" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D121" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E121" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4308,16 +4314,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C122" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D122" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E122" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4325,16 +4331,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C123" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D123" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E123" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4342,16 +4348,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C124" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D124" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E124" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4359,16 +4365,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C125" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D125" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E125" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4376,16 +4382,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C126" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D126" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E126" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4393,16 +4399,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C127" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D127" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="E127" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4410,16 +4416,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C128" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D128" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E128" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4427,16 +4433,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C129" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D129" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E129" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4447,13 +4453,13 @@
         <v>299</v>
       </c>
       <c r="C130" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D130" t="s">
         <v>598</v>
       </c>
       <c r="E130" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4461,16 +4467,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C131" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D131" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E131" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4478,16 +4484,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C132" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D132" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E132" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4495,16 +4501,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C133" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D133" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E133" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4512,16 +4518,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C134" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D134" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E134" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4532,13 +4538,13 @@
         <v>300</v>
       </c>
       <c r="C135" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D135" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E135" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4546,16 +4552,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C136" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D136" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E136" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4563,16 +4569,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C137" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D137" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E137" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4580,16 +4586,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C138" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D138" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E138" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4597,16 +4603,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C139" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D139" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E139" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4614,16 +4620,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C140" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D140" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E140" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4631,16 +4637,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C141" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D141" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E141" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4648,16 +4654,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C142" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D142" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E142" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4665,16 +4671,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C143" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D143" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E143" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4682,16 +4688,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C144" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D144" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E144" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4699,16 +4705,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C145" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D145" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E145" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4716,16 +4722,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C146" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D146" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E146" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4733,16 +4739,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C147" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D147" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E147" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4750,16 +4756,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C148" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D148" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E148" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4767,16 +4773,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C149" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D149" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E149" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4784,16 +4790,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C150" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D150" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E150" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4801,16 +4807,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C151" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D151" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E151" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4818,16 +4824,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C152" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D152" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E152" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4835,16 +4841,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C153" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D153" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E153" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4852,16 +4858,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C154" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D154" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E154" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4869,16 +4875,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C155" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D155" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E155" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4886,16 +4892,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C156" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D156" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E156" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4906,13 +4912,13 @@
         <v>300</v>
       </c>
       <c r="C157" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D157" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E157" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4920,16 +4926,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C158" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D158" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E158" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4937,16 +4943,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C159" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D159" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E159" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4954,16 +4960,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C160" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D160" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E160" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4971,16 +4977,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C161" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D161" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E161" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4988,16 +4994,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C162" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D162" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E162" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5005,16 +5011,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C163" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D163" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E163" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5022,16 +5028,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C164" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D164" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E164" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5042,13 +5048,13 @@
         <v>300</v>
       </c>
       <c r="C165" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D165" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E165" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5056,16 +5062,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C166" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D166" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E166" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5076,13 +5082,13 @@
         <v>300</v>
       </c>
       <c r="C167" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D167" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E167" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5090,16 +5096,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C168" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D168" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E168" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5107,16 +5113,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C169" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D169" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E169" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5124,16 +5130,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C170" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D170" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E170" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5141,16 +5147,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C171" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D171" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E171" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5158,16 +5164,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C172" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D172" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E172" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5175,16 +5181,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C173" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D173" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E173" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5192,16 +5198,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C174" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D174" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E174" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5209,16 +5215,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C175" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D175" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="E175" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5226,16 +5232,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C176" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D176" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E176" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5243,16 +5249,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C177" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D177" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E177" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5260,16 +5266,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C178" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D178" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E178" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5277,16 +5283,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C179" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D179" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E179" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5294,16 +5300,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C180" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D180" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E180" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5311,16 +5317,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C181" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D181" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E181" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5331,13 +5337,13 @@
         <v>299</v>
       </c>
       <c r="C182" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D182" t="s">
         <v>598</v>
       </c>
       <c r="E182" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5345,16 +5351,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C183" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D183" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E183" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5362,16 +5368,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C184" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D184" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E184" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5379,16 +5385,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C185" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D185" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E185" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5396,16 +5402,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C186" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D186" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E186" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5413,16 +5419,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C187" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D187" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E187" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5430,16 +5436,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C188" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D188" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E188" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5447,16 +5453,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C189" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D189" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E189" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5464,16 +5470,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C190" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D190" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E190" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5481,16 +5487,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C191" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D191" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E191" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5498,16 +5504,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C192" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D192" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E192" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5515,16 +5521,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C193" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D193" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E193" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5532,16 +5538,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C194" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D194" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E194" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5549,16 +5555,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C195" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D195" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E195" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5569,13 +5575,13 @@
         <v>300</v>
       </c>
       <c r="C196" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D196" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E196" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5583,16 +5589,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C197" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D197" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E197" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5600,16 +5606,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C198" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D198" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E198" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5617,16 +5623,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C199" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D199" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E199" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5634,16 +5640,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C200" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D200" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E200" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5651,16 +5657,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C201" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D201" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E201" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5671,13 +5677,13 @@
         <v>300</v>
       </c>
       <c r="C202" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D202" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E202" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5685,16 +5691,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C203" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D203" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E203" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5702,16 +5708,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C204" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D204" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E204" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5719,16 +5725,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C205" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D205" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E205" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5736,16 +5742,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C206" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D206" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E206" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5753,16 +5759,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C207" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D207" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E207" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5770,16 +5776,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C208" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D208" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E208" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5787,16 +5793,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C209" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D209" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E209" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5804,16 +5810,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C210" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D210" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E210" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5821,16 +5827,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C211" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D211" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E211" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5838,16 +5844,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C212" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D212" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E212" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5855,16 +5861,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C213" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D213" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E213" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5872,16 +5878,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C214" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D214" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E214" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5889,16 +5895,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C215" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D215" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E215" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5906,16 +5912,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C216" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D216" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E216" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5923,16 +5929,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C217" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D217" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E217" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5940,16 +5946,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C218" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D218" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E218" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5957,16 +5963,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C219" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D219" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E219" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5974,16 +5980,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C220" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D220" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E220" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5991,16 +5997,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C221" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D221" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E221" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6008,16 +6014,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C222" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D222" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E222" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6025,16 +6031,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C223" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D223" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E223" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6042,16 +6048,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C224" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D224" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E224" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6062,13 +6068,13 @@
         <v>299</v>
       </c>
       <c r="C225" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D225" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E225" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6079,13 +6085,13 @@
         <v>300</v>
       </c>
       <c r="C226" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D226" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E226" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6093,16 +6099,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C227" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D227" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E227" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6110,16 +6116,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C228" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D228" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E228" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6127,16 +6133,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C229" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D229" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E229" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6144,16 +6150,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C230" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D230" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E230" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6161,16 +6167,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C231" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D231" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E231" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6178,16 +6184,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C232" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D232" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E232" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6195,16 +6201,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C233" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D233" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="E233" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6212,16 +6218,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C234" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D234" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E234" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6229,16 +6235,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C235" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D235" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E235" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6246,16 +6252,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C236" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D236" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E236" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6263,16 +6269,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C237" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D237" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E237" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6280,16 +6286,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C238" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D238" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E238" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6297,16 +6303,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C239" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D239" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E239" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6314,16 +6320,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C240" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D240" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E240" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6331,16 +6337,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C241" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D241" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E241" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6348,16 +6354,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C242" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D242" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E242" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6365,16 +6371,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C243" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D243" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E243" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6382,16 +6388,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C244" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D244" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="E244" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6399,16 +6405,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C245" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D245" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E245" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6416,16 +6422,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C246" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D246" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E246" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6433,16 +6439,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C247" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D247" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E247" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6450,16 +6456,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C248" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D248" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E248" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6467,16 +6473,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C249" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D249" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E249" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6484,16 +6490,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C250" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="D250" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E250" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6501,16 +6507,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C251" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D251" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E251" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6518,16 +6524,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C252" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D252" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E252" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6535,16 +6541,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C253" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D253" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E253" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6552,16 +6558,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C254" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D254" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E254" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6569,16 +6575,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C255" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D255" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E255" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6586,16 +6592,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C256" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D256" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="E256" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6603,16 +6609,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C257" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D257" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E257" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6620,16 +6626,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C258" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D258" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E258" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6637,16 +6643,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C259" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D259" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E259" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6654,16 +6660,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C260" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D260" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="E260" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6671,16 +6677,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C261" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D261" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E261" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6688,16 +6694,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C262" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D262" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E262" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6705,16 +6711,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C263" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D263" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E263" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6722,16 +6728,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C264" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D264" t="s">
-        <v>303</v>
+        <v>608</v>
       </c>
       <c r="E264" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6739,16 +6745,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C265" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D265" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E265" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6756,16 +6762,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C266" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D266" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E266" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6773,16 +6779,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C267" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D267" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E267" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6790,16 +6796,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C268" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D268" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E268" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6810,13 +6816,13 @@
         <v>304</v>
       </c>
       <c r="C269" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D269" t="s">
-        <v>614</v>
+        <v>304</v>
       </c>
       <c r="E269" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6824,16 +6830,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C270" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D270" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E270" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6841,16 +6847,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C271" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D271" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E271" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6858,16 +6864,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C272" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D272" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E272" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6875,16 +6881,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C273" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D273" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E273" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6892,16 +6898,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C274" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D274" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E274" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6909,16 +6915,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C275" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D275" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E275" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6926,16 +6932,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C276" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D276" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E276" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6943,16 +6949,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C277" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D277" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E277" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6960,16 +6966,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C278" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D278" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E278" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6977,16 +6983,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C279" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D279" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E279" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6994,16 +7000,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C280" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D280" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E280" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7011,16 +7017,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C281" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D281" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E281" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7028,16 +7034,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C282" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D282" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E282" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7045,16 +7051,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C283" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D283" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E283" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7062,16 +7068,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C284" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D284" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="E284" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7079,16 +7085,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C285" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D285" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="E285" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7096,16 +7102,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C286" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D286" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E286" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7113,16 +7119,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C287" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D287" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E287" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7130,16 +7136,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C288" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D288" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E288" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7147,16 +7153,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C289" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D289" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E289" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7164,16 +7170,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C290" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D290" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E290" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7181,16 +7187,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C291" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D291" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E291" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7198,16 +7204,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C292" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D292" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E292" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7215,16 +7221,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C293" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D293" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E293" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7232,16 +7238,33 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
+        <v>299</v>
+      </c>
+      <c r="C294" t="s">
+        <v>596</v>
+      </c>
+      <c r="D294" t="s">
+        <v>620</v>
+      </c>
+      <c r="E294" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
         <v>298</v>
       </c>
-      <c r="C294" t="s">
-        <v>595</v>
-      </c>
-      <c r="D294" t="s">
-        <v>618</v>
-      </c>
-      <c r="E294" t="s">
-        <v>622</v>
+      <c r="B295" t="s">
+        <v>299</v>
+      </c>
+      <c r="C295" t="s">
+        <v>597</v>
+      </c>
+      <c r="D295" t="s">
+        <v>620</v>
+      </c>
+      <c r="E295" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="627">
   <si>
     <t>Pāli1</t>
   </si>
@@ -904,6 +904,9 @@
     <t>pītipaṭisaṃvedī</t>
   </si>
   <si>
+    <t>anāgāmī</t>
+  </si>
+  <si>
     <t>sakadāgāmī</t>
   </si>
   <si>
@@ -1799,6 +1802,9 @@
   </si>
   <si>
     <t>experiencing heart-felt joy; feeling delight; sensitive to rapture</t>
+  </si>
+  <si>
+    <t>who does not return; non-returning (in this world)</t>
   </si>
   <si>
     <t>who returns once; once-returner</t>
@@ -2246,7 +2252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E295"/>
+  <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2274,16 +2280,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2291,16 +2297,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E3" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2308,16 +2314,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D4" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E4" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2325,16 +2331,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E5" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2342,16 +2348,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E6" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2359,16 +2365,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2376,16 +2382,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D8" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E8" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2393,16 +2399,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D9" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E9" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2410,16 +2416,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D10" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E10" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2427,16 +2433,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D11" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E11" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2444,16 +2450,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D12" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E12" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2461,16 +2467,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D13" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E13" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2478,16 +2484,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D14" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E14" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2495,16 +2501,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D15" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E15" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2512,16 +2518,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D16" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E16" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2529,16 +2535,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C17" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D17" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E17" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2546,16 +2552,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D18" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E18" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2563,16 +2569,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C19" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D19" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E19" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2580,16 +2586,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C20" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D20" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E20" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2597,16 +2603,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D21" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E21" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2614,16 +2620,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D22" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E22" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2631,16 +2637,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C23" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D23" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E23" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2648,16 +2654,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C24" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D24" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E24" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2665,16 +2671,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C25" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D25" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E25" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2682,16 +2688,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C26" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D26" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E26" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2699,16 +2705,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C27" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D27" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E27" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2716,16 +2722,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D28" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E28" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2733,16 +2739,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C29" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D29" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E29" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2750,16 +2756,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C30" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D30" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E30" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2767,16 +2773,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C31" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D31" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E31" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2784,16 +2790,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C32" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D32" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E32" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2801,16 +2807,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C33" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D33" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E33" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2818,16 +2824,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C34" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D34" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E34" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2835,16 +2841,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C35" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D35" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E35" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2852,16 +2858,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C36" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D36" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E36" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2869,16 +2875,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C37" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D37" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E37" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2886,16 +2892,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C38" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D38" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E38" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2903,16 +2909,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C39" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D39" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E39" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2920,16 +2926,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C40" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D40" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E40" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2937,16 +2943,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C41" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D41" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E41" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2954,16 +2960,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C42" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D42" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E42" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2971,16 +2977,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C43" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D43" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E43" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2988,16 +2994,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C44" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D44" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E44" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3005,16 +3011,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C45" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D45" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E45" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3022,16 +3028,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C46" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D46" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E46" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3039,16 +3045,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C47" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D47" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E47" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3056,16 +3062,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C48" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D48" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E48" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3073,16 +3079,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C49" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D49" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E49" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3090,16 +3096,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C50" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D50" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E50" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3107,16 +3113,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C51" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D51" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E51" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3124,16 +3130,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C52" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D52" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E52" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3141,16 +3147,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C53" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D53" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E53" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3158,16 +3164,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C54" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D54" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E54" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3175,16 +3181,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C55" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D55" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E55" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3192,16 +3198,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C56" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D56" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E56" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3209,16 +3215,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C57" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D57" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E57" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3226,16 +3232,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C58" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D58" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E58" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3243,16 +3249,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C59" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D59" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E59" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3260,16 +3266,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C60" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D60" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E60" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3277,16 +3283,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C61" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D61" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E61" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3294,16 +3300,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C62" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D62" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E62" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3311,16 +3317,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C63" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D63" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E63" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3328,16 +3334,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C64" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D64" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E64" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3345,16 +3351,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C65" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D65" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E65" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3362,16 +3368,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C66" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D66" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E66" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3379,16 +3385,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C67" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D67" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E67" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3396,16 +3402,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C68" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D68" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E68" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3413,16 +3419,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C69" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D69" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E69" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3430,16 +3436,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C70" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D70" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E70" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3447,16 +3453,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C71" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D71" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E71" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3464,16 +3470,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C72" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D72" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E72" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3481,16 +3487,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C73" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D73" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E73" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3498,16 +3504,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C74" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D74" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E74" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3515,16 +3521,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C75" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D75" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E75" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3532,16 +3538,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D76" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E76" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3549,16 +3555,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C77" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D77" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E77" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3566,16 +3572,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C78" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D78" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E78" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3583,16 +3589,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C79" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D79" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E79" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3600,16 +3606,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C80" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D80" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E80" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3617,16 +3623,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C81" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D81" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E81" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3634,16 +3640,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C82" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D82" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E82" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3651,16 +3657,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C83" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D83" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E83" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3668,16 +3674,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C84" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D84" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E84" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3685,16 +3691,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C85" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D85" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E85" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3702,16 +3708,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C86" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D86" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E86" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3719,16 +3725,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C87" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D87" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E87" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3736,16 +3742,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C88" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D88" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E88" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3753,16 +3759,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C89" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D89" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E89" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3770,16 +3776,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C90" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D90" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E90" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3787,16 +3793,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C91" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D91" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E91" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3804,16 +3810,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C92" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D92" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E92" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3821,16 +3827,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C93" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D93" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E93" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3838,16 +3844,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C94" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D94" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E94" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3855,16 +3861,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C95" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D95" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E95" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3872,16 +3878,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C96" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D96" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E96" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3889,16 +3895,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C97" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D97" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E97" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3906,16 +3912,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C98" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D98" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E98" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3923,16 +3929,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C99" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D99" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E99" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3940,16 +3946,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C100" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D100" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E100" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3957,16 +3963,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C101" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D101" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E101" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3974,16 +3980,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C102" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D102" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E102" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3991,16 +3997,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C103" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D103" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E103" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4008,16 +4014,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C104" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D104" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E104" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4025,16 +4031,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C105" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D105" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E105" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4042,16 +4048,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C106" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D106" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E106" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4059,16 +4065,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C107" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D107" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E107" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4076,16 +4082,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C108" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D108" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E108" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4093,16 +4099,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C109" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D109" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E109" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4110,16 +4116,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C110" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D110" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E110" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4127,16 +4133,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C111" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D111" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E111" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4144,16 +4150,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C112" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D112" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E112" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4161,16 +4167,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C113" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D113" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E113" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4178,16 +4184,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C114" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D114" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E114" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4195,16 +4201,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C115" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D115" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E115" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4212,16 +4218,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C116" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D116" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E116" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4229,16 +4235,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C117" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D117" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E117" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4246,16 +4252,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C118" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D118" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E118" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4263,16 +4269,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C119" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D119" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E119" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4280,16 +4286,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C120" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D120" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E120" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4297,16 +4303,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C121" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D121" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E121" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4314,16 +4320,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C122" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D122" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E122" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4331,16 +4337,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C123" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D123" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E123" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4348,16 +4354,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C124" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D124" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E124" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4365,16 +4371,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C125" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D125" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E125" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4382,16 +4388,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C126" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D126" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E126" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4399,16 +4405,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C127" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D127" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E127" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4416,16 +4422,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C128" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D128" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E128" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4433,16 +4439,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C129" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D129" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E129" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4450,16 +4456,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C130" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D130" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E130" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4467,16 +4473,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C131" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D131" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E131" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4484,16 +4490,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C132" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D132" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E132" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4501,16 +4507,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C133" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D133" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E133" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4518,16 +4524,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C134" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D134" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E134" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4535,16 +4541,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C135" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D135" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E135" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4552,16 +4558,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C136" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D136" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E136" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4569,16 +4575,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C137" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D137" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E137" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4586,16 +4592,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C138" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D138" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E138" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4603,16 +4609,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C139" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D139" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E139" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4620,16 +4626,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C140" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D140" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E140" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4637,16 +4643,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C141" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D141" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E141" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4654,16 +4660,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C142" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D142" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E142" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4671,16 +4677,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C143" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D143" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E143" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4688,16 +4694,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C144" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D144" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E144" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4705,16 +4711,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C145" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D145" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E145" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4722,16 +4728,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C146" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D146" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E146" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4739,16 +4745,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C147" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D147" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E147" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4756,16 +4762,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C148" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D148" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E148" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4773,16 +4779,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C149" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D149" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E149" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4790,16 +4796,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C150" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D150" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E150" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4807,16 +4813,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C151" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D151" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E151" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4824,16 +4830,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C152" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D152" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E152" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4841,16 +4847,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C153" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D153" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E153" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4858,16 +4864,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C154" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D154" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E154" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4875,16 +4881,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C155" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D155" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E155" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4892,16 +4898,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C156" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D156" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E156" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4909,16 +4915,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C157" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D157" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E157" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4926,16 +4932,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C158" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D158" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E158" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4943,16 +4949,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C159" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D159" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E159" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4960,16 +4966,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C160" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D160" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E160" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4977,16 +4983,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C161" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D161" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E161" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4994,16 +5000,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C162" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D162" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E162" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5011,16 +5017,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C163" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D163" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E163" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5028,16 +5034,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C164" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D164" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E164" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5045,16 +5051,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C165" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D165" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E165" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5062,16 +5068,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C166" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D166" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E166" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5079,16 +5085,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C167" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D167" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E167" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5096,16 +5102,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C168" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D168" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E168" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5113,16 +5119,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C169" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D169" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E169" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5130,16 +5136,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C170" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D170" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E170" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5147,16 +5153,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C171" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D171" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E171" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5164,16 +5170,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C172" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D172" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E172" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5181,16 +5187,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C173" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D173" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E173" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5198,16 +5204,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C174" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D174" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E174" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5215,16 +5221,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C175" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D175" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E175" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5232,16 +5238,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C176" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D176" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E176" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5249,16 +5255,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C177" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D177" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E177" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5266,16 +5272,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C178" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D178" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E178" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5283,16 +5289,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C179" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D179" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E179" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5300,16 +5306,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C180" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D180" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E180" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5317,16 +5323,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C181" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D181" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E181" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5334,16 +5340,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C182" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D182" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E182" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5351,16 +5357,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C183" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D183" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E183" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5368,16 +5374,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C184" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D184" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E184" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5385,16 +5391,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C185" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D185" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E185" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5402,16 +5408,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C186" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D186" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E186" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5419,16 +5425,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C187" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D187" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E187" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5436,16 +5442,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C188" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D188" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E188" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5453,16 +5459,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C189" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D189" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E189" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5470,16 +5476,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C190" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D190" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E190" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5487,16 +5493,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C191" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D191" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E191" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5504,16 +5510,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C192" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D192" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E192" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5521,16 +5527,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C193" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D193" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E193" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5538,16 +5544,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C194" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D194" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E194" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5555,16 +5561,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C195" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D195" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E195" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5572,16 +5578,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C196" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D196" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E196" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5589,16 +5595,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C197" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D197" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E197" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5606,16 +5612,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C198" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D198" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E198" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5623,16 +5629,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C199" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D199" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E199" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5640,16 +5646,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C200" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D200" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E200" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5657,16 +5663,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C201" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D201" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E201" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5674,16 +5680,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C202" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D202" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E202" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5691,16 +5697,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C203" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D203" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E203" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5708,16 +5714,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C204" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D204" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E204" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5725,16 +5731,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C205" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D205" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E205" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5742,16 +5748,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C206" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D206" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E206" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5759,16 +5765,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C207" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D207" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E207" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5776,16 +5782,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C208" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D208" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E208" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5793,16 +5799,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C209" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D209" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E209" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5810,16 +5816,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C210" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D210" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E210" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5827,16 +5833,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C211" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D211" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E211" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5844,16 +5850,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C212" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D212" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E212" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5861,16 +5867,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C213" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D213" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E213" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5878,16 +5884,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C214" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D214" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E214" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5895,16 +5901,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C215" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D215" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E215" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5912,16 +5918,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C216" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D216" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E216" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5929,16 +5935,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C217" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D217" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E217" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5946,16 +5952,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C218" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D218" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E218" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5963,16 +5969,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C219" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D219" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E219" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5980,16 +5986,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C220" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D220" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E220" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5997,16 +6003,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C221" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D221" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E221" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6014,16 +6020,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C222" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D222" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E222" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6031,16 +6037,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C223" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D223" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E223" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6048,16 +6054,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C224" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D224" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E224" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6065,16 +6071,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C225" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D225" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E225" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6082,16 +6088,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C226" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D226" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E226" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6099,16 +6105,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C227" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D227" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E227" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6116,16 +6122,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C228" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D228" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E228" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6133,16 +6139,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C229" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D229" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E229" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6150,16 +6156,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C230" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D230" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E230" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6167,16 +6173,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C231" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D231" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E231" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6184,16 +6190,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C232" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D232" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E232" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6201,16 +6207,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C233" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D233" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E233" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6218,16 +6224,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C234" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D234" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E234" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6235,16 +6241,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C235" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D235" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E235" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6252,16 +6258,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C236" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D236" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E236" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6269,16 +6275,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C237" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D237" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E237" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6286,16 +6292,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C238" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D238" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E238" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6303,16 +6309,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C239" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D239" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E239" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6320,16 +6326,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C240" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D240" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E240" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6337,16 +6343,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C241" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D241" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E241" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6354,16 +6360,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C242" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D242" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E242" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6371,16 +6377,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C243" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D243" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E243" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6388,16 +6394,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C244" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D244" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E244" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6405,16 +6411,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C245" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D245" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E245" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6422,16 +6428,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C246" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D246" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E246" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6439,16 +6445,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C247" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D247" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E247" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6456,16 +6462,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C248" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D248" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E248" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6473,16 +6479,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C249" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D249" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E249" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6490,16 +6496,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C250" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D250" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E250" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6507,16 +6513,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C251" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D251" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E251" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6524,16 +6530,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C252" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D252" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E252" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6541,16 +6547,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C253" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D253" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E253" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6558,16 +6564,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C254" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D254" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E254" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6575,16 +6581,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C255" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D255" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E255" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6592,16 +6598,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C256" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D256" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E256" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6609,16 +6615,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C257" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D257" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E257" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6626,16 +6632,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C258" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D258" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E258" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6643,16 +6649,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C259" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D259" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E259" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6660,16 +6666,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C260" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D260" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E260" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6677,16 +6683,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C261" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D261" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E261" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6694,16 +6700,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C262" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D262" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E262" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6711,16 +6717,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C263" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D263" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E263" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6728,16 +6734,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C264" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D264" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E264" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6745,16 +6751,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C265" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D265" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E265" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6762,16 +6768,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C266" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D266" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E266" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6779,16 +6785,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C267" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D267" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E267" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6796,16 +6802,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C268" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D268" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E268" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6813,16 +6819,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C269" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D269" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E269" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6830,16 +6836,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C270" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D270" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E270" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6847,16 +6853,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C271" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D271" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E271" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6864,16 +6870,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C272" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D272" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E272" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6881,16 +6887,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C273" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D273" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E273" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6898,16 +6904,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C274" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D274" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E274" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6915,16 +6921,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C275" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D275" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E275" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6932,16 +6938,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C276" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D276" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E276" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6949,16 +6955,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C277" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D277" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E277" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6966,16 +6972,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C278" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D278" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E278" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6983,16 +6989,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C279" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D279" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E279" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7000,16 +7006,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C280" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D280" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E280" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7017,16 +7023,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C281" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D281" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E281" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7034,16 +7040,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C282" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D282" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E282" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7051,16 +7057,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C283" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D283" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E283" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7068,16 +7074,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C284" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D284" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E284" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7085,16 +7091,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C285" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D285" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E285" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7102,16 +7108,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C286" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D286" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E286" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7119,16 +7125,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C287" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D287" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E287" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7136,16 +7142,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C288" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D288" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E288" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7153,16 +7159,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C289" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D289" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E289" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7170,16 +7176,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C290" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D290" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E290" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7187,16 +7193,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C291" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D291" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E291" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7204,16 +7210,16 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C292" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D292" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E292" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7221,16 +7227,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C293" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D293" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E293" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7238,16 +7244,16 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C294" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D294" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E294" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7255,16 +7261,33 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
+        <v>300</v>
+      </c>
+      <c r="C295" t="s">
+        <v>598</v>
+      </c>
+      <c r="D295" t="s">
+        <v>622</v>
+      </c>
+      <c r="E295" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
         <v>299</v>
       </c>
-      <c r="C295" t="s">
-        <v>597</v>
-      </c>
-      <c r="D295" t="s">
-        <v>620</v>
-      </c>
-      <c r="E295" t="s">
-        <v>624</v>
+      <c r="B296" t="s">
+        <v>300</v>
+      </c>
+      <c r="C296" t="s">
+        <v>599</v>
+      </c>
+      <c r="D296" t="s">
+        <v>622</v>
+      </c>
+      <c r="E296" t="s">
+        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="617">
   <si>
     <t>Pāli1</t>
   </si>
@@ -556,15 +556,9 @@
     <t>mugga</t>
   </si>
   <si>
-    <t>pessaka</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
-    <t>sippika</t>
-  </si>
-  <si>
     <t>kāraka 2</t>
   </si>
   <si>
@@ -598,9 +592,6 @@
     <t>jhāyati 1</t>
   </si>
   <si>
-    <t>panūdati</t>
-  </si>
-  <si>
     <t>chindati</t>
   </si>
   <si>
@@ -622,6 +613,9 @@
     <t>amhi</t>
   </si>
   <si>
+    <t>ajesi</t>
+  </si>
+  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -679,9 +673,6 @@
     <t>gahapati</t>
   </si>
   <si>
-    <t>vīhi</t>
-  </si>
-  <si>
     <t>sāli</t>
   </si>
   <si>
@@ -805,9 +796,6 @@
     <t>sobhati</t>
   </si>
   <si>
-    <t>ajesi</t>
-  </si>
-  <si>
     <t>ḍeti</t>
   </si>
   <si>
@@ -901,9 +889,6 @@
     <t>gavesī 1</t>
   </si>
   <si>
-    <t>pītipaṭisaṃvedī</t>
-  </si>
-  <si>
     <t>anāgāmī</t>
   </si>
   <si>
@@ -1462,15 +1447,9 @@
     <t>mung beans</t>
   </si>
   <si>
-    <t>messenger; lit. who is sent</t>
-  </si>
-  <si>
     <t>merchant; trader</t>
   </si>
   <si>
-    <t>craftsman; artisan</t>
-  </si>
-  <si>
     <t>doer; maker; creator; builder</t>
   </si>
   <si>
@@ -1504,9 +1483,6 @@
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
-    <t>dispels; drives out; rejects; pushes away</t>
-  </si>
-  <si>
     <t>cuts; cuts off; severs</t>
   </si>
   <si>
@@ -1528,6 +1504,9 @@
     <t>I am</t>
   </si>
   <si>
+    <t>conquered; defeated</t>
+  </si>
+  <si>
     <t>addressed; said (to)</t>
   </si>
   <si>
@@ -1582,9 +1561,6 @@
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
-    <t>rice paddy</t>
-  </si>
-  <si>
     <t>rice</t>
   </si>
   <si>
@@ -1705,9 +1681,6 @@
     <t>shines; radiates; looks beautiful</t>
   </si>
   <si>
-    <t>conquered; defeated</t>
-  </si>
-  <si>
     <t>flies; flies up</t>
   </si>
   <si>
@@ -1799,9 +1772,6 @@
   </si>
   <si>
     <t>seeking; searching for; looking for</t>
-  </si>
-  <si>
-    <t>experiencing heart-felt joy; feeling delight; sensitive to rapture</t>
   </si>
   <si>
     <t>who does not return; non-returning (in this world)</t>
@@ -2252,7 +2222,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E296"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2280,16 +2250,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D2" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E2" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2297,16 +2267,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D3" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E3" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2314,16 +2284,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D4" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E4" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2331,16 +2301,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D5" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E5" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2348,16 +2318,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D6" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E6" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2365,16 +2335,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D7" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2382,16 +2352,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D8" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E8" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2399,16 +2369,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D9" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E9" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2416,16 +2386,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D10" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E10" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2433,16 +2403,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D11" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E11" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2450,16 +2420,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D12" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E12" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2467,16 +2437,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C13" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D13" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E13" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2484,16 +2454,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D14" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E14" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2501,16 +2471,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C15" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D15" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E15" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2518,16 +2488,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C16" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D16" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E16" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2535,16 +2505,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D17" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E17" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2552,16 +2522,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C18" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D18" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E18" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2569,16 +2539,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C19" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D19" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E19" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2586,16 +2556,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C20" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D20" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E20" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2603,16 +2573,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C21" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D21" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E21" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2620,16 +2590,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C22" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D22" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E22" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2637,16 +2607,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C23" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D23" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E23" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2654,16 +2624,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C24" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D24" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E24" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2671,16 +2641,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C25" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D25" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E25" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2688,16 +2658,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C26" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D26" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E26" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2705,16 +2675,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C27" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D27" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E27" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2722,16 +2692,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C28" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D28" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E28" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2739,16 +2709,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C29" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D29" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E29" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2756,16 +2726,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C30" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D30" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E30" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2773,16 +2743,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C31" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D31" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E31" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2790,16 +2760,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C32" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D32" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E32" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2807,16 +2777,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C33" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D33" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E33" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2824,16 +2794,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C34" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D34" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E34" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2841,16 +2811,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C35" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D35" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E35" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2858,16 +2828,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C36" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D36" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E36" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2875,16 +2845,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C37" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D37" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E37" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2892,16 +2862,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C38" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D38" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E38" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2909,16 +2879,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C39" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D39" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E39" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2926,16 +2896,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C40" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D40" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E40" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2943,16 +2913,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C41" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D41" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E41" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2960,16 +2930,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C42" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D42" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E42" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2977,16 +2947,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C43" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D43" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E43" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2994,16 +2964,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C44" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D44" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E44" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3011,16 +2981,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C45" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D45" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E45" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3028,16 +2998,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C46" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D46" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E46" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3045,16 +3015,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C47" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D47" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E47" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3062,16 +3032,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C48" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D48" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E48" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3079,16 +3049,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C49" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D49" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E49" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3096,16 +3066,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C50" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D50" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E50" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3113,16 +3083,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C51" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D51" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E51" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3130,16 +3100,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C52" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D52" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E52" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3147,16 +3117,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C53" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D53" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E53" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3164,16 +3134,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C54" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D54" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E54" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3181,16 +3151,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C55" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D55" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E55" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3198,16 +3168,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C56" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D56" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E56" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3215,16 +3185,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C57" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D57" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E57" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3232,16 +3202,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C58" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D58" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E58" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3249,16 +3219,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C59" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D59" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E59" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3266,16 +3236,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C60" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D60" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E60" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3283,16 +3253,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C61" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D61" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E61" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3300,16 +3270,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C62" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D62" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E62" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3317,16 +3287,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C63" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D63" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E63" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3334,16 +3304,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C64" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D64" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E64" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3351,16 +3321,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C65" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D65" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E65" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3368,16 +3338,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C66" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D66" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E66" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3385,16 +3355,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C67" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D67" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E67" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3402,16 +3372,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C68" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D68" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E68" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3419,16 +3389,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C69" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D69" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E69" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3436,16 +3406,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C70" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D70" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E70" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3453,16 +3423,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C71" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D71" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E71" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3470,16 +3440,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C72" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D72" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E72" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3487,16 +3457,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C73" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D73" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E73" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3504,16 +3474,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C74" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D74" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E74" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3521,16 +3491,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C75" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D75" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E75" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3538,16 +3508,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C76" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D76" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E76" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3555,16 +3525,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C77" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D77" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E77" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3572,16 +3542,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C78" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D78" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E78" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3589,16 +3559,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C79" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D79" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E79" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3606,16 +3576,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C80" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D80" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E80" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3623,16 +3593,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C81" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D81" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E81" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3640,16 +3610,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C82" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D82" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E82" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3657,16 +3627,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C83" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D83" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E83" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3674,16 +3644,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C84" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D84" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E84" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3691,16 +3661,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C85" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D85" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E85" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3708,16 +3678,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C86" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D86" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E86" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3725,16 +3695,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C87" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D87" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E87" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3742,16 +3712,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C88" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D88" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E88" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3759,16 +3729,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C89" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D89" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E89" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3776,16 +3746,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C90" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D90" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E90" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3793,16 +3763,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C91" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D91" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E91" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3810,16 +3780,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C92" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D92" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E92" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3827,16 +3797,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C93" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D93" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E93" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3844,16 +3814,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C94" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D94" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E94" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3861,16 +3831,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C95" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D95" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E95" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3878,16 +3848,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C96" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D96" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E96" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3895,16 +3865,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C97" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D97" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E97" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3912,16 +3882,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C98" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D98" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E98" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3929,16 +3899,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C99" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D99" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E99" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3946,16 +3916,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C100" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D100" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E100" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3963,16 +3933,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C101" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D101" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E101" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3980,16 +3950,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C102" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D102" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E102" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3997,16 +3967,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C103" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D103" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E103" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4014,16 +3984,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C104" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D104" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E104" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4031,16 +4001,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C105" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D105" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E105" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4048,16 +4018,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C106" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D106" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E106" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4065,16 +4035,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C107" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D107" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E107" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4082,16 +4052,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C108" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D108" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E108" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4099,16 +4069,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C109" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D109" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E109" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4116,16 +4086,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C110" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D110" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E110" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4133,16 +4103,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C111" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D111" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E111" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4150,16 +4120,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C112" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D112" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E112" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4167,16 +4137,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C113" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D113" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E113" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4184,16 +4154,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C114" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D114" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E114" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4201,16 +4171,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C115" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D115" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E115" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4218,16 +4188,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C116" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D116" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E116" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4235,16 +4205,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C117" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D117" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E117" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4252,16 +4222,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C118" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D118" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E118" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4269,16 +4239,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C119" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D119" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E119" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4286,16 +4256,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C120" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D120" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E120" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4303,16 +4273,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C121" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D121" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E121" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4320,16 +4290,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C122" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D122" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E122" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4337,16 +4307,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C123" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D123" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E123" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4354,16 +4324,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C124" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D124" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E124" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4371,16 +4341,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C125" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D125" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E125" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4388,16 +4358,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C126" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D126" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="E126" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4405,16 +4375,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C127" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D127" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="E127" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4422,16 +4392,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C128" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D128" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E128" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4439,16 +4409,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C129" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D129" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E129" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4456,16 +4426,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C130" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D130" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E130" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4473,16 +4443,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C131" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D131" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E131" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4490,16 +4460,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C132" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D132" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E132" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4507,16 +4477,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C133" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D133" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E133" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4524,16 +4494,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C134" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D134" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E134" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4541,16 +4511,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C135" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D135" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E135" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4558,16 +4528,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C136" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D136" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E136" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4575,16 +4545,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C137" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D137" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E137" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4592,16 +4562,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C138" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D138" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E138" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4609,16 +4579,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C139" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D139" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E139" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4626,16 +4596,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C140" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D140" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E140" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4643,16 +4613,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C141" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D141" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E141" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4660,16 +4630,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C142" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D142" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E142" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4677,16 +4647,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C143" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D143" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E143" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4694,16 +4664,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C144" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D144" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E144" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4711,16 +4681,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C145" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D145" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E145" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4728,16 +4698,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C146" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D146" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E146" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4745,16 +4715,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C147" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D147" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E147" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4762,16 +4732,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C148" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D148" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E148" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4779,16 +4749,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C149" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D149" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E149" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4796,16 +4766,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C150" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D150" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E150" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4813,16 +4783,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C151" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D151" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E151" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4830,16 +4800,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C152" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D152" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E152" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4847,16 +4817,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C153" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D153" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E153" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4864,16 +4834,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C154" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D154" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E154" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4881,16 +4851,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C155" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D155" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E155" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4898,16 +4868,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C156" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D156" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E156" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4915,16 +4885,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C157" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D157" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E157" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4932,16 +4902,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C158" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D158" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E158" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4949,16 +4919,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C159" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D159" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E159" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4966,16 +4936,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C160" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D160" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="E160" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4983,16 +4953,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C161" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D161" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="E161" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5000,16 +4970,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C162" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D162" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="E162" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5017,16 +4987,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C163" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D163" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="E163" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5034,16 +5004,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C164" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D164" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="E164" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5051,16 +5021,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C165" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D165" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="E165" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5068,16 +5038,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C166" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D166" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="E166" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5085,16 +5055,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C167" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D167" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="E167" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5102,16 +5072,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C168" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D168" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="E168" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5119,16 +5089,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C169" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D169" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="E169" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5136,16 +5106,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C170" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D170" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="E170" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5153,16 +5123,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C171" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D171" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="E171" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5170,16 +5140,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C172" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D172" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="E172" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5187,16 +5157,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C173" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D173" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="E173" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5204,16 +5174,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C174" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D174" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="E174" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5221,16 +5191,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C175" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D175" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="E175" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5238,16 +5208,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C176" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D176" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E176" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5255,16 +5225,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C177" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D177" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E177" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5272,16 +5242,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C178" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D178" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E178" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5289,16 +5259,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C179" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D179" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E179" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5306,16 +5276,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C180" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D180" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E180" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5323,16 +5293,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C181" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D181" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="E181" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5340,16 +5310,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C182" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D182" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="E182" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5357,16 +5327,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C183" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D183" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E183" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5374,16 +5344,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C184" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D184" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E184" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5391,16 +5361,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C185" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D185" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E185" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5408,16 +5378,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C186" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D186" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E186" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5425,16 +5395,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C187" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D187" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E187" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5442,16 +5412,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C188" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D188" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E188" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5459,16 +5429,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C189" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D189" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E189" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5476,16 +5446,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C190" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D190" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E190" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5493,16 +5463,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C191" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D191" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E191" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5510,16 +5480,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C192" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D192" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E192" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5527,16 +5497,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C193" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D193" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="E193" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5544,16 +5514,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C194" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D194" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="E194" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5561,16 +5531,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C195" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D195" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="E195" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5578,16 +5548,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C196" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D196" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="E196" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5595,16 +5565,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C197" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D197" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="E197" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5612,16 +5582,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C198" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D198" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="E198" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5629,16 +5599,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C199" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D199" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="E199" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5646,16 +5616,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C200" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="D200" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="E200" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5663,16 +5633,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C201" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D201" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="E201" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5680,16 +5650,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C202" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D202" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="E202" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5697,16 +5667,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C203" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D203" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="E203" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5714,16 +5684,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C204" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D204" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="E204" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5731,16 +5701,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C205" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D205" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="E205" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5748,16 +5718,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C206" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D206" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="E206" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5765,16 +5735,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C207" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D207" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="E207" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5782,16 +5752,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C208" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D208" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="E208" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5799,16 +5769,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C209" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D209" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="E209" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5816,16 +5786,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C210" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D210" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="E210" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5833,16 +5803,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C211" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D211" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="E211" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5850,16 +5820,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C212" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D212" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="E212" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5867,16 +5837,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C213" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D213" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="E213" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5884,16 +5854,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C214" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D214" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="E214" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5901,16 +5871,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C215" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D215" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="E215" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5918,16 +5888,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C216" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D216" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="E216" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5935,16 +5905,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C217" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D217" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="E217" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5952,16 +5922,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C218" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D218" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="E218" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5969,16 +5939,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C219" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D219" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="E219" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5986,16 +5956,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C220" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D220" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="E220" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6003,16 +5973,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C221" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D221" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="E221" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6020,16 +5990,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C222" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D222" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="E222" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6037,16 +6007,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C223" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D223" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="E223" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6054,16 +6024,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C224" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D224" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="E224" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6071,16 +6041,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C225" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D225" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="E225" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6088,16 +6058,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C226" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D226" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E226" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6105,16 +6075,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C227" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D227" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E227" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6122,16 +6092,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C228" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D228" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="E228" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6139,16 +6109,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C229" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D229" t="s">
+        <v>606</v>
+      </c>
+      <c r="E229" t="s">
         <v>615</v>
-      </c>
-      <c r="E229" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6156,16 +6126,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C230" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D230" t="s">
+        <v>606</v>
+      </c>
+      <c r="E230" t="s">
         <v>615</v>
-      </c>
-      <c r="E230" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6173,16 +6143,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C231" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D231" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="E231" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6190,16 +6160,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C232" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D232" t="s">
+        <v>590</v>
+      </c>
+      <c r="E232" t="s">
         <v>616</v>
-      </c>
-      <c r="E232" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6207,16 +6177,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C233" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D233" t="s">
+        <v>590</v>
+      </c>
+      <c r="E233" t="s">
         <v>616</v>
-      </c>
-      <c r="E233" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6224,16 +6194,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C234" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D234" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E234" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6241,16 +6211,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C235" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D235" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E235" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6258,16 +6228,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C236" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D236" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E236" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6275,16 +6245,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C237" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D237" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E237" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6292,16 +6262,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C238" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D238" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E238" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6309,16 +6279,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C239" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D239" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E239" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6326,16 +6296,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C240" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D240" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E240" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6343,16 +6313,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C241" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D241" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E241" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6360,16 +6330,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C242" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D242" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="E242" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6377,16 +6347,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C243" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D243" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="E243" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6394,16 +6364,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C244" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D244" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="E244" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6411,16 +6381,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C245" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D245" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="E245" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6428,16 +6398,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C246" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D246" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="E246" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6445,16 +6415,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C247" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D247" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="E247" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6462,16 +6432,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C248" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="D248" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="E248" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6479,16 +6449,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C249" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D249" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="E249" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6496,16 +6466,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C250" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D250" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="E250" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6513,16 +6483,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C251" t="s">
         <v>549</v>
       </c>
       <c r="D251" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="E251" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6530,16 +6500,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C252" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D252" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="E252" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6547,16 +6517,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C253" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D253" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="E253" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6564,16 +6534,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C254" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D254" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="E254" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6581,16 +6551,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C255" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D255" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="E255" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6598,16 +6568,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C256" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D256" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="E256" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6615,16 +6585,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C257" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D257" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="E257" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6632,16 +6602,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C258" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D258" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="E258" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6649,16 +6619,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C259" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D259" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E259" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6666,16 +6636,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C260" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D260" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="E260" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6683,16 +6653,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C261" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D261" t="s">
-        <v>603</v>
+        <v>300</v>
       </c>
       <c r="E261" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6700,16 +6670,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C262" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D262" t="s">
-        <v>603</v>
+        <v>300</v>
       </c>
       <c r="E262" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6717,16 +6687,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C263" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D263" t="s">
-        <v>610</v>
+        <v>300</v>
       </c>
       <c r="E263" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6734,16 +6704,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C264" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D264" t="s">
-        <v>610</v>
+        <v>300</v>
       </c>
       <c r="E264" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6751,16 +6721,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C265" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D265" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E265" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6768,16 +6738,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C266" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D266" t="s">
-        <v>305</v>
+        <v>608</v>
       </c>
       <c r="E266" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6785,16 +6755,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C267" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D267" t="s">
-        <v>305</v>
+        <v>608</v>
       </c>
       <c r="E267" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6802,16 +6772,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C268" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D268" t="s">
-        <v>305</v>
+        <v>608</v>
       </c>
       <c r="E268" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6819,16 +6789,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C269" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D269" t="s">
-        <v>305</v>
+        <v>608</v>
       </c>
       <c r="E269" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6836,16 +6806,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C270" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D270" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="E270" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6853,16 +6823,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C271" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D271" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="E271" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6870,16 +6840,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C272" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D272" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="E272" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6887,16 +6857,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C273" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D273" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="E273" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6904,16 +6874,16 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C274" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D274" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="E274" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6921,16 +6891,16 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C275" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D275" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="E275" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6938,16 +6908,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C276" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D276" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="E276" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6955,16 +6925,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C277" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D277" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E277" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6972,16 +6942,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C278" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D278" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E278" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6989,16 +6959,16 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C279" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D279" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E279" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7006,16 +6976,16 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C280" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D280" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E280" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7023,16 +6993,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C281" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D281" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="E281" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7040,16 +7010,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C282" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D282" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="E282" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7057,16 +7027,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C283" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D283" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="E283" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7074,16 +7044,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C284" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D284" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="E284" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7091,16 +7061,16 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C285" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D285" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="E285" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7108,16 +7078,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C286" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D286" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="E286" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7125,16 +7095,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C287" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D287" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="E287" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7142,16 +7112,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C288" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D288" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="E288" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7159,16 +7129,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C289" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D289" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="E289" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7176,16 +7146,16 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C290" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D290" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="E290" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7193,101 +7163,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C291" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D291" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="E291" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="A292" t="s">
-        <v>295</v>
-      </c>
-      <c r="B292" t="s">
-        <v>307</v>
-      </c>
-      <c r="C292" t="s">
-        <v>595</v>
-      </c>
-      <c r="D292" t="s">
-        <v>621</v>
-      </c>
-      <c r="E292" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="A293" t="s">
-        <v>296</v>
-      </c>
-      <c r="B293" t="s">
-        <v>307</v>
-      </c>
-      <c r="C293" t="s">
-        <v>596</v>
-      </c>
-      <c r="D293" t="s">
-        <v>621</v>
-      </c>
-      <c r="E293" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
-      <c r="A294" t="s">
-        <v>297</v>
-      </c>
-      <c r="B294" t="s">
-        <v>307</v>
-      </c>
-      <c r="C294" t="s">
-        <v>597</v>
-      </c>
-      <c r="D294" t="s">
-        <v>621</v>
-      </c>
-      <c r="E294" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="A295" t="s">
-        <v>298</v>
-      </c>
-      <c r="B295" t="s">
-        <v>300</v>
-      </c>
-      <c r="C295" t="s">
-        <v>598</v>
-      </c>
-      <c r="D295" t="s">
-        <v>622</v>
-      </c>
-      <c r="E295" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
-      <c r="A296" t="s">
-        <v>299</v>
-      </c>
-      <c r="B296" t="s">
-        <v>300</v>
-      </c>
-      <c r="C296" t="s">
-        <v>599</v>
-      </c>
-      <c r="D296" t="s">
-        <v>622</v>
-      </c>
-      <c r="E296" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="572">
   <si>
     <t>Pāli1</t>
   </si>
@@ -61,9 +61,6 @@
     <t>danta 2</t>
   </si>
   <si>
-    <t>nakha</t>
-  </si>
-  <si>
     <t>loma</t>
   </si>
   <si>
@@ -73,7 +70,7 @@
     <t>vinaya 1</t>
   </si>
   <si>
-    <t>dhamma 1</t>
+    <t>dhamma 03</t>
   </si>
   <si>
     <t>pariyāya 4</t>
@@ -118,7 +115,7 @@
     <t>samaya 1</t>
   </si>
   <si>
-    <t>attha 1</t>
+    <t>attha 01</t>
   </si>
   <si>
     <t>sāriputta</t>
@@ -190,7 +187,7 @@
     <t>rāga 1</t>
   </si>
   <si>
-    <t>bheda 1</t>
+    <t>bheda 3</t>
   </si>
   <si>
     <t>khaya</t>
@@ -205,7 +202,7 @@
     <t>sekha</t>
   </si>
   <si>
-    <t>dhamma 5</t>
+    <t>dhamma 02</t>
   </si>
   <si>
     <t>samatha 1</t>
@@ -310,13 +307,13 @@
     <t>uppāda</t>
   </si>
   <si>
-    <t>dhamma 2</t>
+    <t>dhamma 05</t>
   </si>
   <si>
     <t>moha</t>
   </si>
   <si>
-    <t>bāla 4</t>
+    <t>bāla 2</t>
   </si>
   <si>
     <t>kāya 1</t>
@@ -331,7 +328,7 @@
     <t>cāga 2</t>
   </si>
   <si>
-    <t>attha 5</t>
+    <t>attha 05</t>
   </si>
   <si>
     <t>abyāpāda</t>
@@ -370,7 +367,7 @@
     <t>thera 2</t>
   </si>
   <si>
-    <t>dhamma 9</t>
+    <t>dhamma 09</t>
   </si>
   <si>
     <t>nara</t>
@@ -463,12 +460,6 @@
     <t>paṭilabhati</t>
   </si>
   <si>
-    <t>tasati 1</t>
-  </si>
-  <si>
-    <t>āmantayati 1</t>
-  </si>
-  <si>
     <t>sikkhati</t>
   </si>
   <si>
@@ -511,9 +502,6 @@
     <t>paṭisaṃvedeti</t>
   </si>
   <si>
-    <t>paṭiggaheti</t>
-  </si>
-  <si>
     <t>vedeti 1</t>
   </si>
   <si>
@@ -541,9 +529,6 @@
     <t>paṭijānāti 3</t>
   </si>
   <si>
-    <t>jināti 2</t>
-  </si>
-  <si>
     <t>ājānāti 1</t>
   </si>
   <si>
@@ -553,18 +538,9 @@
     <t>pāpuṇāti 1</t>
   </si>
   <si>
-    <t>mugga</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
-    <t>kāraka 2</t>
-  </si>
-  <si>
-    <t>dhaja 1</t>
-  </si>
-  <si>
     <t>kassaka</t>
   </si>
   <si>
@@ -607,15 +583,12 @@
     <t>asi 2</t>
   </si>
   <si>
-    <t>attha 8</t>
+    <t>attha 12</t>
   </si>
   <si>
     <t>amhi</t>
   </si>
   <si>
-    <t>ajesi</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -625,15 +598,9 @@
     <t>pāturahosi</t>
   </si>
   <si>
-    <t>homa 3</t>
-  </si>
-  <si>
     <t>hotha</t>
   </si>
   <si>
-    <t>hontu</t>
-  </si>
-  <si>
     <t>hotu</t>
   </si>
   <si>
@@ -664,9 +631,6 @@
     <t>nisīdi</t>
   </si>
   <si>
-    <t>agacchi</t>
-  </si>
-  <si>
     <t>muni</t>
   </si>
   <si>
@@ -721,15 +685,9 @@
     <t>taca 1</t>
   </si>
   <si>
-    <t>kāra 2</t>
-  </si>
-  <si>
     <t>mada 1</t>
   </si>
   <si>
-    <t>dava</t>
-  </si>
-  <si>
     <t>ājīva</t>
   </si>
   <si>
@@ -739,15 +697,6 @@
     <t>adhamma 2</t>
   </si>
   <si>
-    <t>saṃyoga 2</t>
-  </si>
-  <si>
-    <t>visaṃyoga</t>
-  </si>
-  <si>
-    <t>akkosa</t>
-  </si>
-  <si>
     <t>abhisamaya</t>
   </si>
   <si>
@@ -757,9 +706,6 @@
     <t>mayā 1</t>
   </si>
   <si>
-    <t>amhesu</t>
-  </si>
-  <si>
     <t>no 4</t>
   </si>
   <si>
@@ -769,7 +715,7 @@
     <t>mayaṃ</t>
   </si>
   <si>
-    <t>me 4</t>
+    <t>me 5</t>
   </si>
   <si>
     <t>no 7</t>
@@ -787,27 +733,12 @@
     <t>me 3</t>
   </si>
   <si>
-    <t>khaṇati</t>
-  </si>
-  <si>
-    <t>okirati</t>
-  </si>
-  <si>
     <t>sobhati</t>
   </si>
   <si>
-    <t>ḍeti</t>
-  </si>
-  <si>
     <t>neti 2</t>
   </si>
   <si>
-    <t>paridevi</t>
-  </si>
-  <si>
-    <t>soci</t>
-  </si>
-  <si>
     <t>na 1</t>
   </si>
   <si>
@@ -856,7 +787,7 @@
     <t>tumhe 2</t>
   </si>
   <si>
-    <t>te 4</t>
+    <t>te 6</t>
   </si>
   <si>
     <t>tuvaṃ 1</t>
@@ -955,9 +886,6 @@
     <t>tooth; tusk; fang</t>
   </si>
   <si>
-    <t>a nail; a claw</t>
-  </si>
-  <si>
     <t>the hair on the body; pelt</t>
   </si>
   <si>
@@ -994,7 +922,7 @@
     <t>being; existence; becoming</t>
   </si>
   <si>
-    <t>rainy season; rain</t>
+    <t>rainy season; monsoon</t>
   </si>
   <si>
     <t>house; dwelling place; residence</t>
@@ -1204,7 +1132,7 @@
     <t>arising; appearing; coming into being</t>
   </si>
   <si>
-    <t>state of mind</t>
+    <t>state of mind; mental states</t>
   </si>
   <si>
     <t>stupidity; delusion; illusion; confusion</t>
@@ -1357,12 +1285,6 @@
     <t>obtains; receives; gets</t>
   </si>
   <si>
-    <t>is afraid (of); fears</t>
-  </si>
-  <si>
-    <t>adresses; speaks to; tells</t>
-  </si>
-  <si>
     <t>learns; trains; practises</t>
   </si>
   <si>
@@ -1405,36 +1327,33 @@
     <t>undergoes; feels; experiences</t>
   </si>
   <si>
+    <t>feels; experiences; senses</t>
+  </si>
+  <si>
+    <t>bears in mind; keeps in mind; remembers</t>
+  </si>
+  <si>
+    <t>gives; offers; hands</t>
+  </si>
+  <si>
+    <t>come; come here!</t>
+  </si>
+  <si>
+    <t>listens; hears</t>
+  </si>
+  <si>
+    <t>he must hear! may he listen!</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>feels; experiences; senses</t>
-  </si>
-  <si>
-    <t>bears in mind; keeps in mind; remembers</t>
-  </si>
-  <si>
-    <t>gives; offers; hands</t>
-  </si>
-  <si>
-    <t>come; come here!</t>
-  </si>
-  <si>
-    <t>listens; hears</t>
-  </si>
-  <si>
-    <t>he must hear! may he listen!</t>
-  </si>
-  <si>
     <t>comes to mind; occurs (to); appears; becomes evident</t>
   </si>
   <si>
     <t>makes the claim (of); claims (to be)</t>
   </si>
   <si>
-    <t>surpasses; beats; wins (over)</t>
-  </si>
-  <si>
     <t>knows; understands</t>
   </si>
   <si>
@@ -1444,18 +1363,9 @@
     <t>reaches; arrives (at); attains; experiences</t>
   </si>
   <si>
-    <t>mung beans</t>
-  </si>
-  <si>
     <t>merchant; trader</t>
   </si>
   <si>
-    <t>doer; maker; creator; builder</t>
-  </si>
-  <si>
-    <t>flag; banner; symbol; emblem; lit. flapping (on the wind)</t>
-  </si>
-  <si>
     <t>farmer; ploughman</t>
   </si>
   <si>
@@ -1504,9 +1414,6 @@
     <t>I am</t>
   </si>
   <si>
-    <t>conquered; defeated</t>
-  </si>
-  <si>
     <t>addressed; said (to)</t>
   </si>
   <si>
@@ -1519,9 +1426,6 @@
     <t>may you all be! you all must be!</t>
   </si>
   <si>
-    <t>may they be! they must be!</t>
-  </si>
-  <si>
     <t>may it be! he must be</t>
   </si>
   <si>
@@ -1552,9 +1456,6 @@
     <t>sat (on); sat down (in)</t>
   </si>
   <si>
-    <t>went; travelled</t>
-  </si>
-  <si>
     <t>monk; sage; hermit; holy man</t>
   </si>
   <si>
@@ -1609,15 +1510,9 @@
     <t>skin</t>
   </si>
   <si>
-    <t>deed; action; service</t>
-  </si>
-  <si>
     <t>excess; pleasure; intoxication</t>
   </si>
   <si>
-    <t>pleasure; fun; play; sport</t>
-  </si>
-  <si>
     <t>livelihood; way of earning a living</t>
   </si>
   <si>
@@ -1627,15 +1522,6 @@
     <t>false teaching; against the teaching</t>
   </si>
   <si>
-    <t>attachment; association; constraint</t>
-  </si>
-  <si>
-    <t>detachment; separation; unconstraint</t>
-  </si>
-  <si>
-    <t>verbal abuse; insult</t>
-  </si>
-  <si>
     <t>complete comprehension (of); total understanding (of); lit. arriving</t>
   </si>
   <si>
@@ -1645,9 +1531,6 @@
     <t>by me; with me</t>
   </si>
   <si>
-    <t>in us; among us</t>
-  </si>
-  <si>
     <t>us (object)</t>
   </si>
   <si>
@@ -1672,27 +1555,12 @@
     <t>for me; to me</t>
   </si>
   <si>
-    <t>digs; uproots; destroys</t>
-  </si>
-  <si>
-    <t>sprinkles; scatters down (onto)</t>
-  </si>
-  <si>
     <t>shines; radiates; looks beautiful</t>
   </si>
   <si>
-    <t>flies; flies up</t>
-  </si>
-  <si>
     <t>leads; carries away; takes away</t>
   </si>
   <si>
-    <t>mourned; lamented; wailed</t>
-  </si>
-  <si>
-    <t>grieved; was sad</t>
-  </si>
-  <si>
     <t>(negative particle); no; not</t>
   </si>
   <si>
@@ -1817,9 +1685,6 @@
   </si>
   <si>
     <t>i-aor</t>
-  </si>
-  <si>
-    <t>i-aor-issaṃ</t>
   </si>
   <si>
     <t>i-masc</t>
@@ -2222,7 +2087,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E291"/>
+  <dimension ref="A1:E268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2250,16 +2115,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E2" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2267,16 +2132,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="D3" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E3" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2284,16 +2149,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="D4" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E4" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2301,16 +2166,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="D5" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E5" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2318,16 +2183,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="D6" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E6" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2335,16 +2200,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="D7" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E7" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2352,16 +2217,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C8" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="D8" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E8" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2369,16 +2234,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="D9" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E9" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2386,16 +2251,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="D10" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E10" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2403,16 +2268,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="D11" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E11" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2420,16 +2285,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="D12" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E12" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2437,16 +2302,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="D13" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E13" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2454,16 +2319,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C14" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="D14" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E14" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2471,16 +2336,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C15" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="D15" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E15" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2488,16 +2353,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C16" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="D16" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E16" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2505,16 +2370,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" t="s">
         <v>295</v>
       </c>
-      <c r="C17" t="s">
-        <v>318</v>
-      </c>
       <c r="D17" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E17" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2522,16 +2387,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C18" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="D18" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E18" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2539,16 +2404,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C19" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="D19" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E19" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2556,16 +2421,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C20" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="D20" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E20" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2573,16 +2438,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="D21" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E21" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2590,16 +2455,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C22" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="D22" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E22" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2607,16 +2472,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C23" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="D23" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E23" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2624,16 +2489,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C24" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="D24" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E24" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2641,16 +2506,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C25" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="D25" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E25" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2658,16 +2523,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C26" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="D26" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E26" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2675,16 +2540,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C27" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="D27" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E27" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2692,16 +2557,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C28" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="D28" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E28" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2709,16 +2574,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C29" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="D29" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E29" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2726,16 +2591,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C30" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="D30" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E30" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2743,16 +2608,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C31" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="D31" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E31" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2760,16 +2625,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C32" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="D32" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E32" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2777,16 +2642,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C33" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="D33" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E33" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2794,16 +2659,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C34" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="D34" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E34" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2811,16 +2676,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C35" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="D35" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E35" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2828,16 +2693,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C36" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="D36" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E36" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2845,16 +2710,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C37" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="D37" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E37" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2862,16 +2727,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C38" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="D38" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E38" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2879,16 +2744,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C39" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="D39" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E39" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2896,16 +2761,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C40" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="D40" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E40" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2913,16 +2778,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C41" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="D41" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E41" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2930,16 +2795,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C42" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="D42" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E42" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2947,16 +2812,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C43" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="D43" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E43" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2964,16 +2829,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C44" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="D44" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E44" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2981,16 +2846,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C45" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="D45" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E45" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2998,16 +2863,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C46" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="D46" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E46" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3015,16 +2880,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C47" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="D47" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E47" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3032,16 +2897,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C48" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="D48" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E48" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3049,16 +2914,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C49" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="D49" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E49" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3066,16 +2931,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C50" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="D50" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E50" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3083,16 +2948,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C51" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="D51" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E51" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3100,16 +2965,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C52" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="D52" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E52" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3117,16 +2982,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C53" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="D53" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E53" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3134,16 +2999,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C54" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="D54" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E54" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3151,16 +3016,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C55" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="D55" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E55" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3168,16 +3033,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C56" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="D56" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E56" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3185,16 +3050,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C57" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="D57" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E57" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3202,16 +3067,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C58" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="D58" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E58" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3219,16 +3084,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C59" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="D59" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E59" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3236,16 +3101,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C60" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="D60" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E60" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3253,16 +3118,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C61" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="D61" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E61" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3270,16 +3135,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C62" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="D62" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E62" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3287,16 +3152,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C63" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="D63" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E63" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3304,16 +3169,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C64" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="D64" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E64" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3321,16 +3186,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C65" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="D65" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E65" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3338,16 +3203,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C66" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="D66" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E66" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3355,16 +3220,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C67" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="D67" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E67" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3372,16 +3237,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C68" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D68" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E68" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3389,16 +3254,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C69" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="D69" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E69" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3406,16 +3271,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C70" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="D70" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E70" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3423,16 +3288,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C71" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="D71" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E71" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3440,16 +3305,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C72" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="D72" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E72" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3457,16 +3322,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C73" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="D73" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E73" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3474,16 +3339,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C74" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="D74" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E74" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3491,16 +3356,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C75" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="D75" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E75" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3508,16 +3373,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C76" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="D76" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E76" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3525,16 +3390,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C77" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="D77" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E77" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3542,16 +3407,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C78" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="D78" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E78" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3559,16 +3424,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C79" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="D79" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E79" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3576,16 +3441,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C80" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="D80" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E80" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3593,16 +3458,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C81" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="D81" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E81" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3610,16 +3475,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C82" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="D82" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E82" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3627,16 +3492,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C83" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="D83" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E83" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3644,16 +3509,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C84" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="D84" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E84" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3661,16 +3526,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C85" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="D85" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E85" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3678,16 +3543,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C86" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="D86" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E86" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3695,16 +3560,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C87" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="D87" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E87" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3712,16 +3577,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C88" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="D88" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E88" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3729,16 +3594,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C89" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="D89" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E89" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3746,16 +3611,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C90" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="D90" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E90" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3763,16 +3628,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C91" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="D91" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E91" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3780,16 +3645,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C92" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="D92" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E92" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3797,16 +3662,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C93" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="D93" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E93" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3814,16 +3679,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C94" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="D94" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E94" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3831,16 +3696,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C95" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="D95" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E95" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3848,16 +3713,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C96" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="D96" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E96" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3865,16 +3730,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C97" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="D97" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E97" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3882,16 +3747,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C98" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="D98" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E98" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3899,16 +3764,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C99" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="D99" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E99" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3916,16 +3781,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C100" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="D100" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E100" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3933,16 +3798,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C101" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="D101" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E101" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3950,16 +3815,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C102" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="D102" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E102" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3967,16 +3832,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C103" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="D103" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E103" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3984,16 +3849,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C104" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="D104" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E104" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4001,16 +3866,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C105" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D105" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E105" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4018,16 +3883,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C106" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D106" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E106" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4035,16 +3900,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C107" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="D107" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E107" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4052,16 +3917,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C108" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="D108" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E108" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4069,16 +3934,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C109" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="D109" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E109" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4086,16 +3951,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C110" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="D110" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E110" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4103,16 +3968,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C111" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="D111" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E111" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4120,16 +3985,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C112" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="D112" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E112" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4137,16 +4002,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C113" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="D113" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E113" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4154,16 +4019,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C114" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="D114" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E114" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4171,16 +4036,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C115" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="D115" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E115" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4188,16 +4053,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C116" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="D116" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E116" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4205,16 +4070,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C117" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="D117" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E117" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4222,16 +4087,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C118" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="D118" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E118" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4239,16 +4104,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C119" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="D119" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E119" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4256,16 +4121,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C120" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="D120" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E120" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4273,16 +4138,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C121" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="D121" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E121" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4290,16 +4155,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C122" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="D122" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E122" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4307,16 +4172,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C123" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="D123" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E123" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4324,16 +4189,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C124" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="D124" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E124" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4341,16 +4206,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C125" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="D125" t="s">
-        <v>590</v>
+        <v>547</v>
       </c>
       <c r="E125" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4358,16 +4223,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C126" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="D126" t="s">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="E126" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4375,16 +4240,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C127" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="D127" t="s">
-        <v>591</v>
+        <v>546</v>
       </c>
       <c r="E127" t="s">
-        <v>613</v>
+        <v>569</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4392,16 +4257,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C128" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="D128" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E128" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4409,16 +4274,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C129" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="D129" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="E129" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4426,16 +4291,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C130" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="D130" t="s">
-        <v>590</v>
+        <v>548</v>
       </c>
       <c r="E130" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4443,16 +4308,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C131" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="D131" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E131" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4460,16 +4325,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C132" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="D132" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E132" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4477,16 +4342,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C133" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="D133" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E133" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4494,16 +4359,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C134" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="D134" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E134" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4511,16 +4376,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C135" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="D135" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E135" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4528,16 +4393,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="C136" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="D136" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E136" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4545,16 +4410,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C137" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="D137" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E137" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4562,16 +4427,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C138" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="D138" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E138" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4579,16 +4444,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C139" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="D139" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E139" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4596,16 +4461,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C140" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="D140" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E140" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4613,16 +4478,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C141" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D141" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E141" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4630,16 +4495,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C142" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="D142" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E142" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4647,16 +4512,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C143" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="D143" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E143" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4664,16 +4529,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C144" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="D144" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E144" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4681,16 +4546,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C145" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="D145" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E145" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4698,16 +4563,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C146" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="D146" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E146" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4715,16 +4580,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C147" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="D147" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E147" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4732,16 +4597,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C148" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="D148" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E148" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4749,16 +4614,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C149" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="D149" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E149" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4766,16 +4631,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C150" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="D150" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E150" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4783,16 +4648,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C151" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="D151" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E151" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4800,16 +4665,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C152" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="D152" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E152" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4817,16 +4682,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C153" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="D153" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E153" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4834,16 +4699,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C154" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="D154" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E154" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4851,16 +4716,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C155" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="D155" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E155" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4868,16 +4733,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C156" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="D156" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E156" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4885,16 +4750,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C157" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="D157" t="s">
-        <v>592</v>
+        <v>549</v>
       </c>
       <c r="E157" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4902,16 +4767,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="C158" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="D158" t="s">
-        <v>592</v>
+        <v>549</v>
       </c>
       <c r="E158" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4919,16 +4784,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C159" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="D159" t="s">
-        <v>592</v>
+        <v>549</v>
       </c>
       <c r="E159" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4936,16 +4801,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C160" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="D160" t="s">
-        <v>593</v>
+        <v>549</v>
       </c>
       <c r="E160" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4953,16 +4818,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C161" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="D161" t="s">
-        <v>593</v>
+        <v>549</v>
       </c>
       <c r="E161" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4970,16 +4835,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C162" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="D162" t="s">
-        <v>593</v>
+        <v>550</v>
       </c>
       <c r="E162" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4987,16 +4852,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C163" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="D163" t="s">
-        <v>593</v>
+        <v>551</v>
       </c>
       <c r="E163" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5004,16 +4869,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C164" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="D164" t="s">
-        <v>593</v>
+        <v>551</v>
       </c>
       <c r="E164" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5021,16 +4886,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C165" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="D165" t="s">
-        <v>593</v>
+        <v>551</v>
       </c>
       <c r="E165" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5038,16 +4903,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="C166" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="D166" t="s">
-        <v>594</v>
+        <v>551</v>
       </c>
       <c r="E166" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5055,16 +4920,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C167" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="D167" t="s">
-        <v>595</v>
+        <v>551</v>
       </c>
       <c r="E167" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5072,16 +4937,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="C168" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="D168" t="s">
-        <v>595</v>
+        <v>551</v>
       </c>
       <c r="E168" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5089,16 +4954,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C169" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="D169" t="s">
-        <v>595</v>
+        <v>551</v>
       </c>
       <c r="E169" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5106,16 +4971,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C170" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="D170" t="s">
-        <v>595</v>
+        <v>551</v>
       </c>
       <c r="E170" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5123,16 +4988,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="C171" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="D171" t="s">
-        <v>595</v>
+        <v>546</v>
       </c>
       <c r="E171" t="s">
-        <v>614</v>
+        <v>570</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5140,16 +5005,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="C172" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="D172" t="s">
-        <v>595</v>
+        <v>546</v>
       </c>
       <c r="E172" t="s">
-        <v>614</v>
+        <v>570</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5157,16 +5022,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C173" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="D173" t="s">
-        <v>595</v>
+        <v>548</v>
       </c>
       <c r="E173" t="s">
-        <v>614</v>
+        <v>570</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5174,16 +5039,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C174" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="D174" t="s">
-        <v>595</v>
+        <v>548</v>
       </c>
       <c r="E174" t="s">
-        <v>614</v>
+        <v>570</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5191,16 +5056,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C175" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="D175" t="s">
-        <v>595</v>
+        <v>548</v>
       </c>
       <c r="E175" t="s">
-        <v>614</v>
+        <v>570</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5208,16 +5073,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C176" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="D176" t="s">
-        <v>590</v>
+        <v>548</v>
       </c>
       <c r="E176" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5225,16 +5090,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C177" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="D177" t="s">
-        <v>590</v>
+        <v>548</v>
       </c>
       <c r="E177" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5242,16 +5107,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C178" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="D178" t="s">
-        <v>590</v>
+        <v>548</v>
       </c>
       <c r="E178" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5259,16 +5124,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C179" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="D179" t="s">
-        <v>590</v>
+        <v>548</v>
       </c>
       <c r="E179" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5276,16 +5141,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C180" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="D180" t="s">
-        <v>590</v>
+        <v>548</v>
       </c>
       <c r="E180" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5293,16 +5158,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C181" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="D181" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="E181" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5310,16 +5175,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C182" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="D182" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="E182" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5327,16 +5192,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C183" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="D183" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="E183" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5344,16 +5209,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C184" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="D184" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="E184" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5361,16 +5226,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C185" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="D185" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="E185" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5378,16 +5243,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C186" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="D186" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="E186" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5395,16 +5260,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C187" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="D187" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="E187" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5412,16 +5277,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C188" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="D188" t="s">
-        <v>592</v>
+        <v>553</v>
       </c>
       <c r="E188" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5429,16 +5294,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C189" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="D189" t="s">
-        <v>592</v>
+        <v>554</v>
       </c>
       <c r="E189" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5446,16 +5311,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C190" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="D190" t="s">
-        <v>596</v>
+        <v>554</v>
       </c>
       <c r="E190" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5463,16 +5328,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C191" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="D191" t="s">
-        <v>596</v>
+        <v>555</v>
       </c>
       <c r="E191" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5480,16 +5345,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C192" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="D192" t="s">
-        <v>596</v>
+        <v>555</v>
       </c>
       <c r="E192" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5497,16 +5362,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C193" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="D193" t="s">
-        <v>596</v>
+        <v>555</v>
       </c>
       <c r="E193" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5514,16 +5379,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="C194" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="D194" t="s">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="E194" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5531,16 +5396,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C195" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="D195" t="s">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="E195" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5548,16 +5413,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C196" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="D196" t="s">
-        <v>597</v>
+        <v>556</v>
       </c>
       <c r="E196" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5565,16 +5430,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C197" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="D197" t="s">
-        <v>597</v>
+        <v>556</v>
       </c>
       <c r="E197" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5582,16 +5447,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C198" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="D198" t="s">
-        <v>598</v>
+        <v>556</v>
       </c>
       <c r="E198" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5599,16 +5464,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C199" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="D199" t="s">
-        <v>598</v>
+        <v>556</v>
       </c>
       <c r="E199" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5616,16 +5481,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C200" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="D200" t="s">
-        <v>599</v>
+        <v>556</v>
       </c>
       <c r="E200" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5633,16 +5498,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="C201" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="D201" t="s">
-        <v>599</v>
+        <v>556</v>
       </c>
       <c r="E201" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5650,16 +5515,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="C202" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="D202" t="s">
-        <v>599</v>
+        <v>557</v>
       </c>
       <c r="E202" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5667,16 +5532,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="C203" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="D203" t="s">
-        <v>599</v>
+        <v>557</v>
       </c>
       <c r="E203" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5684,16 +5549,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="C204" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="D204" t="s">
-        <v>599</v>
+        <v>557</v>
       </c>
       <c r="E204" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5701,16 +5566,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="C205" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="D205" t="s">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="E205" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5718,16 +5583,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="C206" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="D206" t="s">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="E206" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5735,16 +5600,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="C207" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="D207" t="s">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="E207" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5752,16 +5617,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="C208" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="D208" t="s">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="E208" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5769,16 +5634,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="C209" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="D209" t="s">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="E209" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5786,16 +5651,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="C210" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="D210" t="s">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="E210" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5803,16 +5668,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="C211" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="D211" t="s">
-        <v>600</v>
+        <v>558</v>
       </c>
       <c r="E211" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5820,16 +5685,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="C212" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="D212" t="s">
-        <v>600</v>
+        <v>558</v>
       </c>
       <c r="E212" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5837,16 +5702,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="C213" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="D213" t="s">
-        <v>601</v>
+        <v>559</v>
       </c>
       <c r="E213" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5854,16 +5719,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C214" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="D214" t="s">
-        <v>602</v>
+        <v>560</v>
       </c>
       <c r="E214" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5871,16 +5736,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C215" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D215" t="s">
-        <v>602</v>
+        <v>560</v>
       </c>
       <c r="E215" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5888,16 +5753,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C216" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="D216" t="s">
-        <v>602</v>
+        <v>560</v>
       </c>
       <c r="E216" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5905,16 +5770,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C217" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="D217" t="s">
-        <v>602</v>
+        <v>561</v>
       </c>
       <c r="E217" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5922,16 +5787,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C218" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="D218" t="s">
-        <v>602</v>
+        <v>561</v>
       </c>
       <c r="E218" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5939,16 +5804,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C219" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="D219" t="s">
-        <v>602</v>
+        <v>546</v>
       </c>
       <c r="E219" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5956,16 +5821,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C220" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="D220" t="s">
-        <v>602</v>
+        <v>546</v>
       </c>
       <c r="E220" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5973,16 +5838,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C221" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="D221" t="s">
-        <v>602</v>
+        <v>546</v>
       </c>
       <c r="E221" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5990,16 +5855,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C222" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="D222" t="s">
-        <v>602</v>
+        <v>546</v>
       </c>
       <c r="E222" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6007,16 +5872,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="C223" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="D223" t="s">
-        <v>603</v>
+        <v>546</v>
       </c>
       <c r="E223" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6024,16 +5889,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="C224" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="D224" t="s">
-        <v>603</v>
+        <v>546</v>
       </c>
       <c r="E224" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6041,16 +5906,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C225" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="D225" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="E225" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6058,16 +5923,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C226" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="D226" t="s">
-        <v>605</v>
+        <v>562</v>
       </c>
       <c r="E226" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6075,16 +5940,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C227" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="D227" t="s">
-        <v>605</v>
+        <v>562</v>
       </c>
       <c r="E227" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6092,16 +5957,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C228" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="D228" t="s">
-        <v>605</v>
+        <v>562</v>
       </c>
       <c r="E228" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6109,16 +5974,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C229" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="D229" t="s">
-        <v>606</v>
+        <v>562</v>
       </c>
       <c r="E229" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6126,16 +5991,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C230" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="D230" t="s">
-        <v>606</v>
+        <v>562</v>
       </c>
       <c r="E230" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6143,16 +6008,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C231" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="D231" t="s">
-        <v>590</v>
+        <v>562</v>
       </c>
       <c r="E231" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6160,16 +6025,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C232" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="D232" t="s">
-        <v>590</v>
+        <v>562</v>
       </c>
       <c r="E232" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6177,16 +6042,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C233" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="D233" t="s">
-        <v>590</v>
+        <v>562</v>
       </c>
       <c r="E233" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6194,16 +6059,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C234" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="D234" t="s">
-        <v>590</v>
+        <v>562</v>
       </c>
       <c r="E234" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6211,16 +6076,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C235" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="D235" t="s">
-        <v>590</v>
+        <v>562</v>
       </c>
       <c r="E235" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6228,16 +6093,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C236" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="D236" t="s">
-        <v>590</v>
+        <v>548</v>
       </c>
       <c r="E236" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6245,16 +6110,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C237" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="D237" t="s">
-        <v>590</v>
+        <v>549</v>
       </c>
       <c r="E237" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6262,16 +6127,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="C238" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="D238" t="s">
-        <v>590</v>
+        <v>277</v>
       </c>
       <c r="E238" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6279,16 +6144,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="C239" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="D239" t="s">
-        <v>590</v>
+        <v>277</v>
       </c>
       <c r="E239" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6296,16 +6161,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="C240" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="D240" t="s">
-        <v>590</v>
+        <v>277</v>
       </c>
       <c r="E240" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6313,16 +6178,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="C241" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="D241" t="s">
-        <v>590</v>
+        <v>277</v>
       </c>
       <c r="E241" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6330,16 +6195,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="C242" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="D242" t="s">
-        <v>607</v>
+        <v>277</v>
       </c>
       <c r="E242" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6347,16 +6212,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="C243" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="D243" t="s">
-        <v>607</v>
+        <v>563</v>
       </c>
       <c r="E243" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6364,16 +6229,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="C244" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="D244" t="s">
-        <v>607</v>
+        <v>563</v>
       </c>
       <c r="E244" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6381,16 +6246,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="C245" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="D245" t="s">
-        <v>607</v>
+        <v>563</v>
       </c>
       <c r="E245" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6398,16 +6263,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="C246" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D246" t="s">
-        <v>607</v>
+        <v>563</v>
       </c>
       <c r="E246" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6415,16 +6280,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="C247" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="D247" t="s">
-        <v>607</v>
+        <v>563</v>
       </c>
       <c r="E247" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6432,16 +6297,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="C248" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="D248" t="s">
-        <v>607</v>
+        <v>564</v>
       </c>
       <c r="E248" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6449,16 +6314,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="C249" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="D249" t="s">
-        <v>607</v>
+        <v>564</v>
       </c>
       <c r="E249" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6466,16 +6331,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="C250" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="D250" t="s">
-        <v>607</v>
+        <v>565</v>
       </c>
       <c r="E250" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6483,16 +6348,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="C251" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="D251" t="s">
-        <v>607</v>
+        <v>565</v>
       </c>
       <c r="E251" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6500,16 +6365,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="C252" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="D252" t="s">
-        <v>607</v>
+        <v>565</v>
       </c>
       <c r="E252" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6517,16 +6382,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="C253" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="D253" t="s">
-        <v>607</v>
+        <v>565</v>
       </c>
       <c r="E253" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6534,16 +6399,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C254" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="D254" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="E254" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6551,16 +6416,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C255" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="D255" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="E255" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6568,16 +6433,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C256" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="D256" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="E256" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6585,16 +6450,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C257" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="D257" t="s">
-        <v>593</v>
+        <v>565</v>
       </c>
       <c r="E257" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6602,16 +6467,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C258" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="D258" t="s">
-        <v>593</v>
+        <v>551</v>
       </c>
       <c r="E258" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6619,16 +6484,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C259" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="D259" t="s">
-        <v>600</v>
+        <v>566</v>
       </c>
       <c r="E259" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6636,16 +6501,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C260" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="D260" t="s">
-        <v>600</v>
+        <v>566</v>
       </c>
       <c r="E260" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6653,16 +6518,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C261" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="D261" t="s">
-        <v>300</v>
+        <v>566</v>
       </c>
       <c r="E261" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6670,16 +6535,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C262" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="D262" t="s">
-        <v>300</v>
+        <v>566</v>
       </c>
       <c r="E262" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6687,16 +6552,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C263" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="D263" t="s">
-        <v>300</v>
+        <v>566</v>
       </c>
       <c r="E263" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6704,16 +6569,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C264" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="D264" t="s">
-        <v>300</v>
+        <v>566</v>
       </c>
       <c r="E264" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6721,16 +6586,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C265" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="D265" t="s">
-        <v>300</v>
+        <v>566</v>
       </c>
       <c r="E265" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6738,16 +6603,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C266" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="D266" t="s">
-        <v>608</v>
+        <v>566</v>
       </c>
       <c r="E266" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6755,16 +6620,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="C267" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="D267" t="s">
-        <v>608</v>
+        <v>567</v>
       </c>
       <c r="E267" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6772,407 +6637,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="C268" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="D268" t="s">
-        <v>608</v>
+        <v>567</v>
       </c>
       <c r="E268" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" t="s">
-        <v>272</v>
-      </c>
-      <c r="B269" t="s">
-        <v>301</v>
-      </c>
-      <c r="C269" t="s">
-        <v>567</v>
-      </c>
-      <c r="D269" t="s">
-        <v>608</v>
-      </c>
-      <c r="E269" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="A270" t="s">
-        <v>273</v>
-      </c>
-      <c r="B270" t="s">
-        <v>301</v>
-      </c>
-      <c r="C270" t="s">
-        <v>568</v>
-      </c>
-      <c r="D270" t="s">
-        <v>608</v>
-      </c>
-      <c r="E270" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271" t="s">
-        <v>274</v>
-      </c>
-      <c r="B271" t="s">
-        <v>301</v>
-      </c>
-      <c r="C271" t="s">
-        <v>569</v>
-      </c>
-      <c r="D271" t="s">
-        <v>609</v>
-      </c>
-      <c r="E271" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" t="s">
-        <v>275</v>
-      </c>
-      <c r="B272" t="s">
-        <v>301</v>
-      </c>
-      <c r="C272" t="s">
-        <v>570</v>
-      </c>
-      <c r="D272" t="s">
-        <v>609</v>
-      </c>
-      <c r="E272" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" t="s">
-        <v>276</v>
-      </c>
-      <c r="B273" t="s">
-        <v>299</v>
-      </c>
-      <c r="C273" t="s">
         <v>571</v>
-      </c>
-      <c r="D273" t="s">
-        <v>610</v>
-      </c>
-      <c r="E273" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274" t="s">
-        <v>277</v>
-      </c>
-      <c r="B274" t="s">
-        <v>299</v>
-      </c>
-      <c r="C274" t="s">
-        <v>572</v>
-      </c>
-      <c r="D274" t="s">
-        <v>610</v>
-      </c>
-      <c r="E274" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275" t="s">
-        <v>278</v>
-      </c>
-      <c r="B275" t="s">
-        <v>299</v>
-      </c>
-      <c r="C275" t="s">
-        <v>573</v>
-      </c>
-      <c r="D275" t="s">
-        <v>610</v>
-      </c>
-      <c r="E275" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276" t="s">
-        <v>279</v>
-      </c>
-      <c r="B276" t="s">
-        <v>299</v>
-      </c>
-      <c r="C276" t="s">
-        <v>574</v>
-      </c>
-      <c r="D276" t="s">
-        <v>610</v>
-      </c>
-      <c r="E276" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="A277" t="s">
-        <v>280</v>
-      </c>
-      <c r="B277" t="s">
-        <v>299</v>
-      </c>
-      <c r="C277" t="s">
-        <v>575</v>
-      </c>
-      <c r="D277" t="s">
-        <v>610</v>
-      </c>
-      <c r="E277" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="A278" t="s">
-        <v>281</v>
-      </c>
-      <c r="B278" t="s">
-        <v>299</v>
-      </c>
-      <c r="C278" t="s">
-        <v>576</v>
-      </c>
-      <c r="D278" t="s">
-        <v>610</v>
-      </c>
-      <c r="E278" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="A279" t="s">
-        <v>282</v>
-      </c>
-      <c r="B279" t="s">
-        <v>299</v>
-      </c>
-      <c r="C279" t="s">
-        <v>577</v>
-      </c>
-      <c r="D279" t="s">
-        <v>610</v>
-      </c>
-      <c r="E279" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
-      <c r="A280" t="s">
-        <v>283</v>
-      </c>
-      <c r="B280" t="s">
-        <v>299</v>
-      </c>
-      <c r="C280" t="s">
-        <v>578</v>
-      </c>
-      <c r="D280" t="s">
-        <v>610</v>
-      </c>
-      <c r="E280" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="A281" t="s">
-        <v>284</v>
-      </c>
-      <c r="B281" t="s">
-        <v>296</v>
-      </c>
-      <c r="C281" t="s">
-        <v>579</v>
-      </c>
-      <c r="D281" t="s">
-        <v>595</v>
-      </c>
-      <c r="E281" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="A282" t="s">
-        <v>285</v>
-      </c>
-      <c r="B282" t="s">
-        <v>302</v>
-      </c>
-      <c r="C282" t="s">
-        <v>580</v>
-      </c>
-      <c r="D282" t="s">
-        <v>611</v>
-      </c>
-      <c r="E282" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
-      <c r="A283" t="s">
-        <v>286</v>
-      </c>
-      <c r="B283" t="s">
-        <v>302</v>
-      </c>
-      <c r="C283" t="s">
-        <v>581</v>
-      </c>
-      <c r="D283" t="s">
-        <v>611</v>
-      </c>
-      <c r="E283" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="A284" t="s">
-        <v>287</v>
-      </c>
-      <c r="B284" t="s">
-        <v>302</v>
-      </c>
-      <c r="C284" t="s">
-        <v>582</v>
-      </c>
-      <c r="D284" t="s">
-        <v>611</v>
-      </c>
-      <c r="E284" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="A285" t="s">
-        <v>288</v>
-      </c>
-      <c r="B285" t="s">
-        <v>302</v>
-      </c>
-      <c r="C285" t="s">
-        <v>583</v>
-      </c>
-      <c r="D285" t="s">
-        <v>611</v>
-      </c>
-      <c r="E285" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
-      <c r="A286" t="s">
-        <v>289</v>
-      </c>
-      <c r="B286" t="s">
-        <v>302</v>
-      </c>
-      <c r="C286" t="s">
-        <v>584</v>
-      </c>
-      <c r="D286" t="s">
-        <v>611</v>
-      </c>
-      <c r="E286" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="A287" t="s">
-        <v>290</v>
-      </c>
-      <c r="B287" t="s">
-        <v>302</v>
-      </c>
-      <c r="C287" t="s">
-        <v>585</v>
-      </c>
-      <c r="D287" t="s">
-        <v>611</v>
-      </c>
-      <c r="E287" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="A288" t="s">
-        <v>291</v>
-      </c>
-      <c r="B288" t="s">
-        <v>302</v>
-      </c>
-      <c r="C288" t="s">
-        <v>586</v>
-      </c>
-      <c r="D288" t="s">
-        <v>611</v>
-      </c>
-      <c r="E288" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="A289" t="s">
-        <v>292</v>
-      </c>
-      <c r="B289" t="s">
-        <v>302</v>
-      </c>
-      <c r="C289" t="s">
-        <v>587</v>
-      </c>
-      <c r="D289" t="s">
-        <v>611</v>
-      </c>
-      <c r="E289" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
-      <c r="A290" t="s">
-        <v>293</v>
-      </c>
-      <c r="B290" t="s">
-        <v>295</v>
-      </c>
-      <c r="C290" t="s">
-        <v>588</v>
-      </c>
-      <c r="D290" t="s">
-        <v>612</v>
-      </c>
-      <c r="E290" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="A291" t="s">
-        <v>294</v>
-      </c>
-      <c r="B291" t="s">
-        <v>295</v>
-      </c>
-      <c r="C291" t="s">
-        <v>589</v>
-      </c>
-      <c r="D291" t="s">
-        <v>612</v>
-      </c>
-      <c r="E291" t="s">
-        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -58,7 +58,7 @@
     <t>visesa 1</t>
   </si>
   <si>
-    <t>danta 2</t>
+    <t>danta 1</t>
   </si>
   <si>
     <t>loma</t>
@@ -430,7 +430,7 @@
     <t>pajahati</t>
   </si>
   <si>
-    <t>passa 2</t>
+    <t>passa 5</t>
   </si>
   <si>
     <t>tiṭṭhati 3</t>
@@ -565,7 +565,7 @@
     <t>bhuñjati 1</t>
   </si>
   <si>
-    <t>jhāyati 1</t>
+    <t>jhāyati 2</t>
   </si>
   <si>
     <t>chindati</t>
@@ -883,7 +883,7 @@
     <t>distinction; attainment</t>
   </si>
   <si>
-    <t>tooth; tusk; fang</t>
+    <t>tooth</t>
   </si>
   <si>
     <t>the hair on the body; pelt</t>
@@ -892,7 +892,7 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out (from unwholesome)</t>
+    <t>discipline; training; lit. leading out</t>
   </si>
   <si>
     <t>teaching; doctrine</t>
@@ -976,7 +976,7 @@
     <t>requisite; accessory</t>
   </si>
   <si>
-    <t>mode; way; course; means</t>
+    <t>range; mode; way</t>
   </si>
   <si>
     <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
@@ -1369,7 +1369,7 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
-    <t>takes place; arises; appears</t>
+    <t>appears; arises; takes place</t>
   </si>
   <si>
     <t>is reborn in; re-arises; lit. goes towards</t>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -46,7 +46,7 @@
     <t>sāvaka</t>
   </si>
   <si>
-    <t>adhigama</t>
+    <t>adhigama 1</t>
   </si>
   <si>
     <t>ñāya</t>
@@ -61,7 +61,7 @@
     <t>danta 1</t>
   </si>
   <si>
-    <t>loma</t>
+    <t>loma 1</t>
   </si>
   <si>
     <t>kesa</t>
@@ -91,7 +91,7 @@
     <t>puggala</t>
   </si>
   <si>
-    <t>uposatha</t>
+    <t>uposatha 1</t>
   </si>
   <si>
     <t>bhava 2</t>
@@ -100,7 +100,7 @@
     <t>vassa 2</t>
   </si>
   <si>
-    <t>āvāsa</t>
+    <t>āvāsa 1</t>
   </si>
   <si>
     <t>saṃvara 2</t>
@@ -121,7 +121,7 @@
     <t>sāriputta</t>
   </si>
   <si>
-    <t>pañha</t>
+    <t>pañha 2</t>
   </si>
   <si>
     <t>ābādha</t>
@@ -130,7 +130,7 @@
     <t>saṅkhāra 3</t>
   </si>
   <si>
-    <t>phassa</t>
+    <t>phassa 1</t>
   </si>
   <si>
     <t>puthujjana</t>
@@ -148,7 +148,7 @@
     <t>pāda 1</t>
   </si>
   <si>
-    <t>parikkhāra</t>
+    <t>parikkhāra 1</t>
   </si>
   <si>
     <t>patha 2</t>
@@ -193,10 +193,10 @@
     <t>khaya</t>
   </si>
   <si>
-    <t>āsava</t>
-  </si>
-  <si>
-    <t>nīvaraṇa</t>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
   </si>
   <si>
     <t>sekha</t>
@@ -304,13 +304,13 @@
     <t>chanda 1</t>
   </si>
   <si>
-    <t>uppāda</t>
+    <t>uppāda 1</t>
   </si>
   <si>
     <t>dhamma 05</t>
   </si>
   <si>
-    <t>moha</t>
+    <t>moha 1</t>
   </si>
   <si>
     <t>bāla 2</t>
@@ -343,7 +343,7 @@
     <t>ākāsa 2</t>
   </si>
   <si>
-    <t>ācariya</t>
+    <t>ācariya 1</t>
   </si>
   <si>
     <t>upajjhāya</t>
@@ -382,19 +382,19 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>saṅghādisesa 1</t>
+    <t>saṅghādisesa 2</t>
   </si>
   <si>
     <t>satipaṭṭhāna</t>
   </si>
   <si>
-    <t>sīha</t>
-  </si>
-  <si>
-    <t>vitakka</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>vipāka</t>
   </si>
   <si>
     <t>viveka 1</t>
@@ -406,7 +406,7 @@
     <t>kosalā</t>
   </si>
   <si>
-    <t>pātimokkha</t>
+    <t>pātimokkha 2</t>
   </si>
   <si>
     <t>punabbhava</t>
@@ -418,7 +418,7 @@
     <t>pakkamati 1</t>
   </si>
   <si>
-    <t>bhaṇati</t>
+    <t>bhaṇati 1</t>
   </si>
   <si>
     <t>pucchati</t>
@@ -445,7 +445,7 @@
     <t>uddisati 1</t>
   </si>
   <si>
-    <t>rakkhati 1</t>
+    <t>rakkhati 2</t>
   </si>
   <si>
     <t>upasaṅkamati</t>
@@ -454,13 +454,13 @@
     <t>bhāsati 1</t>
   </si>
   <si>
-    <t>yācati</t>
+    <t>yācati 1</t>
   </si>
   <si>
     <t>paṭilabhati</t>
   </si>
   <si>
-    <t>sikkhati</t>
+    <t>sikkhati 2</t>
   </si>
   <si>
     <t>paṭisevati 2</t>
@@ -484,7 +484,7 @@
     <t>abhiramati</t>
   </si>
   <si>
-    <t>viharati</t>
+    <t>viharati 1</t>
   </si>
   <si>
     <t>passati 1</t>
@@ -505,16 +505,16 @@
     <t>vedeti 1</t>
   </si>
   <si>
-    <t>dhāreti 2</t>
-  </si>
-  <si>
-    <t>deti</t>
+    <t>dhāreti 3</t>
+  </si>
+  <si>
+    <t>deti 1</t>
   </si>
   <si>
     <t>ehi</t>
   </si>
   <si>
-    <t>suṇāti</t>
+    <t>suṇāti 1</t>
   </si>
   <si>
     <t>suṇātu</t>
@@ -556,7 +556,7 @@
     <t>paṭipajjati 2</t>
   </si>
   <si>
-    <t>nibbindati</t>
+    <t>nibbindati 1</t>
   </si>
   <si>
     <t>anuyuñjati 2</t>
@@ -568,7 +568,7 @@
     <t>jhāyati 2</t>
   </si>
   <si>
-    <t>chindati</t>
+    <t>chindati 1</t>
   </si>
   <si>
     <t>santi 3</t>
@@ -577,10 +577,10 @@
     <t>atthi 1</t>
   </si>
   <si>
-    <t>amha</t>
-  </si>
-  <si>
-    <t>asi 2</t>
+    <t>amha 1</t>
+  </si>
+  <si>
+    <t>asi 3</t>
   </si>
   <si>
     <t>attha 12</t>
@@ -601,7 +601,7 @@
     <t>hotha</t>
   </si>
   <si>
-    <t>hotu</t>
+    <t>hotu 1</t>
   </si>
   <si>
     <t>hoti 1</t>
@@ -631,7 +631,7 @@
     <t>nisīdi</t>
   </si>
   <si>
-    <t>muni</t>
+    <t>muni 1</t>
   </si>
   <si>
     <t>gahapati</t>
@@ -646,7 +646,7 @@
     <t>isi</t>
   </si>
   <si>
-    <t>samādhi</t>
+    <t>samādhi 1</t>
   </si>
   <si>
     <t>gāmaṇi</t>
@@ -658,13 +658,13 @@
     <t>ñāti</t>
   </si>
   <si>
-    <t>karoti</t>
+    <t>karoti 1</t>
   </si>
   <si>
     <t>karohi</t>
   </si>
   <si>
-    <t>abhisaṅkharoti</t>
+    <t>abhisaṅkharoti 2</t>
   </si>
   <si>
     <t>abhāsi 1</t>
@@ -721,22 +721,22 @@
     <t>no 7</t>
   </si>
   <si>
-    <t>amhākaṃ 1</t>
+    <t>amhākaṃ 3</t>
   </si>
   <si>
     <t>ahaṃ</t>
   </si>
   <si>
-    <t>maṃ</t>
+    <t>maṃ 1</t>
   </si>
   <si>
     <t>me 3</t>
   </si>
   <si>
-    <t>sobhati</t>
-  </si>
-  <si>
-    <t>neti 2</t>
+    <t>sobhati 2</t>
+  </si>
+  <si>
+    <t>neti 1</t>
   </si>
   <si>
     <t>na 1</t>
@@ -799,7 +799,7 @@
     <t>vo 4</t>
   </si>
   <si>
-    <t>nābhijānāti</t>
+    <t>nābhijānāti 1</t>
   </si>
   <si>
     <t>ottappī</t>
@@ -1285,7 +1285,7 @@
     <t>obtains; receives; gets</t>
   </si>
   <si>
-    <t>learns; trains; practises</t>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
   </si>
   <si>
     <t>uses; makes use (of); lit. associates</t>
@@ -1309,7 +1309,7 @@
     <t>enjoys; finds high pleasure in</t>
   </si>
   <si>
-    <t>lives; abides; dwells</t>
+    <t>lives (in); dwells (in)</t>
   </si>
   <si>
     <t>sees</t>
@@ -1483,13 +1483,13 @@
     <t>family; relative; lit. known</t>
   </si>
   <si>
-    <t>does; makes; acts; performs; builds</t>
+    <t>does; acts; performs</t>
   </si>
   <si>
     <t>do! make! may you preform; you must do</t>
   </si>
   <si>
-    <t>does; performs; creates; constructs</t>
+    <t>does; performs; lit. constructs</t>
   </si>
   <si>
     <t>spoke; said</t>
@@ -1516,7 +1516,7 @@
     <t>livelihood; way of earning a living</t>
   </si>
   <si>
-    <t>one who has thoroughly understood; being enlightened; the Buddha</t>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
   </si>
   <si>
     <t>false teaching; against the teaching</t>
@@ -1555,7 +1555,7 @@
     <t>for me; to me</t>
   </si>
   <si>
-    <t>shines; radiates; looks beautiful</t>
+    <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
     <t>leads; carries away; takes away</t>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -886,7 +886,7 @@
     <t>tooth</t>
   </si>
   <si>
-    <t>the hair on the body; pelt</t>
+    <t>body hair</t>
   </si>
   <si>
     <t>hair of the head</t>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -85,6 +85,9 @@
     <t>papañca</t>
   </si>
   <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
     <t>vasa 2</t>
   </si>
   <si>
@@ -325,39 +328,39 @@
     <t>cora</t>
   </si>
   <si>
+    <t>attha 05</t>
+  </si>
+  <si>
+    <t>patta 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
     <t>cāga 2</t>
   </si>
   <si>
-    <t>attha 05</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>patta 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
     <t>tathāgata</t>
   </si>
   <si>
@@ -382,9 +385,6 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
     <t>satipaṭṭhāna</t>
   </si>
   <si>
@@ -394,7 +394,7 @@
     <t>vitakka 1</t>
   </si>
   <si>
-    <t>vipāka</t>
+    <t>vipāka 1</t>
   </si>
   <si>
     <t>viveka 1</t>
@@ -910,6 +910,9 @@
     <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
   </si>
   <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
     <t>control; authority; power; mastery</t>
   </si>
   <si>
@@ -1150,39 +1153,39 @@
     <t>thief</t>
   </si>
   <si>
+    <t>need (for); want (for)</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>teacher; spiritual teacher</t>
+  </si>
+  <si>
+    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>beneficial friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection (of houses)</t>
+  </si>
+  <si>
     <t>generosity; sharing; liberality</t>
   </si>
   <si>
-    <t>need (for); want (for)</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; spiritual teacher</t>
-  </si>
-  <si>
-    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>beneficial friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection (of houses)</t>
-  </si>
-  <si>
     <t>Such Become; Realised; being in such a state; arrived to the truth; epithet of the Buddha; lit. thus gone; (or) thus came</t>
   </si>
   <si>
@@ -1205,9 +1208,6 @@
   </si>
   <si>
     <t>attention; mental application; lit. making in mind</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
     <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -31,21 +31,213 @@
     <t>class</t>
   </si>
   <si>
+    <t>vinaya 1</t>
+  </si>
+  <si>
+    <t>dhamma 03</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2</t>
+  </si>
+  <si>
+    <t>samaya 1</t>
+  </si>
+  <si>
+    <t>attha 01</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
     <t>khattiya 2</t>
   </si>
   <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
     <t>magga 2</t>
   </si>
   <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
     <t>loka 1</t>
   </si>
   <si>
     <t>kāma 3</t>
   </si>
   <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
     <t>sāvaka</t>
   </si>
   <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 02</t>
+  </si>
+  <si>
+    <t>samatha 1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
@@ -55,6 +247,36 @@
     <t>samatikkama</t>
   </si>
   <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2</t>
+  </si>
+  <si>
     <t>visesa 1</t>
   </si>
   <si>
@@ -67,228 +289,6 @@
     <t>kesa</t>
   </si>
   <si>
-    <t>vinaya 1</t>
-  </si>
-  <si>
-    <t>dhamma 03</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>māsa 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>samaya 1</t>
-  </si>
-  <si>
-    <t>attha 01</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 02</t>
-  </si>
-  <si>
-    <t>samatha 1</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2</t>
-  </si>
-  <si>
     <t>sahāya</t>
   </si>
   <si>
@@ -406,87 +406,87 @@
     <t>kosalā</t>
   </si>
   <si>
+    <t>punabbhava</t>
+  </si>
+  <si>
     <t>pātimokkha 2</t>
   </si>
   <si>
-    <t>punabbhava</t>
-  </si>
-  <si>
     <t>vibhaṅga 1</t>
   </si>
   <si>
+    <t>pajahati</t>
+  </si>
+  <si>
+    <t>passa 5</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>rakkhati 2</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
     <t>bhaṇati 1</t>
   </si>
   <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>labhati</t>
+  </si>
+  <si>
+    <t>anussarati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
     <t>pucchati</t>
   </si>
   <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
     <t>kappati</t>
   </si>
   <si>
-    <t>pajahati</t>
-  </si>
-  <si>
-    <t>passa 5</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>labhati</t>
-  </si>
-  <si>
-    <t>anussarati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
     <t>passati 1</t>
   </si>
   <si>
@@ -544,51 +544,51 @@
     <t>kassaka</t>
   </si>
   <si>
+    <t>āpajjati 2</t>
+  </si>
+  <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
     <t>uppajjati 1</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 2</t>
-  </si>
-  <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
     <t>chindati 1</t>
   </si>
   <si>
+    <t>amha 1</t>
+  </si>
+  <si>
+    <t>asi 3</t>
+  </si>
+  <si>
+    <t>attha 12</t>
+  </si>
+  <si>
+    <t>amhi</t>
+  </si>
+  <si>
     <t>santi 3</t>
   </si>
   <si>
     <t>atthi 1</t>
   </si>
   <si>
-    <t>amha 1</t>
-  </si>
-  <si>
-    <t>asi 3</t>
-  </si>
-  <si>
-    <t>attha 12</t>
-  </si>
-  <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -634,15 +634,15 @@
     <t>muni 1</t>
   </si>
   <si>
+    <t>sāli</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
-    <t>sāli</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
     <t>isi</t>
   </si>
   <si>
@@ -682,21 +682,21 @@
     <t>āsi 1</t>
   </si>
   <si>
+    <t>mada 1</t>
+  </si>
+  <si>
+    <t>ājīva</t>
+  </si>
+  <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
     <t>taca 1</t>
   </si>
   <si>
-    <t>mada 1</t>
-  </si>
-  <si>
-    <t>ājīva</t>
-  </si>
-  <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
     <t>abhisamaya</t>
   </si>
   <si>
@@ -856,21 +856,213 @@
     <t>adj</t>
   </si>
   <si>
+    <t>discipline; training; lit. leading out</t>
+  </si>
+  <si>
+    <t>teaching; doctrine</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>human; human being; man</t>
+  </si>
+  <si>
+    <t>deity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control; authority; power; mastery</t>
+  </si>
+  <si>
+    <t>an individual; a person</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; existence; becoming</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>house; dwelling place; residence</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>child; son</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. coming together; meeting</t>
+  </si>
+  <si>
+    <t>meaning; significance</t>
+  </si>
+  <si>
+    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
     <t>man of the ruling caste; high caste man; nobleman</t>
   </si>
   <si>
+    <t>touch; contact; sense impingement</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
     <t>way; means; method; lit. path</t>
   </si>
   <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman; man</t>
+  </si>
+  <si>
     <t>world; universe; cosmos</t>
   </si>
   <si>
     <t>sense desire (of); sensual pleasure (of)</t>
   </si>
   <si>
+    <t>leg; foot</t>
+  </si>
+  <si>
+    <t>requisite; accessory</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; lit. bad fall</t>
+  </si>
+  <si>
+    <t>community; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; agitation; trouble; despair</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow</t>
+  </si>
+  <si>
+    <t>anger; hatred; ill-will</t>
+  </si>
+  <si>
+    <t>desire; lust; passion; attachment</t>
+  </si>
+  <si>
+    <t>breaking-up (of); breaking apart (of); death</t>
+  </si>
+  <si>
     <t>disciple; pupil; lit. hearer</t>
   </si>
   <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
+  </si>
+  <si>
+    <t>obstacle; hindrance; obstruction; barrier</t>
+  </si>
+  <si>
+    <t>trainee; belonging to training; one who is in the course of perfection</t>
+  </si>
+  <si>
+    <t>quality; characteristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
+  </si>
+  <si>
+    <t>independence; freedom from clinging; non-attachment</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; dropping; abandoning</t>
+  </si>
+  <si>
+    <t>abandoning; giving up; renunciation</t>
+  </si>
+  <si>
+    <t>clarity; light; brightness</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending; termination; cessation; finishing</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>arising; origin; appearance; lit. come up together</t>
+  </si>
+  <si>
+    <t>mass; heap; pile</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness; peace; tranquillity</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death personified; the Evil One; Māra</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
     <t>arrival (at); attainment (of); reaching (of)</t>
   </si>
   <si>
@@ -880,6 +1072,36 @@
     <t>surpassing; overcoming; going beyond</t>
   </si>
   <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; saint; holy man; sage</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
+  </si>
+  <si>
+    <t>the sea; ocean</t>
+  </si>
+  <si>
+    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>waning; fading away; lit. discolouring</t>
+  </si>
+  <si>
     <t>distinction; attainment</t>
   </si>
   <si>
@@ -892,228 +1114,6 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out</t>
-  </si>
-  <si>
-    <t>teaching; doctrine</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>human; human being; man</t>
-  </si>
-  <si>
-    <t>deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control; authority; power; mastery</t>
-  </si>
-  <si>
-    <t>an individual; a person</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; existence; becoming</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>house; dwelling place; residence</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>child; son</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. coming together; meeting</t>
-  </si>
-  <si>
-    <t>meaning; significance</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>touch; contact; sense impingement</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman; man</t>
-  </si>
-  <si>
-    <t>leg; foot</t>
-  </si>
-  <si>
-    <t>requisite; accessory</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; lit. bad fall</t>
-  </si>
-  <si>
-    <t>community; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; agitation; trouble; despair</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow</t>
-  </si>
-  <si>
-    <t>anger; hatred; ill-will</t>
-  </si>
-  <si>
-    <t>desire; lust; passion; attachment</t>
-  </si>
-  <si>
-    <t>breaking-up (of); breaking apart (of); death</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
-  </si>
-  <si>
-    <t>obstacle; hindrance; obstruction; barrier</t>
-  </si>
-  <si>
-    <t>trainee; belonging to training; one who is in the course of perfection</t>
-  </si>
-  <si>
-    <t>quality; characteristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
-  </si>
-  <si>
-    <t>independence; freedom from clinging; non-attachment</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; dropping; abandoning</t>
-  </si>
-  <si>
-    <t>abandoning; giving up; renunciation</t>
-  </si>
-  <si>
-    <t>clarity; light; brightness</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>arising; origin; appearance; lit. come up together</t>
-  </si>
-  <si>
-    <t>mass; heap; pile</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending; termination; cessation; finishing</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness; peace; tranquillity</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death personified; the Evil One; Māra</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; saint; holy man; sage</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
-  </si>
-  <si>
-    <t>the sea; ocean</t>
-  </si>
-  <si>
-    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>waning; fading away; lit. discolouring</t>
-  </si>
-  <si>
     <t>friend; companion; fellow traveller</t>
   </si>
   <si>
@@ -1231,87 +1231,87 @@
     <t>name of the people of Kosala; Kosalans</t>
   </si>
   <si>
+    <t>appearing again; renewed existence; rebirth; further becoming</t>
+  </si>
+  <si>
     <t>(vinaya) 227 precepts for Buddhist monks</t>
   </si>
   <si>
-    <t>appearing again; renewed existence; rebirth; further becoming</t>
-  </si>
-  <si>
     <t>analysis; classification; breakdown</t>
   </si>
   <si>
+    <t>gives up; renounces; forsakes; abandons; let go</t>
+  </si>
+  <si>
+    <t>see! look! watch!</t>
+  </si>
+  <si>
+    <t>lasts; remains; persists; lit. stands</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>recites</t>
+  </si>
+  <si>
     <t>goes; goes away (from); leaves</t>
   </si>
   <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits</t>
+  </si>
+  <si>
+    <t>says; speaks</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for) requests</t>
+  </si>
+  <si>
+    <t>obtains; receives; gets</t>
+  </si>
+  <si>
     <t>speaks; says; proclaims</t>
   </si>
   <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects</t>
+  </si>
+  <si>
+    <t>eats; chews; bites</t>
+  </si>
+  <si>
     <t>asks; enquires; questions</t>
   </si>
   <si>
+    <t>leads (to); is useful (for); is conducive to</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>enjoys; finds high pleasure in</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
     <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
   </si>
   <si>
-    <t>gives up; renounces; forsakes; abandons; let go</t>
-  </si>
-  <si>
-    <t>see! look! watch!</t>
-  </si>
-  <si>
-    <t>lasts; remains; persists; lit. stands</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>recites</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits</t>
-  </si>
-  <si>
-    <t>says; speaks</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for) requests</t>
-  </si>
-  <si>
-    <t>obtains; receives; gets</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects</t>
-  </si>
-  <si>
-    <t>eats; chews; bites</t>
-  </si>
-  <si>
-    <t>leads (to); is useful (for); is conducive to</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>enjoys; finds high pleasure in</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
     <t>sees</t>
   </si>
   <si>
@@ -1369,51 +1369,51 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
+    <t>arouses; exhibits; produces; brings into being</t>
+  </si>
+  <si>
+    <t>practices; follows a course of action; follows a method; is intent on</t>
+  </si>
+  <si>
+    <t>is reborn in; re-arises; lit. goes towards</t>
+  </si>
+  <si>
+    <t>is disenchanted; is disinterested; is disillusioned</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
     <t>appears; arises; takes place</t>
   </si>
   <si>
-    <t>is reborn in; re-arises; lit. goes towards</t>
-  </si>
-  <si>
-    <t>arouses; exhibits; produces; brings into being</t>
-  </si>
-  <si>
-    <t>practices; follows a course of action; follows a method; is intent on</t>
-  </si>
-  <si>
-    <t>is disenchanted; is disinterested; is disillusioned</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
     <t>cuts; cuts off; severs</t>
   </si>
   <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
+    <t>you (all) must be; may you (all) be</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
     <t>they are; there are</t>
   </si>
   <si>
     <t>there is</t>
   </si>
   <si>
-    <t>we are</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
-    <t>you (all) must be; may you (all) be</t>
-  </si>
-  <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>addressed; said (to)</t>
   </si>
   <si>
@@ -1459,15 +1459,15 @@
     <t>monk; sage; hermit; holy man</t>
   </si>
   <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
     <t>seer; sage</t>
   </si>
   <si>
@@ -1507,19 +1507,19 @@
     <t>one was; it was</t>
   </si>
   <si>
+    <t>excess; pleasure; intoxication</t>
+  </si>
+  <si>
+    <t>livelihood; way of earning a living</t>
+  </si>
+  <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>false teaching; against the teaching</t>
+  </si>
+  <si>
     <t>skin</t>
-  </si>
-  <si>
-    <t>excess; pleasure; intoxication</t>
-  </si>
-  <si>
-    <t>livelihood; way of earning a living</t>
-  </si>
-  <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; against the teaching</t>
   </si>
   <si>
     <t>complete comprehension (of); total understanding (of); lit. arriving</t>
@@ -4308,7 +4308,7 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C131" t="s">
         <v>409</v>
@@ -4376,7 +4376,7 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C135" t="s">
         <v>413</v>
@@ -5209,7 +5209,7 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C184" t="s">
         <v>462</v>
@@ -5243,7 +5243,7 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C186" t="s">
         <v>464</v>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="573">
   <si>
     <t>Pāli1</t>
   </si>
@@ -34,7 +34,7 @@
     <t>vinaya 1</t>
   </si>
   <si>
-    <t>dhamma 03</t>
+    <t>dhamma 1.03</t>
   </si>
   <si>
     <t>pariyāya 4</t>
@@ -52,7 +52,7 @@
     <t>saṅghādisesa 2</t>
   </si>
   <si>
-    <t>vasa 2</t>
+    <t>vasa 1.2</t>
   </si>
   <si>
     <t>puggala</t>
@@ -76,13 +76,13 @@
     <t>putta 1</t>
   </si>
   <si>
-    <t>māsa 2</t>
-  </si>
-  <si>
-    <t>samaya 1</t>
-  </si>
-  <si>
-    <t>attha 01</t>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
   </si>
   <si>
     <t>sāriputta</t>
@@ -91,261 +91,261 @@
     <t>pañha 2</t>
   </si>
   <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
     <t>ābādha</t>
   </si>
   <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 02</t>
-  </si>
-  <si>
-    <t>samatha 1</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1</t>
-  </si>
-  <si>
-    <t>dhamma 05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>kāya 1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 05</t>
-  </si>
-  <si>
-    <t>patta 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
     <t>upajjhāya</t>
   </si>
   <si>
@@ -367,10 +367,10 @@
     <t>thullaccaya</t>
   </si>
   <si>
-    <t>thera 2</t>
-  </si>
-  <si>
-    <t>dhamma 09</t>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
   </si>
   <si>
     <t>nara</t>
@@ -385,7 +385,7 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>satipaṭṭhāna</t>
+    <t>satipaṭṭhāna 1</t>
   </si>
   <si>
     <t>sīha 1</t>
@@ -418,7 +418,7 @@
     <t>pajahati</t>
   </si>
   <si>
-    <t>passa 5</t>
+    <t>passa 2.1</t>
   </si>
   <si>
     <t>tiṭṭhati 3</t>
@@ -442,7 +442,7 @@
     <t>upasaṅkamati</t>
   </si>
   <si>
-    <t>bhāsati 1</t>
+    <t>bhāsati 1.1</t>
   </si>
   <si>
     <t>yācati 1</t>
@@ -460,10 +460,10 @@
     <t>paṭisevati 2</t>
   </si>
   <si>
-    <t>labhati</t>
-  </si>
-  <si>
-    <t>anussarati 1</t>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
   </si>
   <si>
     <t>khādati</t>
@@ -493,7 +493,7 @@
     <t>gaccha 1</t>
   </si>
   <si>
-    <t>carati 1</t>
+    <t>carati 1.1</t>
   </si>
   <si>
     <t>ceteti 2</t>
@@ -553,31 +553,31 @@
     <t>upapajjati 1</t>
   </si>
   <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
     <t>nibbindati 1</t>
   </si>
   <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
     <t>chindati 1</t>
   </si>
   <si>
-    <t>amha 1</t>
-  </si>
-  <si>
-    <t>asi 3</t>
-  </si>
-  <si>
-    <t>attha 12</t>
+    <t>amha 1.1</t>
+  </si>
+  <si>
+    <t>asi 2.1</t>
+  </si>
+  <si>
+    <t>attha 4.2</t>
   </si>
   <si>
     <t>amhi</t>
@@ -616,7 +616,7 @@
     <t>udapādi 1</t>
   </si>
   <si>
-    <t>abhinandi</t>
+    <t>abhinandi 1</t>
   </si>
   <si>
     <t>sammodi</t>
@@ -679,7 +679,7 @@
     <t>āsiṃ</t>
   </si>
   <si>
-    <t>āsi 1</t>
+    <t>āsi 1.1</t>
   </si>
   <si>
     <t>mada 1</t>
@@ -706,10 +706,10 @@
     <t>mayā 1</t>
   </si>
   <si>
-    <t>no 4</t>
-  </si>
-  <si>
-    <t>no 6</t>
+    <t>no 2.1</t>
+  </si>
+  <si>
+    <t>no 2.3</t>
   </si>
   <si>
     <t>mayaṃ</t>
@@ -718,7 +718,7 @@
     <t>me 5</t>
   </si>
   <si>
-    <t>no 7</t>
+    <t>no 2.4</t>
   </si>
   <si>
     <t>amhākaṃ 3</t>
@@ -736,7 +736,7 @@
     <t>sobhati 2</t>
   </si>
   <si>
-    <t>neti 1</t>
+    <t>neti 1.1</t>
   </si>
   <si>
     <t>na 1</t>
@@ -748,7 +748,7 @@
     <t>saha 2</t>
   </si>
   <si>
-    <t>no 1</t>
+    <t>no 1.1</t>
   </si>
   <si>
     <t>mā 1</t>
@@ -772,13 +772,13 @@
     <t>dhāressati</t>
   </si>
   <si>
-    <t>dassati 1</t>
-  </si>
-  <si>
-    <t>vo 3</t>
-  </si>
-  <si>
-    <t>vo 2</t>
+    <t>dassati 1.1</t>
+  </si>
+  <si>
+    <t>vo 1.3</t>
+  </si>
+  <si>
+    <t>vo 1.2</t>
   </si>
   <si>
     <t>tumhākaṃ 3</t>
@@ -787,7 +787,7 @@
     <t>tumhe 2</t>
   </si>
   <si>
-    <t>te 6</t>
+    <t>te 2.4</t>
   </si>
   <si>
     <t>tuvaṃ 1</t>
@@ -796,7 +796,7 @@
     <t>tayā 1</t>
   </si>
   <si>
-    <t>vo 4</t>
+    <t>vo 1.4</t>
   </si>
   <si>
     <t>nābhijānāti 1</t>
@@ -811,7 +811,7 @@
     <t>vippaṭisārī</t>
   </si>
   <si>
-    <t>bhogī 1</t>
+    <t>bhogī 1.1</t>
   </si>
   <si>
     <t>anupassī 1</t>
@@ -859,358 +859,358 @@
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
-    <t>teaching; doctrine</t>
+    <t>teaching; discourse; doctrine</t>
   </si>
   <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>human; human being; man</t>
-  </si>
-  <si>
-    <t>deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
   </si>
   <si>
     <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
-    <t>control; authority; power; mastery</t>
-  </si>
-  <si>
-    <t>an individual; a person</t>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>person; individual</t>
   </si>
   <si>
     <t>full moon or new moon observance day</t>
   </si>
   <si>
-    <t>being; existence; becoming</t>
+    <t>being; becoming; existence</t>
   </si>
   <si>
     <t>rainy season; monsoon</t>
   </si>
   <si>
-    <t>house; dwelling place; residence</t>
+    <t>home (of); dwelling place (of); residence (of)</t>
   </si>
   <si>
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
-    <t>child; son</t>
+    <t>son; child</t>
   </si>
   <si>
     <t>bean</t>
   </si>
   <si>
-    <t>time; occasion; lit. coming together; meeting</t>
-  </si>
-  <si>
-    <t>meaning; significance</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
   </si>
   <si>
     <t>question; enquiry</t>
   </si>
   <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
     <t>disease; sickness; illness; affliction</t>
   </si>
   <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>touch; contact; sense impingement</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>way; means; method; lit. path</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman; man</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>leg; foot</t>
-  </si>
-  <si>
-    <t>requisite; accessory</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; lit. bad fall</t>
-  </si>
-  <si>
-    <t>community; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; agitation; trouble; despair</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow</t>
-  </si>
-  <si>
-    <t>anger; hatred; ill-will</t>
-  </si>
-  <si>
-    <t>desire; lust; passion; attachment</t>
-  </si>
-  <si>
-    <t>breaking-up (of); breaking apart (of); death</t>
-  </si>
-  <si>
-    <t>disciple; pupil; lit. hearer</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
-  </si>
-  <si>
-    <t>obstacle; hindrance; obstruction; barrier</t>
-  </si>
-  <si>
-    <t>trainee; belonging to training; one who is in the course of perfection</t>
-  </si>
-  <si>
-    <t>quality; characteristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
-  </si>
-  <si>
-    <t>independence; freedom from clinging; non-attachment</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; dropping; abandoning</t>
-  </si>
-  <si>
-    <t>abandoning; giving up; renunciation</t>
-  </si>
-  <si>
-    <t>clarity; light; brightness</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending; termination; cessation; finishing</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>arising; origin; appearance; lit. come up together</t>
-  </si>
-  <si>
-    <t>mass; heap; pile</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness; peace; tranquillity</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death personified; the Evil One; Māra</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>arrival (at); attainment (of); reaching (of)</t>
-  </si>
-  <si>
-    <t>method; system; (right) path</t>
-  </si>
-  <si>
-    <t>surpassing; overcoming; going beyond</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; saint; holy man; sage</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
-  </si>
-  <si>
-    <t>the sea; ocean</t>
-  </si>
-  <si>
-    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>waning; fading away; lit. discolouring</t>
-  </si>
-  <si>
-    <t>distinction; attainment</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>hair of the head</t>
-  </si>
-  <si>
-    <t>friend; companion; fellow traveller</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>the Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising; appearing; coming into being</t>
-  </si>
-  <si>
-    <t>state of mind; mental states</t>
-  </si>
-  <si>
-    <t>stupidity; delusion; illusion; confusion</t>
-  </si>
-  <si>
-    <t>fool; immature person; ignorant person</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process; lit. collection</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief</t>
-  </si>
-  <si>
-    <t>need (for); want (for)</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; spiritual teacher</t>
-  </si>
-  <si>
-    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
+    <t>preceptor; teacher</t>
   </si>
   <si>
     <t>lay disciple; lay devotee; lit. who sits near</t>
   </si>
   <si>
-    <t>beneficial friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection (of houses)</t>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
   </si>
   <si>
     <t>generosity; sharing; liberality</t>
   </si>
   <si>
-    <t>Such Become; Realised; being in such a state; arrived to the truth; epithet of the Buddha; lit. thus gone; (or) thus came</t>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
   </si>
   <si>
     <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
   </si>
   <si>
-    <t>elder; senior monk; monk with 10 or more vassa; lit. lasting</t>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
     <t>law; case; rule</t>
   </si>
   <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance</t>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
   </si>
   <si>
     <t>element of awakening; factor of enlightenment</t>
   </si>
   <si>
-    <t>attention; mental application; lit. making in mind</t>
-  </si>
-  <si>
-    <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
   </si>
   <si>
     <t>lion</t>
@@ -1219,10 +1219,10 @@
     <t>thought; reflection; pondering</t>
   </si>
   <si>
-    <t>result; consequence; lit. ripening</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement</t>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
   </si>
   <si>
     <t>name of the people of Malla; Mallans; lit. wrestlers</t>
@@ -1231,22 +1231,22 @@
     <t>name of the people of Kosala; Kosalans</t>
   </si>
   <si>
-    <t>appearing again; renewed existence; rebirth; further becoming</t>
-  </si>
-  <si>
-    <t>(vinaya) 227 precepts for Buddhist monks</t>
-  </si>
-  <si>
-    <t>analysis; classification; breakdown</t>
-  </si>
-  <si>
-    <t>gives up; renounces; forsakes; abandons; let go</t>
-  </si>
-  <si>
-    <t>see! look! watch!</t>
-  </si>
-  <si>
-    <t>lasts; remains; persists; lit. stands</t>
+    <t>appearing again; renewed existence; rebirth; future life</t>
+  </si>
+  <si>
+    <t>(vinaya) precepts for Buddhist monastics</t>
+  </si>
+  <si>
+    <t>analysis; classification; breakdown; lit. division</t>
+  </si>
+  <si>
+    <t>gives up; abandons; lets go (of)</t>
+  </si>
+  <si>
+    <t>see!; look (at)!</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
   </si>
   <si>
     <t>increases more and more; surpasses; outgrows</t>
@@ -1255,28 +1255,28 @@
     <t>says (to); speaks (to); tells (to)</t>
   </si>
   <si>
-    <t>recites</t>
-  </si>
-  <si>
-    <t>goes; goes away (from); leaves</t>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
   </si>
   <si>
     <t>wards off; prevents; guards against</t>
   </si>
   <si>
-    <t>approaches; goes (to); visits</t>
-  </si>
-  <si>
-    <t>says; speaks</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for) requests</t>
-  </si>
-  <si>
-    <t>obtains; receives; gets</t>
-  </si>
-  <si>
-    <t>speaks; says; proclaims</t>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
   </si>
   <si>
     <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
@@ -1288,22 +1288,22 @@
     <t>gets; receives; obtains</t>
   </si>
   <si>
-    <t>remembers; recollects</t>
-  </si>
-  <si>
-    <t>eats; chews; bites</t>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
   </si>
   <si>
     <t>asks; enquires; questions</t>
   </si>
   <si>
-    <t>leads (to); is useful (for); is conducive to</t>
+    <t>leads (to); results (in); causes</t>
   </si>
   <si>
     <t>goes; walks; moves; wanders around</t>
   </si>
   <si>
-    <t>enjoys; finds high pleasure in</t>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
   </si>
   <si>
     <t>lives (in); dwells (in)</t>
@@ -1315,40 +1315,40 @@
     <t>sees</t>
   </si>
   <si>
-    <t>go! begone!</t>
+    <t>go!; begone!</t>
   </si>
   <si>
     <t>walks; wanders; goes around; travels; fares on</t>
   </si>
   <si>
-    <t>intends; will (to); lit. thinks</t>
-  </si>
-  <si>
-    <t>undergoes; feels; experiences</t>
-  </si>
-  <si>
-    <t>feels; experiences; senses</t>
-  </si>
-  <si>
-    <t>bears in mind; keeps in mind; remembers</t>
-  </si>
-  <si>
-    <t>gives; offers; hands</t>
-  </si>
-  <si>
-    <t>come; come here!</t>
-  </si>
-  <si>
-    <t>listens; hears</t>
-  </si>
-  <si>
-    <t>he must hear! may he listen!</t>
+    <t>intends; will (to)</t>
+  </si>
+  <si>
+    <t>personally experiences; undergoes; feels</t>
+  </si>
+  <si>
+    <t>feels; experiences; senses; notices</t>
+  </si>
+  <si>
+    <t>bears in mind; keeps in mind; remembers; lit. carries</t>
+  </si>
+  <si>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
+  </si>
+  <si>
+    <t>come!</t>
+  </si>
+  <si>
+    <t>hears</t>
+  </si>
+  <si>
+    <t>one must listen!; it must hear!</t>
   </si>
   <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to); appears; becomes evident</t>
+    <t>comes to mind; occurs (to)</t>
   </si>
   <si>
     <t>makes the claim (of); claims (to be)</t>
@@ -1360,10 +1360,10 @@
     <t>holds up; raises up</t>
   </si>
   <si>
-    <t>reaches; arrives (at); attains; experiences</t>
-  </si>
-  <si>
-    <t>merchant; trader</t>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
+    <t>trader; dealer</t>
   </si>
   <si>
     <t>farmer; ploughman</t>
@@ -1372,16 +1372,13 @@
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
-    <t>practices; follows a course of action; follows a method; is intent on</t>
-  </si>
-  <si>
-    <t>is reborn in; re-arises; lit. goes towards</t>
-  </si>
-  <si>
-    <t>is disenchanted; is disinterested; is disillusioned</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
+    <t>practices; follows a course of action; follows a method</t>
+  </si>
+  <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
   </si>
   <si>
     <t>eats; consumes</t>
@@ -1390,10 +1387,13 @@
     <t>appears; arises; takes place</t>
   </si>
   <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
-    <t>cuts; cuts off; severs</t>
+    <t>cuts off; severs</t>
   </si>
   <si>
     <t>we are</t>
@@ -1408,58 +1408,58 @@
     <t>I am</t>
   </si>
   <si>
-    <t>they are; there are</t>
-  </si>
-  <si>
-    <t>there is</t>
-  </si>
-  <si>
-    <t>addressed; said (to)</t>
+    <t>virtuous woman; good woman</t>
+  </si>
+  <si>
+    <t>there is; there exists</t>
+  </si>
+  <si>
+    <t>addressed; said (to); advised</t>
   </si>
   <si>
     <t>was; existed; became</t>
   </si>
   <si>
-    <t>appeared; manifested; lit. became visible</t>
-  </si>
-  <si>
-    <t>may you all be! you all must be!</t>
-  </si>
-  <si>
-    <t>may it be! he must be</t>
+    <t>appeared; manifested; lit. was visible</t>
+  </si>
+  <si>
+    <t>may you all be!; I pray you all may be!</t>
+  </si>
+  <si>
+    <t>may it be (for)!</t>
   </si>
   <si>
     <t>is</t>
   </si>
   <si>
-    <t>replied; assented; agreed</t>
+    <t>replied (to); agreed (with)</t>
   </si>
   <si>
     <t>asked; enquired</t>
   </si>
   <si>
-    <t>arose; appeared</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with)</t>
-  </si>
-  <si>
-    <t>greeted; exchanged pleasantries; was friendly (with)</t>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
     <t>asked; enquired; questioned</t>
   </si>
   <si>
-    <t>approached; drew near; went (to)</t>
+    <t>approached; drew near; went (to); lit. went near</t>
   </si>
   <si>
     <t>sat (on); sat down (in)</t>
   </si>
   <si>
-    <t>monk; sage; hermit; holy man</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>monk; sage; seer; hermit; silent sage</t>
+  </si>
+  <si>
+    <t>fine rice</t>
   </si>
   <si>
     <t>fire</t>
@@ -1471,22 +1471,22 @@
     <t>seer; sage</t>
   </si>
   <si>
-    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure; lit. putting together</t>
+    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure</t>
   </si>
   <si>
     <t>chief; chieftain; headman; leader</t>
   </si>
   <si>
-    <t>sickness; disease; lit. upset; overturn</t>
-  </si>
-  <si>
-    <t>family; relative; lit. known</t>
+    <t>sickness; disease; illness; lit. upset</t>
+  </si>
+  <si>
+    <t>family; relative; kinsman; lit. known</t>
   </si>
   <si>
     <t>does; acts; performs</t>
   </si>
   <si>
-    <t>do! make! may you preform; you must do</t>
+    <t>do!; make!</t>
   </si>
   <si>
     <t>does; performs; lit. constructs</t>
@@ -1498,52 +1498,55 @@
     <t>stood; stayed; remained</t>
   </si>
   <si>
-    <t>answered; explained</t>
+    <t>answered; replied; lit. made distinct</t>
   </si>
   <si>
     <t>I was</t>
   </si>
   <si>
-    <t>one was; it was</t>
-  </si>
-  <si>
-    <t>excess; pleasure; intoxication</t>
-  </si>
-  <si>
-    <t>livelihood; way of earning a living</t>
+    <t>was</t>
+  </si>
+  <si>
+    <t>excess; pleasure; indulgence</t>
+  </si>
+  <si>
+    <t>livelihood; mode of living; way of life; way of earning a living</t>
   </si>
   <si>
     <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
   </si>
   <si>
-    <t>false teaching; against the teaching</t>
+    <t>false teaching; something opposed to the teaching</t>
   </si>
   <si>
     <t>skin</t>
   </si>
   <si>
-    <t>complete comprehension (of); total understanding (of); lit. arriving</t>
+    <t>complete comprehension (of); total understanding (of); completely getting (of); breakthrough (to); lit. arriving</t>
+  </si>
+  <si>
+    <t>my; mine; of me</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>us (object)</t>
+  </si>
+  <si>
+    <t>for us; to us</t>
+  </si>
+  <si>
+    <t>we; I (royal plural)</t>
   </si>
   <si>
     <t>my; mine</t>
   </si>
   <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>us (object)</t>
-  </si>
-  <si>
-    <t>for us; to us</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
     <t>our</t>
   </si>
   <si>
-    <t>our; of us</t>
+    <t>our; of us; my (royal plural)</t>
   </si>
   <si>
     <t>I</t>
@@ -1552,7 +1555,7 @@
     <t>me (object)</t>
   </si>
   <si>
-    <t>for me; to me</t>
+    <t>to me; for me</t>
   </si>
   <si>
     <t>looks beautiful (in); lit. shines</t>
@@ -1561,7 +1564,7 @@
     <t>leads; carries away; takes away</t>
   </si>
   <si>
-    <t>(negative particle); no; not</t>
+    <t>no; not; neither; nor</t>
   </si>
   <si>
     <t>together (with); with</t>
@@ -1573,7 +1576,7 @@
     <t>no; not</t>
   </si>
   <si>
-    <t>do not; may one not</t>
+    <t>do not; may one not; don’t let</t>
   </si>
   <si>
     <t>will explain; will define; will describes</t>
@@ -1582,7 +1585,7 @@
     <t>will breathe; will inhale</t>
   </si>
   <si>
-    <t>could be; should be; will be</t>
+    <t>could be; should be; lit. will be</t>
   </si>
   <si>
     <t>will go</t>
@@ -1591,7 +1594,7 @@
     <t>will exhale; will breathe out</t>
   </si>
   <si>
-    <t>will take; will consider; will keep in mind; lit. will hold</t>
+    <t>will bear in mind; will keep in mind; will remembers; lit. will hold</t>
   </si>
   <si>
     <t>will give (to)</t>
@@ -1606,7 +1609,7 @@
     <t>of you all; yours</t>
   </si>
   <si>
-    <t>you all; you (respectful plural) (object)</t>
+    <t>(object) you all; you (royal plural)</t>
   </si>
   <si>
     <t>your; of you</t>
@@ -1615,22 +1618,22 @@
     <t>you</t>
   </si>
   <si>
-    <t>by you; with you</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>does not know; does not understand</t>
-  </si>
-  <si>
-    <t>afraid of wrong; feeling shame; conscientious</t>
+    <t>by you</t>
+  </si>
+  <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
+    <t>does not know; does not understand; lit. does not completely know</t>
+  </si>
+  <si>
+    <t>afraid of wrong; conscientious</t>
   </si>
   <si>
     <t>speaking; saying; telling</t>
   </si>
   <si>
-    <t>remorseful; regretful; sorry; lit. remembering back negatively</t>
+    <t>remorseful; regretful; repentant; sorry; lit. remembering back negatively</t>
   </si>
   <si>
     <t>enjoying; using; experiencing; partaking in</t>
@@ -1642,10 +1645,10 @@
     <t>seeking; searching for; looking for</t>
   </si>
   <si>
-    <t>who does not return; non-returning (in this world)</t>
-  </si>
-  <si>
-    <t>who returns once; once-returner</t>
+    <t>who does not return; non-returning</t>
+  </si>
+  <si>
+    <t>once-returner; who has attained the second stage of the path</t>
   </si>
   <si>
     <t>fellow monk; spiritual companion</t>
@@ -2121,10 +2124,10 @@
         <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2138,10 +2141,10 @@
         <v>281</v>
       </c>
       <c r="D3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2155,10 +2158,10 @@
         <v>282</v>
       </c>
       <c r="D4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2172,10 +2175,10 @@
         <v>283</v>
       </c>
       <c r="D5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2189,10 +2192,10 @@
         <v>284</v>
       </c>
       <c r="D6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2206,10 +2209,10 @@
         <v>285</v>
       </c>
       <c r="D7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2223,10 +2226,10 @@
         <v>286</v>
       </c>
       <c r="D8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2240,10 +2243,10 @@
         <v>287</v>
       </c>
       <c r="D9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E9" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2257,10 +2260,10 @@
         <v>288</v>
       </c>
       <c r="D10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2274,10 +2277,10 @@
         <v>289</v>
       </c>
       <c r="D11" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E11" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2291,10 +2294,10 @@
         <v>290</v>
       </c>
       <c r="D12" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E12" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2308,10 +2311,10 @@
         <v>291</v>
       </c>
       <c r="D13" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E13" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2325,10 +2328,10 @@
         <v>292</v>
       </c>
       <c r="D14" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E14" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2342,10 +2345,10 @@
         <v>293</v>
       </c>
       <c r="D15" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E15" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2359,10 +2362,10 @@
         <v>294</v>
       </c>
       <c r="D16" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E16" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2376,10 +2379,10 @@
         <v>295</v>
       </c>
       <c r="D17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E17" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2393,10 +2396,10 @@
         <v>296</v>
       </c>
       <c r="D18" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E18" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2410,10 +2413,10 @@
         <v>297</v>
       </c>
       <c r="D19" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E19" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2427,10 +2430,10 @@
         <v>298</v>
       </c>
       <c r="D20" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E20" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2444,10 +2447,10 @@
         <v>299</v>
       </c>
       <c r="D21" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E21" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2461,10 +2464,10 @@
         <v>300</v>
       </c>
       <c r="D22" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E22" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2478,10 +2481,10 @@
         <v>301</v>
       </c>
       <c r="D23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E23" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2495,10 +2498,10 @@
         <v>302</v>
       </c>
       <c r="D24" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E24" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2512,10 +2515,10 @@
         <v>303</v>
       </c>
       <c r="D25" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E25" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2529,10 +2532,10 @@
         <v>304</v>
       </c>
       <c r="D26" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E26" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2546,10 +2549,10 @@
         <v>305</v>
       </c>
       <c r="D27" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E27" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2563,10 +2566,10 @@
         <v>306</v>
       </c>
       <c r="D28" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E28" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2580,10 +2583,10 @@
         <v>307</v>
       </c>
       <c r="D29" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E29" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2597,10 +2600,10 @@
         <v>308</v>
       </c>
       <c r="D30" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E30" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2614,10 +2617,10 @@
         <v>309</v>
       </c>
       <c r="D31" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E31" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2631,10 +2634,10 @@
         <v>310</v>
       </c>
       <c r="D32" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E32" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2648,10 +2651,10 @@
         <v>311</v>
       </c>
       <c r="D33" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E33" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2665,10 +2668,10 @@
         <v>312</v>
       </c>
       <c r="D34" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E34" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2682,10 +2685,10 @@
         <v>313</v>
       </c>
       <c r="D35" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E35" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2699,10 +2702,10 @@
         <v>314</v>
       </c>
       <c r="D36" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E36" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2716,10 +2719,10 @@
         <v>315</v>
       </c>
       <c r="D37" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E37" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2733,10 +2736,10 @@
         <v>316</v>
       </c>
       <c r="D38" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E38" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2750,10 +2753,10 @@
         <v>317</v>
       </c>
       <c r="D39" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2767,10 +2770,10 @@
         <v>318</v>
       </c>
       <c r="D40" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2784,10 +2787,10 @@
         <v>319</v>
       </c>
       <c r="D41" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E41" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2801,10 +2804,10 @@
         <v>320</v>
       </c>
       <c r="D42" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E42" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2818,10 +2821,10 @@
         <v>321</v>
       </c>
       <c r="D43" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E43" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2835,10 +2838,10 @@
         <v>322</v>
       </c>
       <c r="D44" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E44" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2852,10 +2855,10 @@
         <v>323</v>
       </c>
       <c r="D45" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E45" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2869,10 +2872,10 @@
         <v>324</v>
       </c>
       <c r="D46" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E46" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2886,10 +2889,10 @@
         <v>325</v>
       </c>
       <c r="D47" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E47" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2903,10 +2906,10 @@
         <v>326</v>
       </c>
       <c r="D48" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E48" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2920,10 +2923,10 @@
         <v>327</v>
       </c>
       <c r="D49" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E49" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2937,10 +2940,10 @@
         <v>328</v>
       </c>
       <c r="D50" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E50" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2954,10 +2957,10 @@
         <v>329</v>
       </c>
       <c r="D51" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E51" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2971,10 +2974,10 @@
         <v>330</v>
       </c>
       <c r="D52" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E52" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2988,10 +2991,10 @@
         <v>331</v>
       </c>
       <c r="D53" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E53" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3005,10 +3008,10 @@
         <v>332</v>
       </c>
       <c r="D54" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E54" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3022,10 +3025,10 @@
         <v>333</v>
       </c>
       <c r="D55" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E55" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3039,10 +3042,10 @@
         <v>334</v>
       </c>
       <c r="D56" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E56" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3056,10 +3059,10 @@
         <v>335</v>
       </c>
       <c r="D57" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E57" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3073,10 +3076,10 @@
         <v>336</v>
       </c>
       <c r="D58" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E58" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3090,10 +3093,10 @@
         <v>337</v>
       </c>
       <c r="D59" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E59" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3107,10 +3110,10 @@
         <v>338</v>
       </c>
       <c r="D60" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E60" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3124,10 +3127,10 @@
         <v>339</v>
       </c>
       <c r="D61" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E61" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3141,10 +3144,10 @@
         <v>340</v>
       </c>
       <c r="D62" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E62" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3158,10 +3161,10 @@
         <v>341</v>
       </c>
       <c r="D63" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E63" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3175,10 +3178,10 @@
         <v>342</v>
       </c>
       <c r="D64" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E64" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3192,10 +3195,10 @@
         <v>343</v>
       </c>
       <c r="D65" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E65" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3209,10 +3212,10 @@
         <v>344</v>
       </c>
       <c r="D66" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E66" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3226,10 +3229,10 @@
         <v>345</v>
       </c>
       <c r="D67" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E67" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3243,10 +3246,10 @@
         <v>346</v>
       </c>
       <c r="D68" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E68" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3260,10 +3263,10 @@
         <v>347</v>
       </c>
       <c r="D69" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E69" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3277,10 +3280,10 @@
         <v>348</v>
       </c>
       <c r="D70" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E70" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3294,10 +3297,10 @@
         <v>349</v>
       </c>
       <c r="D71" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E71" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3311,10 +3314,10 @@
         <v>350</v>
       </c>
       <c r="D72" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E72" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3328,10 +3331,10 @@
         <v>351</v>
       </c>
       <c r="D73" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E73" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3345,10 +3348,10 @@
         <v>352</v>
       </c>
       <c r="D74" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E74" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3362,10 +3365,10 @@
         <v>353</v>
       </c>
       <c r="D75" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E75" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3379,10 +3382,10 @@
         <v>354</v>
       </c>
       <c r="D76" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E76" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3396,10 +3399,10 @@
         <v>355</v>
       </c>
       <c r="D77" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E77" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3413,10 +3416,10 @@
         <v>356</v>
       </c>
       <c r="D78" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E78" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3430,10 +3433,10 @@
         <v>357</v>
       </c>
       <c r="D79" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E79" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3447,10 +3450,10 @@
         <v>358</v>
       </c>
       <c r="D80" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E80" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3464,10 +3467,10 @@
         <v>359</v>
       </c>
       <c r="D81" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E81" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3481,10 +3484,10 @@
         <v>360</v>
       </c>
       <c r="D82" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E82" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3498,10 +3501,10 @@
         <v>361</v>
       </c>
       <c r="D83" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E83" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3515,10 +3518,10 @@
         <v>362</v>
       </c>
       <c r="D84" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E84" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3532,10 +3535,10 @@
         <v>363</v>
       </c>
       <c r="D85" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E85" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3549,10 +3552,10 @@
         <v>364</v>
       </c>
       <c r="D86" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E86" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3566,10 +3569,10 @@
         <v>365</v>
       </c>
       <c r="D87" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E87" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3583,10 +3586,10 @@
         <v>366</v>
       </c>
       <c r="D88" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E88" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3600,10 +3603,10 @@
         <v>367</v>
       </c>
       <c r="D89" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E89" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3617,10 +3620,10 @@
         <v>368</v>
       </c>
       <c r="D90" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E90" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3634,10 +3637,10 @@
         <v>369</v>
       </c>
       <c r="D91" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E91" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3651,10 +3654,10 @@
         <v>370</v>
       </c>
       <c r="D92" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E92" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3668,10 +3671,10 @@
         <v>371</v>
       </c>
       <c r="D93" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E93" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3685,10 +3688,10 @@
         <v>372</v>
       </c>
       <c r="D94" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E94" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3702,10 +3705,10 @@
         <v>373</v>
       </c>
       <c r="D95" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E95" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3719,10 +3722,10 @@
         <v>374</v>
       </c>
       <c r="D96" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E96" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3736,10 +3739,10 @@
         <v>375</v>
       </c>
       <c r="D97" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E97" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3753,10 +3756,10 @@
         <v>376</v>
       </c>
       <c r="D98" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E98" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3770,10 +3773,10 @@
         <v>377</v>
       </c>
       <c r="D99" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E99" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3787,10 +3790,10 @@
         <v>378</v>
       </c>
       <c r="D100" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E100" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3804,10 +3807,10 @@
         <v>379</v>
       </c>
       <c r="D101" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E101" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3821,10 +3824,10 @@
         <v>380</v>
       </c>
       <c r="D102" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E102" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3838,10 +3841,10 @@
         <v>381</v>
       </c>
       <c r="D103" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E103" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3855,10 +3858,10 @@
         <v>382</v>
       </c>
       <c r="D104" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E104" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3872,10 +3875,10 @@
         <v>383</v>
       </c>
       <c r="D105" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E105" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3889,10 +3892,10 @@
         <v>384</v>
       </c>
       <c r="D106" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E106" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3906,10 +3909,10 @@
         <v>385</v>
       </c>
       <c r="D107" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E107" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3923,10 +3926,10 @@
         <v>386</v>
       </c>
       <c r="D108" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E108" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3940,10 +3943,10 @@
         <v>387</v>
       </c>
       <c r="D109" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E109" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3957,10 +3960,10 @@
         <v>388</v>
       </c>
       <c r="D110" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E110" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3974,10 +3977,10 @@
         <v>389</v>
       </c>
       <c r="D111" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E111" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3991,10 +3994,10 @@
         <v>390</v>
       </c>
       <c r="D112" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E112" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4008,10 +4011,10 @@
         <v>391</v>
       </c>
       <c r="D113" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E113" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4025,10 +4028,10 @@
         <v>392</v>
       </c>
       <c r="D114" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E114" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4042,10 +4045,10 @@
         <v>393</v>
       </c>
       <c r="D115" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E115" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4059,10 +4062,10 @@
         <v>394</v>
       </c>
       <c r="D116" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E116" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4076,10 +4079,10 @@
         <v>395</v>
       </c>
       <c r="D117" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E117" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4093,10 +4096,10 @@
         <v>396</v>
       </c>
       <c r="D118" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E118" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4110,10 +4113,10 @@
         <v>397</v>
       </c>
       <c r="D119" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E119" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4127,10 +4130,10 @@
         <v>398</v>
       </c>
       <c r="D120" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E120" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4144,10 +4147,10 @@
         <v>399</v>
       </c>
       <c r="D121" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E121" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4161,10 +4164,10 @@
         <v>400</v>
       </c>
       <c r="D122" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E122" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4178,10 +4181,10 @@
         <v>401</v>
       </c>
       <c r="D123" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E123" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4195,10 +4198,10 @@
         <v>402</v>
       </c>
       <c r="D124" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E124" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4212,10 +4215,10 @@
         <v>403</v>
       </c>
       <c r="D125" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E125" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4229,10 +4232,10 @@
         <v>404</v>
       </c>
       <c r="D126" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E126" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4246,10 +4249,10 @@
         <v>405</v>
       </c>
       <c r="D127" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E127" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4263,10 +4266,10 @@
         <v>406</v>
       </c>
       <c r="D128" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E128" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4280,10 +4283,10 @@
         <v>407</v>
       </c>
       <c r="D129" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E129" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4297,10 +4300,10 @@
         <v>408</v>
       </c>
       <c r="D130" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E130" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4314,10 +4317,10 @@
         <v>409</v>
       </c>
       <c r="D131" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E131" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4331,10 +4334,10 @@
         <v>410</v>
       </c>
       <c r="D132" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E132" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4348,10 +4351,10 @@
         <v>411</v>
       </c>
       <c r="D133" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E133" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4365,10 +4368,10 @@
         <v>412</v>
       </c>
       <c r="D134" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E134" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4382,10 +4385,10 @@
         <v>413</v>
       </c>
       <c r="D135" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E135" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4399,10 +4402,10 @@
         <v>414</v>
       </c>
       <c r="D136" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E136" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4416,10 +4419,10 @@
         <v>415</v>
       </c>
       <c r="D137" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E137" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4433,10 +4436,10 @@
         <v>416</v>
       </c>
       <c r="D138" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E138" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4450,10 +4453,10 @@
         <v>417</v>
       </c>
       <c r="D139" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E139" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4467,10 +4470,10 @@
         <v>418</v>
       </c>
       <c r="D140" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E140" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4484,10 +4487,10 @@
         <v>419</v>
       </c>
       <c r="D141" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E141" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4501,10 +4504,10 @@
         <v>420</v>
       </c>
       <c r="D142" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E142" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4518,10 +4521,10 @@
         <v>421</v>
       </c>
       <c r="D143" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E143" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4535,10 +4538,10 @@
         <v>422</v>
       </c>
       <c r="D144" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E144" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4552,10 +4555,10 @@
         <v>423</v>
       </c>
       <c r="D145" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E145" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4569,10 +4572,10 @@
         <v>424</v>
       </c>
       <c r="D146" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E146" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4586,10 +4589,10 @@
         <v>425</v>
       </c>
       <c r="D147" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E147" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4603,10 +4606,10 @@
         <v>426</v>
       </c>
       <c r="D148" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E148" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4620,10 +4623,10 @@
         <v>427</v>
       </c>
       <c r="D149" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E149" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4637,10 +4640,10 @@
         <v>428</v>
       </c>
       <c r="D150" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E150" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4654,10 +4657,10 @@
         <v>429</v>
       </c>
       <c r="D151" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E151" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4671,10 +4674,10 @@
         <v>430</v>
       </c>
       <c r="D152" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E152" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4688,10 +4691,10 @@
         <v>431</v>
       </c>
       <c r="D153" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E153" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4705,10 +4708,10 @@
         <v>432</v>
       </c>
       <c r="D154" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E154" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4722,10 +4725,10 @@
         <v>433</v>
       </c>
       <c r="D155" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E155" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4739,10 +4742,10 @@
         <v>434</v>
       </c>
       <c r="D156" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E156" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4756,10 +4759,10 @@
         <v>435</v>
       </c>
       <c r="D157" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E157" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4773,10 +4776,10 @@
         <v>436</v>
       </c>
       <c r="D158" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E158" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4790,10 +4793,10 @@
         <v>437</v>
       </c>
       <c r="D159" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E159" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4807,10 +4810,10 @@
         <v>438</v>
       </c>
       <c r="D160" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E160" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4824,10 +4827,10 @@
         <v>439</v>
       </c>
       <c r="D161" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E161" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4841,10 +4844,10 @@
         <v>440</v>
       </c>
       <c r="D162" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E162" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4858,10 +4861,10 @@
         <v>441</v>
       </c>
       <c r="D163" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E163" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4875,10 +4878,10 @@
         <v>442</v>
       </c>
       <c r="D164" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E164" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4892,10 +4895,10 @@
         <v>443</v>
       </c>
       <c r="D165" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E165" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4909,10 +4912,10 @@
         <v>444</v>
       </c>
       <c r="D166" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E166" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4926,10 +4929,10 @@
         <v>445</v>
       </c>
       <c r="D167" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E167" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4943,10 +4946,10 @@
         <v>446</v>
       </c>
       <c r="D168" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E168" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4960,10 +4963,10 @@
         <v>447</v>
       </c>
       <c r="D169" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E169" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4977,10 +4980,10 @@
         <v>448</v>
       </c>
       <c r="D170" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E170" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4994,10 +4997,10 @@
         <v>449</v>
       </c>
       <c r="D171" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E171" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5011,10 +5014,10 @@
         <v>450</v>
       </c>
       <c r="D172" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E172" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5028,10 +5031,10 @@
         <v>451</v>
       </c>
       <c r="D173" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E173" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5045,10 +5048,10 @@
         <v>452</v>
       </c>
       <c r="D174" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E174" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5062,10 +5065,10 @@
         <v>453</v>
       </c>
       <c r="D175" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E175" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5079,10 +5082,10 @@
         <v>454</v>
       </c>
       <c r="D176" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E176" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5096,10 +5099,10 @@
         <v>455</v>
       </c>
       <c r="D177" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E177" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5113,10 +5116,10 @@
         <v>456</v>
       </c>
       <c r="D178" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E178" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5130,10 +5133,10 @@
         <v>457</v>
       </c>
       <c r="D179" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E179" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5147,10 +5150,10 @@
         <v>458</v>
       </c>
       <c r="D180" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E180" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5164,10 +5167,10 @@
         <v>459</v>
       </c>
       <c r="D181" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E181" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5181,10 +5184,10 @@
         <v>460</v>
       </c>
       <c r="D182" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E182" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5198,10 +5201,10 @@
         <v>461</v>
       </c>
       <c r="D183" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E183" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5215,10 +5218,10 @@
         <v>462</v>
       </c>
       <c r="D184" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E184" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5232,10 +5235,10 @@
         <v>463</v>
       </c>
       <c r="D185" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E185" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5249,10 +5252,10 @@
         <v>464</v>
       </c>
       <c r="D186" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E186" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5266,10 +5269,10 @@
         <v>465</v>
       </c>
       <c r="D187" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E187" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5283,10 +5286,10 @@
         <v>466</v>
       </c>
       <c r="D188" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E188" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5300,10 +5303,10 @@
         <v>467</v>
       </c>
       <c r="D189" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E189" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5317,10 +5320,10 @@
         <v>468</v>
       </c>
       <c r="D190" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E190" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5334,10 +5337,10 @@
         <v>469</v>
       </c>
       <c r="D191" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E191" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5351,10 +5354,10 @@
         <v>470</v>
       </c>
       <c r="D192" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E192" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5368,10 +5371,10 @@
         <v>471</v>
       </c>
       <c r="D193" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E193" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5385,10 +5388,10 @@
         <v>472</v>
       </c>
       <c r="D194" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E194" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5402,10 +5405,10 @@
         <v>473</v>
       </c>
       <c r="D195" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E195" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5419,10 +5422,10 @@
         <v>474</v>
       </c>
       <c r="D196" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E196" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5436,10 +5439,10 @@
         <v>475</v>
       </c>
       <c r="D197" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E197" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5453,10 +5456,10 @@
         <v>476</v>
       </c>
       <c r="D198" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E198" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5470,10 +5473,10 @@
         <v>477</v>
       </c>
       <c r="D199" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E199" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5487,10 +5490,10 @@
         <v>478</v>
       </c>
       <c r="D200" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E200" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5504,10 +5507,10 @@
         <v>479</v>
       </c>
       <c r="D201" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E201" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5521,10 +5524,10 @@
         <v>480</v>
       </c>
       <c r="D202" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E202" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5538,10 +5541,10 @@
         <v>481</v>
       </c>
       <c r="D203" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E203" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5555,10 +5558,10 @@
         <v>482</v>
       </c>
       <c r="D204" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E204" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5572,10 +5575,10 @@
         <v>483</v>
       </c>
       <c r="D205" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E205" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5589,10 +5592,10 @@
         <v>484</v>
       </c>
       <c r="D206" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E206" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5606,10 +5609,10 @@
         <v>485</v>
       </c>
       <c r="D207" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E207" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5623,10 +5626,10 @@
         <v>486</v>
       </c>
       <c r="D208" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E208" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5640,10 +5643,10 @@
         <v>487</v>
       </c>
       <c r="D209" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E209" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5657,10 +5660,10 @@
         <v>488</v>
       </c>
       <c r="D210" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E210" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5674,10 +5677,10 @@
         <v>489</v>
       </c>
       <c r="D211" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E211" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5691,10 +5694,10 @@
         <v>490</v>
       </c>
       <c r="D212" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E212" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5708,10 +5711,10 @@
         <v>491</v>
       </c>
       <c r="D213" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E213" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5725,10 +5728,10 @@
         <v>492</v>
       </c>
       <c r="D214" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E214" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5742,10 +5745,10 @@
         <v>493</v>
       </c>
       <c r="D215" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E215" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5759,10 +5762,10 @@
         <v>494</v>
       </c>
       <c r="D216" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E216" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5776,10 +5779,10 @@
         <v>495</v>
       </c>
       <c r="D217" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E217" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5793,10 +5796,10 @@
         <v>496</v>
       </c>
       <c r="D218" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E218" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5810,10 +5813,10 @@
         <v>497</v>
       </c>
       <c r="D219" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E219" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5827,10 +5830,10 @@
         <v>498</v>
       </c>
       <c r="D220" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E220" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5844,10 +5847,10 @@
         <v>499</v>
       </c>
       <c r="D221" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E221" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5861,10 +5864,10 @@
         <v>500</v>
       </c>
       <c r="D222" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E222" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5878,10 +5881,10 @@
         <v>501</v>
       </c>
       <c r="D223" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E223" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5895,10 +5898,10 @@
         <v>502</v>
       </c>
       <c r="D224" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E224" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5912,10 +5915,10 @@
         <v>503</v>
       </c>
       <c r="D225" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E225" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5929,10 +5932,10 @@
         <v>504</v>
       </c>
       <c r="D226" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E226" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5946,10 +5949,10 @@
         <v>505</v>
       </c>
       <c r="D227" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E227" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5963,10 +5966,10 @@
         <v>506</v>
       </c>
       <c r="D228" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E228" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5980,10 +5983,10 @@
         <v>507</v>
       </c>
       <c r="D229" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E229" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5994,13 +5997,13 @@
         <v>276</v>
       </c>
       <c r="C230" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D230" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E230" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6011,13 +6014,13 @@
         <v>276</v>
       </c>
       <c r="C231" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D231" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E231" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6028,13 +6031,13 @@
         <v>276</v>
       </c>
       <c r="C232" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D232" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E232" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6045,13 +6048,13 @@
         <v>276</v>
       </c>
       <c r="C233" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D233" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E233" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6062,13 +6065,13 @@
         <v>276</v>
       </c>
       <c r="C234" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D234" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E234" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6079,13 +6082,13 @@
         <v>276</v>
       </c>
       <c r="C235" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D235" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E235" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6096,13 +6099,13 @@
         <v>273</v>
       </c>
       <c r="C236" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D236" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E236" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6113,13 +6116,13 @@
         <v>273</v>
       </c>
       <c r="C237" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D237" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E237" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6130,13 +6133,13 @@
         <v>277</v>
       </c>
       <c r="C238" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D238" t="s">
         <v>277</v>
       </c>
       <c r="E238" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6147,13 +6150,13 @@
         <v>277</v>
       </c>
       <c r="C239" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D239" t="s">
         <v>277</v>
       </c>
       <c r="E239" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6164,13 +6167,13 @@
         <v>277</v>
       </c>
       <c r="C240" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D240" t="s">
         <v>277</v>
       </c>
       <c r="E240" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6181,13 +6184,13 @@
         <v>277</v>
       </c>
       <c r="C241" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D241" t="s">
         <v>277</v>
       </c>
       <c r="E241" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6198,13 +6201,13 @@
         <v>277</v>
       </c>
       <c r="C242" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D242" t="s">
         <v>277</v>
       </c>
       <c r="E242" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6215,13 +6218,13 @@
         <v>278</v>
       </c>
       <c r="C243" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D243" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E243" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6232,13 +6235,13 @@
         <v>278</v>
       </c>
       <c r="C244" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D244" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E244" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6249,13 +6252,13 @@
         <v>278</v>
       </c>
       <c r="C245" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D245" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E245" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6266,13 +6269,13 @@
         <v>278</v>
       </c>
       <c r="C246" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D246" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E246" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6283,13 +6286,13 @@
         <v>278</v>
       </c>
       <c r="C247" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D247" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E247" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6300,13 +6303,13 @@
         <v>278</v>
       </c>
       <c r="C248" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D248" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E248" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6317,13 +6320,13 @@
         <v>278</v>
       </c>
       <c r="C249" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D249" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E249" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6334,13 +6337,13 @@
         <v>276</v>
       </c>
       <c r="C250" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D250" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E250" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6351,13 +6354,13 @@
         <v>276</v>
       </c>
       <c r="C251" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D251" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E251" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6368,13 +6371,13 @@
         <v>276</v>
       </c>
       <c r="C252" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D252" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E252" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6385,13 +6388,13 @@
         <v>276</v>
       </c>
       <c r="C253" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D253" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E253" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6402,13 +6405,13 @@
         <v>276</v>
       </c>
       <c r="C254" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D254" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E254" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6419,13 +6422,13 @@
         <v>276</v>
       </c>
       <c r="C255" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D255" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E255" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6436,13 +6439,13 @@
         <v>276</v>
       </c>
       <c r="C256" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D256" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E256" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6453,13 +6456,13 @@
         <v>276</v>
       </c>
       <c r="C257" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D257" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E257" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6470,13 +6473,13 @@
         <v>273</v>
       </c>
       <c r="C258" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D258" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E258" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6487,13 +6490,13 @@
         <v>279</v>
       </c>
       <c r="C259" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D259" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E259" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6504,13 +6507,13 @@
         <v>279</v>
       </c>
       <c r="C260" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D260" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E260" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6521,13 +6524,13 @@
         <v>279</v>
       </c>
       <c r="C261" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D261" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E261" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6538,13 +6541,13 @@
         <v>279</v>
       </c>
       <c r="C262" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D262" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E262" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6555,13 +6558,13 @@
         <v>279</v>
       </c>
       <c r="C263" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D263" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E263" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6572,13 +6575,13 @@
         <v>279</v>
       </c>
       <c r="C264" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D264" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E264" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6589,13 +6592,13 @@
         <v>279</v>
       </c>
       <c r="C265" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D265" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E265" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6606,13 +6609,13 @@
         <v>279</v>
       </c>
       <c r="C266" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D266" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E266" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6623,13 +6626,13 @@
         <v>272</v>
       </c>
       <c r="C267" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D267" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E267" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6640,13 +6643,13 @@
         <v>272</v>
       </c>
       <c r="C268" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D268" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E268" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -37,339 +37,339 @@
     <t>dhamma 1.03</t>
   </si>
   <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
     <t>pariyāya 4</t>
   </si>
   <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
   </si>
   <si>
     <t>daṇḍa 1</t>
   </si>
   <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
     <t>dhamma 1.09</t>
   </si>
   <si>
@@ -418,84 +418,84 @@
     <t>pajahati</t>
   </si>
   <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
     <t>passa 2.1</t>
   </si>
   <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
     <t>ceteti 2</t>
   </si>
   <si>
@@ -520,24 +520,24 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
+    <t>paṭibhāti</t>
+  </si>
+  <si>
+    <t>paṭijānāti 3</t>
+  </si>
+  <si>
+    <t>ājānāti 1</t>
+  </si>
+  <si>
+    <t>paggaṇhāti 2</t>
+  </si>
+  <si>
     <t>paṭiggaṇhāti 1</t>
   </si>
   <si>
-    <t>paṭibhāti</t>
-  </si>
-  <si>
-    <t>paṭijānāti 3</t>
-  </si>
-  <si>
-    <t>ājānāti 1</t>
-  </si>
-  <si>
-    <t>paggaṇhāti 2</t>
-  </si>
-  <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
@@ -619,18 +619,18 @@
     <t>abhinandi 1</t>
   </si>
   <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
     <t>muni 1</t>
   </si>
   <si>
@@ -640,6 +640,9 @@
     <t>aggi</t>
   </si>
   <si>
+    <t>ñāti</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
@@ -655,9 +658,6 @@
     <t>byādhi</t>
   </si>
   <si>
-    <t>ñāti</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -670,12 +670,12 @@
     <t>abhāsi 1</t>
   </si>
   <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>aṭṭhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -712,6 +712,9 @@
     <t>no 2.3</t>
   </si>
   <si>
+    <t>me 3</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
@@ -730,9 +733,6 @@
     <t>maṃ 1</t>
   </si>
   <si>
-    <t>me 3</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -784,21 +784,21 @@
     <t>tumhākaṃ 3</t>
   </si>
   <si>
+    <t>tayā 1</t>
+  </si>
+  <si>
     <t>tumhe 2</t>
   </si>
   <si>
+    <t>vo 1.4</t>
+  </si>
+  <si>
+    <t>tuvaṃ 1</t>
+  </si>
+  <si>
     <t>te 2.4</t>
   </si>
   <si>
-    <t>tuvaṃ 1</t>
-  </si>
-  <si>
-    <t>tayā 1</t>
-  </si>
-  <si>
-    <t>vo 1.4</t>
-  </si>
-  <si>
     <t>nābhijānāti 1</t>
   </si>
   <si>
@@ -862,339 +862,339 @@
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
     <t>stick; truncheon; nightstick; club</t>
   </si>
   <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
@@ -1243,84 +1243,84 @@
     <t>gives up; abandons; lets go (of)</t>
   </si>
   <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
     <t>intends; will (to)</t>
   </si>
   <si>
@@ -1345,24 +1345,24 @@
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
+    <t>comes to mind; occurs (to)</t>
+  </si>
+  <si>
+    <t>makes the claim (of); claims (to be)</t>
+  </si>
+  <si>
+    <t>knows; understands</t>
+  </si>
+  <si>
+    <t>holds up; raises up</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to)</t>
-  </si>
-  <si>
-    <t>makes the claim (of); claims (to be)</t>
-  </si>
-  <si>
-    <t>knows; understands</t>
-  </si>
-  <si>
-    <t>holds up; raises up</t>
-  </si>
-  <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
     <t>trader; dealer</t>
   </si>
   <si>
@@ -1444,18 +1444,18 @@
     <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
   </si>
   <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
@@ -1465,6 +1465,9 @@
     <t>fire</t>
   </si>
   <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
@@ -1480,9 +1483,6 @@
     <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -1495,12 +1495,12 @@
     <t>spoke; said</t>
   </si>
   <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>stood; stayed; remained</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -1537,6 +1537,9 @@
     <t>for us; to us</t>
   </si>
   <si>
+    <t>to me; for me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
@@ -1555,9 +1558,6 @@
     <t>me (object)</t>
   </si>
   <si>
-    <t>to me; for me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -1609,19 +1609,19 @@
     <t>of you all; yours</t>
   </si>
   <si>
+    <t>by you</t>
+  </si>
+  <si>
     <t>(object) you all; you (royal plural)</t>
   </si>
   <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>your; of you</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>by you</t>
-  </si>
-  <si>
-    <t>of you all; your</t>
   </si>
   <si>
     <t>does not know; does not understand; lit. does not completely know</t>
@@ -4311,7 +4311,7 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C131" t="s">
         <v>409</v>
@@ -4396,7 +4396,7 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C136" t="s">
         <v>414</v>
@@ -4719,7 +4719,7 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C155" t="s">
         <v>433</v>
@@ -4736,7 +4736,7 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C156" t="s">
         <v>434</v>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -34,189 +34,228 @@
     <t>vinaya 1</t>
   </si>
   <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
     <t>dhamma 1.03</t>
   </si>
   <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
     <t>samudaya 1</t>
   </si>
   <si>
@@ -235,12 +274,6 @@
     <t>māra</t>
   </si>
   <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
     <t>ñāya</t>
   </si>
   <si>
@@ -256,9 +289,6 @@
     <t>khandha 3</t>
   </si>
   <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
     <t>sota 1.1</t>
   </si>
   <si>
@@ -298,15 +328,9 @@
     <t>rukkha</t>
   </si>
   <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
     <t>gabbha 3</t>
   </si>
   <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
     <t>uppāda 1.1</t>
   </si>
   <si>
@@ -316,33 +340,15 @@
     <t>moha 1</t>
   </si>
   <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
     <t>kāya 1.1</t>
   </si>
   <si>
     <t>kassapa 1</t>
   </si>
   <si>
-    <t>cora</t>
-  </si>
-  <si>
     <t>attha 2.1</t>
   </si>
   <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
     <t>upajjhāya</t>
   </si>
   <si>
@@ -367,9 +373,6 @@
     <t>thera 1.2</t>
   </si>
   <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
     <t>dhamma 1.09</t>
   </si>
   <si>
@@ -379,9 +382,6 @@
     <t>nissaya 1</t>
   </si>
   <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
     <t>manasikāra</t>
   </si>
   <si>
@@ -439,30 +439,30 @@
     <t>upasaṅkamati</t>
   </si>
   <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
     <t>bhāsati 1.1</t>
   </si>
   <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
     <t>labhati 1</t>
   </si>
   <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
     <t>khādati</t>
   </si>
   <si>
@@ -505,12 +505,12 @@
     <t>vedeti 1</t>
   </si>
   <si>
+    <t>deti 1</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>deti 1</t>
-  </si>
-  <si>
     <t>ehi</t>
   </si>
   <si>
@@ -544,31 +544,37 @@
     <t>kassaka</t>
   </si>
   <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
+    <t>atthi 1</t>
+  </si>
+  <si>
+    <t>amhi</t>
   </si>
   <si>
     <t>amha 1.1</t>
@@ -580,15 +586,9 @@
     <t>attha 4.2</t>
   </si>
   <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>santi 3</t>
   </si>
   <si>
-    <t>atthi 1</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -667,15 +667,15 @@
     <t>abhisaṅkharoti 2</t>
   </si>
   <si>
+    <t>aṭṭhāsi 1</t>
+  </si>
+  <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>abhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
-    <t>aṭṭhāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -685,15 +685,15 @@
     <t>mada 1</t>
   </si>
   <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
     <t>ājīva</t>
   </si>
   <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
     <t>taca 1</t>
   </si>
   <si>
@@ -859,189 +859,228 @@
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
     <t>source; arising; origin; appearance</t>
   </si>
   <si>
@@ -1060,12 +1099,6 @@
     <t>death; Death; death personified</t>
   </si>
   <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
     <t>method; system; means; way</t>
   </si>
   <si>
@@ -1081,9 +1114,6 @@
     <t>aggregate; combination; conglomeration</t>
   </si>
   <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
     <t>stream; river; current</t>
   </si>
   <si>
@@ -1123,15 +1153,9 @@
     <t>tree</t>
   </si>
   <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
     <t>room; inside room; inner chamber; lit. womb</t>
   </si>
   <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
     <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
   </si>
   <si>
@@ -1141,33 +1165,15 @@
     <t>illusion; delusion; hallucination</t>
   </si>
   <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
     <t>body; physical body; physical process</t>
   </si>
   <si>
     <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
   </si>
   <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
     <t>need (for); want (for); lit. want</t>
   </si>
   <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
     <t>preceptor; teacher</t>
   </si>
   <si>
@@ -1192,9 +1198,6 @@
     <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
@@ -1204,9 +1207,6 @@
     <t>dependency; physical support; reliance; something one depends on</t>
   </si>
   <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
     <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
   </si>
   <si>
@@ -1264,30 +1264,30 @@
     <t>approaches; goes (to); visits; lit. goes near</t>
   </si>
   <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
     <t>speaks (about); talks (about)</t>
   </si>
   <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
     <t>gets; receives; obtains</t>
   </si>
   <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
     <t>chews; devours; eats</t>
   </si>
   <si>
@@ -1330,12 +1330,12 @@
     <t>feels; experiences; senses; notices</t>
   </si>
   <si>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>gives (to); donates (to); offers (to); hands (to)</t>
-  </si>
-  <si>
     <t>come!</t>
   </si>
   <si>
@@ -1369,31 +1369,37 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
+    <t>practices; follows a course of action; follows a method</t>
+  </si>
+  <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
-    <t>practices; follows a course of action; follows a method</t>
-  </si>
-  <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
+    <t>there is; there exists</t>
+  </si>
+  <si>
+    <t>I am</t>
   </si>
   <si>
     <t>we are</t>
@@ -1405,15 +1411,9 @@
     <t>you (all) must be; may you (all) be</t>
   </si>
   <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>virtuous woman; good woman</t>
   </si>
   <si>
-    <t>there is; there exists</t>
-  </si>
-  <si>
     <t>addressed; said (to); advised</t>
   </si>
   <si>
@@ -1492,15 +1492,15 @@
     <t>does; performs; lit. constructs</t>
   </si>
   <si>
+    <t>stood; stayed; remained</t>
+  </si>
+  <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>spoke; said</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
-    <t>stood; stayed; remained</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -1510,13 +1510,13 @@
     <t>excess; pleasure; indulgence</t>
   </si>
   <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>false teaching; something opposed to the teaching</t>
+  </si>
+  <si>
     <t>livelihood; mode of living; way of life; way of earning a living</t>
-  </si>
-  <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; something opposed to the teaching</t>
   </si>
   <si>
     <t>skin</t>
@@ -5212,7 +5212,7 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C184" t="s">
         <v>462</v>
@@ -5246,7 +5246,7 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C186" t="s">
         <v>464</v>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -14,21 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="573">
-  <si>
-    <t>Pāli1</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>Meaning IN CONTEXT</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>class</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="578">
+  <si>
+    <t>pali_1</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>meaning_1</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>sbs_class</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
   </si>
   <si>
     <t>vinaya 1</t>
@@ -184,9 +187,6 @@
     <t>rāga 1</t>
   </si>
   <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
     <t>brāhmaṇa 2</t>
   </si>
   <si>
@@ -196,210 +196,210 @@
     <t>bhava 2</t>
   </si>
   <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
     <t>bāla 2</t>
   </si>
   <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
     <t>mallā</t>
   </si>
   <si>
@@ -586,51 +586,54 @@
     <t>attha 4.2</t>
   </si>
   <si>
+    <t>āmantesi</t>
+  </si>
+  <si>
+    <t>ahosi</t>
+  </si>
+  <si>
+    <t>pāturahosi</t>
+  </si>
+  <si>
+    <t>hotha</t>
+  </si>
+  <si>
+    <t>hotu 1</t>
+  </si>
+  <si>
+    <t>hoti 1</t>
+  </si>
+  <si>
+    <t>paccassosi</t>
+  </si>
+  <si>
+    <t>udapādi 1</t>
+  </si>
+  <si>
+    <t>abhinandi 1</t>
+  </si>
+  <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
+    <t>abhāsi 1</t>
+  </si>
+  <si>
+    <t>sammodi</t>
+  </si>
+  <si>
+    <t>apucchi</t>
+  </si>
+  <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
     <t>santi 3</t>
   </si>
   <si>
-    <t>āmantesi</t>
-  </si>
-  <si>
-    <t>ahosi</t>
-  </si>
-  <si>
-    <t>pāturahosi</t>
-  </si>
-  <si>
-    <t>hotha</t>
-  </si>
-  <si>
-    <t>hotu 1</t>
-  </si>
-  <si>
-    <t>hoti 1</t>
-  </si>
-  <si>
-    <t>paccassosi</t>
-  </si>
-  <si>
-    <t>apucchi</t>
-  </si>
-  <si>
-    <t>udapādi 1</t>
-  </si>
-  <si>
-    <t>abhinandi 1</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>sammodi</t>
-  </si>
-  <si>
     <t>muni 1</t>
   </si>
   <si>
@@ -673,9 +676,6 @@
     <t>byākāsi 1</t>
   </si>
   <si>
-    <t>abhāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -733,9 +733,18 @@
     <t>maṃ 1</t>
   </si>
   <si>
+    <t>assasissati</t>
+  </si>
+  <si>
     <t>sobhati 2</t>
   </si>
   <si>
+    <t>passasissati</t>
+  </si>
+  <si>
+    <t>dhāressati</t>
+  </si>
+  <si>
     <t>neti 1.1</t>
   </si>
   <si>
@@ -754,24 +763,15 @@
     <t>mā 1</t>
   </si>
   <si>
+    <t>bhavissati 1</t>
+  </si>
+  <si>
+    <t>gamissati</t>
+  </si>
+  <si>
     <t>byākarissati</t>
   </si>
   <si>
-    <t>assasissati</t>
-  </si>
-  <si>
-    <t>bhavissati 1</t>
-  </si>
-  <si>
-    <t>gamissati</t>
-  </si>
-  <si>
-    <t>passasissati</t>
-  </si>
-  <si>
-    <t>dhāressati</t>
-  </si>
-  <si>
     <t>dassati 1.1</t>
   </si>
   <si>
@@ -832,6 +832,9 @@
     <t>pakkhī</t>
   </si>
   <si>
+    <t>adj</t>
+  </si>
+  <si>
     <t>masc</t>
   </si>
   <si>
@@ -844,16 +847,19 @@
     <t>aor</t>
   </si>
   <si>
+    <t>fem</t>
+  </si>
+  <si>
     <t>pron</t>
   </si>
   <si>
+    <t>fut</t>
+  </si>
+  <si>
     <t>ind</t>
   </si>
   <si>
-    <t>fut</t>
-  </si>
-  <si>
-    <t>adj</t>
+    <t>breaking; splitting; tearing</t>
   </si>
   <si>
     <t>discipline; training; lit. leading out</t>
@@ -1009,9 +1015,6 @@
     <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
   </si>
   <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
     <t>arahant; enlightened being; saint; paragon</t>
   </si>
   <si>
@@ -1021,210 +1024,210 @@
     <t>being; becoming; existence</t>
   </si>
   <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
+  </si>
+  <si>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
     <t>fool; idiot; immature person</t>
   </si>
   <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
     <t>name of the people of Malla; Mallans; lit. wrestlers</t>
   </si>
   <si>
@@ -1411,51 +1414,54 @@
     <t>you (all) must be; may you (all) be</t>
   </si>
   <si>
+    <t>addressed; said (to); advised</t>
+  </si>
+  <si>
+    <t>was; existed; became</t>
+  </si>
+  <si>
+    <t>appeared; manifested; lit. was visible</t>
+  </si>
+  <si>
+    <t>may you all be!; I pray you all may be!</t>
+  </si>
+  <si>
+    <t>may it be (for)!</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>replied (to); agreed (with)</t>
+  </si>
+  <si>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
+  </si>
+  <si>
+    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
+  </si>
+  <si>
+    <t>asked; enquired</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
     <t>virtuous woman; good woman</t>
   </si>
   <si>
-    <t>addressed; said (to); advised</t>
-  </si>
-  <si>
-    <t>was; existed; became</t>
-  </si>
-  <si>
-    <t>appeared; manifested; lit. was visible</t>
-  </si>
-  <si>
-    <t>may you all be!; I pray you all may be!</t>
-  </si>
-  <si>
-    <t>may it be (for)!</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>replied (to); agreed (with)</t>
-  </si>
-  <si>
-    <t>asked; enquired</t>
-  </si>
-  <si>
-    <t>arose (for); sprung up (for)</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
-  </si>
-  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
@@ -1498,9 +1504,6 @@
     <t>answered; replied; lit. made distinct</t>
   </si>
   <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -1558,9 +1561,18 @@
     <t>me (object)</t>
   </si>
   <si>
+    <t>will breathe; will inhale</t>
+  </si>
+  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
+    <t>will exhale; will breathe out</t>
+  </si>
+  <si>
+    <t>will bear in mind; will keep in mind; will remembers; lit. will hold</t>
+  </si>
+  <si>
     <t>leads; carries away; takes away</t>
   </si>
   <si>
@@ -1579,24 +1591,15 @@
     <t>do not; may one not; don’t let</t>
   </si>
   <si>
+    <t>could be; should be; lit. will be</t>
+  </si>
+  <si>
+    <t>will go</t>
+  </si>
+  <si>
     <t>will explain; will define; will describes</t>
   </si>
   <si>
-    <t>will breathe; will inhale</t>
-  </si>
-  <si>
-    <t>could be; should be; lit. will be</t>
-  </si>
-  <si>
-    <t>will go</t>
-  </si>
-  <si>
-    <t>will exhale; will breathe out</t>
-  </si>
-  <si>
-    <t>will bear in mind; will keep in mind; will remembers; lit. will hold</t>
-  </si>
-  <si>
     <t>will give (to)</t>
   </si>
   <si>
@@ -1657,9 +1660,15 @@
     <t>bird; lit. with wings</t>
   </si>
   <si>
+    <t>a-adj</t>
+  </si>
+  <si>
     <t>a-masc</t>
   </si>
   <si>
+    <t>a-masc-east</t>
+  </si>
+  <si>
     <t>a-masc-pl</t>
   </si>
   <si>
@@ -1688,6 +1697,12 @@
   </si>
   <si>
     <t>i-aor</t>
+  </si>
+  <si>
+    <t>i-aor-isuṃ</t>
+  </si>
+  <si>
+    <t>i-fem</t>
   </si>
   <si>
     <t>i-masc</t>
@@ -2121,13 +2136,13 @@
         <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E2" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2135,16 +2150,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D3" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E3" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2152,16 +2167,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E4" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2169,16 +2184,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D5" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E5" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2186,16 +2201,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D6" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E6" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2203,16 +2218,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2220,16 +2235,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D8" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E8" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2237,16 +2252,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D9" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E9" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2254,16 +2269,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D10" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E10" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2271,16 +2286,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D11" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E11" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2288,16 +2303,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D12" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E12" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2305,16 +2320,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D13" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E13" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2322,16 +2337,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D14" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E14" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2339,16 +2354,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D15" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E15" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2356,16 +2371,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D16" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E16" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2373,16 +2388,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D17" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E17" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2390,16 +2405,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D18" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E18" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2407,16 +2422,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D19" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E19" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2424,16 +2439,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D20" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E20" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2441,16 +2456,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D21" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E21" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2458,16 +2473,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D22" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E22" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2475,16 +2490,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D23" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E23" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2492,16 +2507,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D24" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E24" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2509,16 +2524,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D25" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E25" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2526,16 +2541,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D26" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E26" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2543,16 +2558,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D27" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E27" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2560,16 +2575,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C28" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D28" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E28" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2577,16 +2592,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C29" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D29" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E29" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2594,16 +2609,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D30" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E30" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2611,16 +2626,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D31" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E31" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2628,16 +2643,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C32" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D32" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E32" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2645,16 +2660,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C33" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D33" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E33" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2662,16 +2677,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C34" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D34" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E34" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2679,16 +2694,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C35" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D35" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E35" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2696,16 +2711,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C36" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D36" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E36" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2713,16 +2728,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C37" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D37" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E37" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2730,16 +2745,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C38" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D38" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E38" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2747,16 +2762,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C39" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D39" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E39" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2764,16 +2779,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C40" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D40" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E40" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2781,16 +2796,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D41" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E41" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2798,16 +2813,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D42" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E42" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2815,16 +2830,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C43" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D43" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E43" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2832,16 +2847,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C44" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D44" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E44" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2849,16 +2864,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C45" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D45" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E45" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2866,16 +2881,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C46" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D46" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E46" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2883,16 +2898,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C47" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D47" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E47" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2900,16 +2915,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C48" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D48" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E48" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2917,16 +2932,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D49" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E49" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2934,16 +2949,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C50" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D50" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E50" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2951,16 +2966,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C51" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D51" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E51" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2968,16 +2983,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C52" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D52" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E52" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2985,16 +3000,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C53" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D53" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E53" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3002,16 +3017,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C54" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D54" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E54" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3019,16 +3034,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C55" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D55" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E55" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3036,16 +3051,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D56" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E56" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3053,16 +3068,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C57" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D57" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E57" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3070,16 +3085,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C58" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D58" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E58" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3087,16 +3102,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C59" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D59" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E59" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3104,16 +3119,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C60" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D60" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E60" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3121,16 +3136,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C61" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D61" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E61" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3138,16 +3153,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C62" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D62" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E62" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3155,16 +3170,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C63" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D63" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E63" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3172,16 +3187,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C64" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D64" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E64" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3189,16 +3204,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C65" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D65" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E65" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3206,16 +3221,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C66" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D66" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E66" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3223,16 +3238,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C67" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D67" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E67" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3240,16 +3255,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C68" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D68" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E68" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3257,16 +3272,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C69" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D69" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E69" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3274,16 +3289,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C70" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D70" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E70" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3291,16 +3306,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C71" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D71" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E71" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3308,16 +3323,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C72" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D72" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E72" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3325,16 +3340,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C73" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D73" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E73" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3342,16 +3357,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C74" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D74" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E74" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3359,16 +3374,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C75" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D75" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E75" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3376,16 +3391,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C76" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D76" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E76" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3393,16 +3408,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C77" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D77" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E77" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3410,16 +3425,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C78" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D78" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E78" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3427,16 +3442,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C79" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D79" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E79" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3444,16 +3459,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C80" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D80" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E80" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3461,16 +3476,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C81" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D81" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E81" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3478,16 +3493,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C82" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D82" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E82" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3495,16 +3510,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C83" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D83" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E83" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3512,16 +3527,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C84" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D84" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E84" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3529,16 +3544,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C85" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D85" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E85" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3546,16 +3561,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C86" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D86" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E86" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3563,16 +3578,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C87" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D87" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E87" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3580,16 +3595,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C88" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D88" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E88" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3597,16 +3612,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C89" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D89" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E89" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3614,16 +3629,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C90" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D90" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E90" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3631,16 +3646,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C91" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D91" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E91" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3648,16 +3663,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C92" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D92" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E92" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3665,16 +3680,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C93" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D93" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E93" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3682,16 +3697,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C94" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D94" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E94" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3699,16 +3714,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C95" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D95" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E95" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3716,16 +3731,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C96" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D96" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E96" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3733,16 +3748,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C97" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D97" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E97" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3750,16 +3765,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C98" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D98" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E98" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3767,16 +3782,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C99" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D99" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E99" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3784,16 +3799,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C100" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D100" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E100" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3801,16 +3816,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C101" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D101" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E101" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3818,16 +3833,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C102" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D102" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E102" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3835,16 +3850,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C103" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D103" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E103" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3852,16 +3867,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C104" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D104" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E104" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3869,16 +3884,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C105" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D105" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E105" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3886,16 +3901,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C106" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D106" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E106" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3903,16 +3918,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C107" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D107" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E107" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3920,16 +3935,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C108" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D108" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E108" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3937,16 +3952,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C109" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D109" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E109" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3954,16 +3969,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C110" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D110" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E110" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3971,16 +3986,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C111" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D111" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E111" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3988,16 +4003,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C112" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D112" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E112" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4005,16 +4020,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C113" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D113" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E113" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4022,16 +4037,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C114" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D114" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E114" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4039,16 +4054,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C115" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D115" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E115" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4056,16 +4071,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C116" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D116" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E116" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4073,16 +4088,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C117" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D117" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E117" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4090,16 +4105,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C118" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D118" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E118" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4107,16 +4122,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C119" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D119" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E119" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4124,16 +4139,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C120" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D120" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E120" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4141,16 +4156,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C121" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D121" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E121" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4158,16 +4173,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C122" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D122" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E122" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4175,16 +4190,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C123" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D123" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E123" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4192,16 +4207,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C124" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D124" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="E124" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4209,16 +4224,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C125" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D125" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="E125" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4226,16 +4241,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C126" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D126" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="E126" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4243,16 +4258,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C127" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D127" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E127" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4260,16 +4275,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C128" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D128" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E128" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4277,16 +4292,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C129" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D129" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E129" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4294,16 +4309,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C130" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D130" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E130" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4311,16 +4326,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C131" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D131" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E131" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4328,16 +4343,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C132" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D132" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E132" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4345,16 +4360,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C133" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D133" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E133" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4362,16 +4377,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C134" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D134" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E134" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4379,16 +4394,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C135" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D135" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E135" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4396,16 +4411,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C136" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D136" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E136" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4413,16 +4428,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C137" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D137" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E137" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4430,16 +4445,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C138" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D138" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E138" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4447,16 +4462,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C139" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D139" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E139" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4464,16 +4479,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C140" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D140" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E140" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4481,16 +4496,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C141" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D141" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E141" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4498,16 +4513,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C142" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D142" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E142" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4515,16 +4530,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C143" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D143" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E143" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4532,16 +4547,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C144" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D144" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E144" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4549,16 +4564,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C145" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D145" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E145" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4566,16 +4581,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C146" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D146" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E146" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4583,16 +4598,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C147" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D147" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E147" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4600,16 +4615,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C148" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D148" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E148" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4617,16 +4632,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C149" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D149" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E149" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4634,16 +4649,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C150" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D150" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E150" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4651,16 +4666,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C151" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D151" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E151" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4668,16 +4683,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C152" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D152" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E152" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4685,16 +4700,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C153" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D153" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E153" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4702,16 +4717,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C154" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D154" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E154" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4719,16 +4734,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C155" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D155" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E155" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4736,16 +4751,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C156" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D156" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E156" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4753,16 +4768,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C157" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D157" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E157" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4770,16 +4785,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C158" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D158" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E158" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4787,16 +4802,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C159" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D159" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E159" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4804,16 +4819,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C160" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D160" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E160" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4821,16 +4836,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C161" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D161" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E161" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4838,16 +4853,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C162" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D162" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="E162" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4855,16 +4870,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C163" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D163" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E163" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4872,16 +4887,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C164" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D164" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E164" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4889,16 +4904,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C165" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D165" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E165" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4906,16 +4921,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C166" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D166" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E166" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4923,16 +4938,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C167" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D167" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E167" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4940,16 +4955,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C168" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D168" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E168" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4957,16 +4972,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C169" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D169" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E169" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4974,16 +4989,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C170" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D170" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E170" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4991,16 +5006,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C171" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D171" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E171" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5008,16 +5023,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C172" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D172" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E172" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5025,16 +5040,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C173" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D173" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E173" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5042,16 +5057,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C174" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D174" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E174" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5059,16 +5074,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C175" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D175" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E175" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5076,16 +5091,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C176" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D176" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E176" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5093,16 +5108,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C177" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D177" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E177" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5110,16 +5125,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C178" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D178" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E178" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5127,16 +5142,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C179" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D179" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E179" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5144,16 +5159,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C180" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D180" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E180" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5161,16 +5176,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C181" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D181" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E181" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5178,16 +5193,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C182" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D182" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E182" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5195,16 +5210,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C183" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D183" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E183" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5212,16 +5227,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C184" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D184" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E184" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5229,16 +5244,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C185" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D185" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E185" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5246,16 +5261,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C186" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D186" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E186" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5263,16 +5278,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C187" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D187" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E187" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5280,16 +5295,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C188" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D188" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E188" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5297,16 +5312,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C189" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D189" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E189" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5317,13 +5332,13 @@
         <v>275</v>
       </c>
       <c r="C190" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D190" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E190" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5331,16 +5346,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C191" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D191" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E191" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5351,13 +5366,13 @@
         <v>274</v>
       </c>
       <c r="C192" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D192" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E192" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5365,16 +5380,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C193" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D193" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E193" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5382,16 +5397,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C194" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D194" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E194" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5399,16 +5414,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C195" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D195" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E195" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5416,16 +5431,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C196" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D196" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E196" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5433,16 +5448,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C197" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D197" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E197" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5450,16 +5465,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C198" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D198" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E198" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5467,16 +5482,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C199" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D199" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E199" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5484,16 +5499,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C200" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D200" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="E200" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5501,16 +5516,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C201" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D201" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="E201" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5518,16 +5533,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C202" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D202" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E202" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5535,16 +5550,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C203" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D203" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="E203" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5552,16 +5567,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C204" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D204" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="E204" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5569,16 +5584,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C205" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D205" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="E205" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5586,16 +5601,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C206" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D206" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="E206" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5603,16 +5618,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C207" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D207" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="E207" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5620,16 +5635,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C208" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D208" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="E208" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5637,16 +5652,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C209" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D209" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="E209" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5654,16 +5669,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C210" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D210" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="E210" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5674,13 +5689,13 @@
         <v>273</v>
       </c>
       <c r="C211" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D211" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="E211" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5691,13 +5706,13 @@
         <v>274</v>
       </c>
       <c r="C212" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D212" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="E212" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5705,16 +5720,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C213" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D213" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="E213" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5722,16 +5737,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C214" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D214" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="E214" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5739,16 +5754,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C215" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D215" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="E215" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5756,16 +5771,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C216" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D216" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="E216" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5773,16 +5788,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C217" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D217" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="E217" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5790,16 +5805,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C218" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D218" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="E218" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5807,16 +5822,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C219" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D219" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E219" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5824,16 +5839,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C220" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D220" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E220" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5841,16 +5856,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C221" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D221" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E221" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5858,16 +5873,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C222" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D222" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E222" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5875,16 +5890,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C223" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D223" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E223" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5892,16 +5907,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C224" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D224" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E224" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5909,16 +5924,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C225" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D225" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="E225" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5926,16 +5941,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C226" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D226" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="E226" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5943,16 +5958,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C227" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D227" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="E227" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5960,16 +5975,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C228" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D228" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="E228" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5977,16 +5992,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C229" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D229" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="E229" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5994,16 +6009,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C230" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D230" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="E230" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6011,16 +6026,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C231" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D231" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="E231" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6028,16 +6043,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C232" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D232" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="E232" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6045,16 +6060,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C233" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D233" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="E233" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6062,16 +6077,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C234" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D234" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="E234" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6079,16 +6094,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C235" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D235" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="E235" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6096,16 +6111,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C236" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D236" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E236" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6113,16 +6128,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C237" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D237" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E237" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6130,16 +6145,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C238" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D238" t="s">
-        <v>277</v>
+        <v>552</v>
       </c>
       <c r="E238" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6147,16 +6162,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C239" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D239" t="s">
-        <v>277</v>
+        <v>553</v>
       </c>
       <c r="E239" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6164,16 +6179,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C240" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D240" t="s">
-        <v>277</v>
+        <v>553</v>
       </c>
       <c r="E240" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6181,16 +6196,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C241" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D241" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E241" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6198,16 +6213,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C242" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D242" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E242" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6215,16 +6230,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C243" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D243" t="s">
-        <v>564</v>
+        <v>280</v>
       </c>
       <c r="E243" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6232,16 +6247,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C244" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D244" t="s">
-        <v>564</v>
+        <v>280</v>
       </c>
       <c r="E244" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6249,16 +6264,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C245" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D245" t="s">
-        <v>564</v>
+        <v>280</v>
       </c>
       <c r="E245" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6266,16 +6281,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C246" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D246" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="E246" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6283,16 +6298,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C247" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D247" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="E247" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6300,16 +6315,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C248" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D248" t="s">
         <v>565</v>
       </c>
       <c r="E248" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6317,16 +6332,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C249" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D249" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="E249" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6334,16 +6349,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C250" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D250" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="E250" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6351,16 +6366,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C251" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D251" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="E251" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6368,16 +6383,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C252" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D252" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="E252" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6385,16 +6400,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C253" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D253" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="E253" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6402,16 +6417,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C254" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D254" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="E254" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6419,16 +6434,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C255" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D255" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="E255" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6436,16 +6451,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C256" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D256" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="E256" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6453,16 +6468,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C257" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D257" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="E257" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6470,16 +6485,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C258" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D258" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E258" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6487,16 +6502,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C259" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D259" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="E259" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6504,16 +6519,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C260" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D260" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="E260" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6521,16 +6536,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C261" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D261" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="E261" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6538,16 +6553,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C262" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D262" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="E262" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6555,16 +6570,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C263" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D263" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="E263" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6572,16 +6587,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C264" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D264" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="E264" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6589,16 +6604,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C265" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D265" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="E265" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6606,16 +6621,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C266" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D266" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="E266" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6623,16 +6638,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C267" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D267" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="E267" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6640,16 +6655,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C268" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D268" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="E268" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="577">
   <si>
     <t>pali_1</t>
   </si>
@@ -31,15 +31,24 @@
     <t>sbs_class</t>
   </si>
   <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
     <t>vinaya 1</t>
   </si>
   <si>
     <t>cora</t>
   </si>
   <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
     <t>manussa</t>
   </si>
   <si>
@@ -49,354 +58,345 @@
     <t>saṅghādisesa 2</t>
   </si>
   <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
     <t>vasa 1.2</t>
   </si>
   <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
     <t>brāhmaṇa 1</t>
   </si>
   <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
   </si>
   <si>
     <t>āvāsa 1</t>
   </si>
   <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>putta 1</t>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
   </si>
   <si>
     <t>māsa 2.1</t>
   </si>
   <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
     <t>saṃvara 1</t>
   </si>
   <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
     <t>bāla 2</t>
   </si>
   <si>
@@ -409,183 +409,183 @@
     <t>punabbhava</t>
   </si>
   <si>
+    <t>vibhaṅga 1</t>
+  </si>
+  <si>
     <t>pātimokkha 2</t>
   </si>
   <si>
-    <t>vibhaṅga 1</t>
-  </si>
-  <si>
     <t>pajahati</t>
   </si>
   <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
     <t>abhivaḍḍhati</t>
   </si>
   <si>
-    <t>vadati 1</t>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
   </si>
   <si>
     <t>uddisati 1</t>
   </si>
   <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>rakkhati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
   </si>
   <si>
     <t>paṭisevati 2</t>
   </si>
   <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
     <t>passa 2.1</t>
   </si>
   <si>
+    <t>paṭisaṃvedeti</t>
+  </si>
+  <si>
     <t>ceteti 2</t>
   </si>
   <si>
-    <t>paṭisaṃvedeti</t>
+    <t>deti 1</t>
   </si>
   <si>
     <t>vedeti 1</t>
   </si>
   <si>
-    <t>deti 1</t>
-  </si>
-  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
     <t>ehi</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
     <t>suṇāti 1</t>
   </si>
   <si>
     <t>suṇātu</t>
   </si>
   <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>paṭibhāti</t>
   </si>
   <si>
     <t>paṭijānāti 3</t>
   </si>
   <si>
+    <t>paṭiggaṇhāti 1</t>
+  </si>
+  <si>
     <t>ājānāti 1</t>
   </si>
   <si>
     <t>paggaṇhāti 2</t>
   </si>
   <si>
-    <t>paṭiggaṇhāti 1</t>
+    <t>kassaka</t>
   </si>
   <si>
     <t>vāṇija</t>
   </si>
   <si>
-    <t>kassaka</t>
-  </si>
-  <si>
     <t>paṭipajjati 2</t>
   </si>
   <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>āpajjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
     <t>upapajjati 1</t>
   </si>
   <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>anuyuñjati 2</t>
   </si>
   <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 2</t>
-  </si>
-  <si>
     <t>atthi 1</t>
   </si>
   <si>
+    <t>amha 1.1</t>
+  </si>
+  <si>
+    <t>asi 2.1</t>
+  </si>
+  <si>
+    <t>attha 4.2</t>
+  </si>
+  <si>
     <t>amhi</t>
   </si>
   <si>
-    <t>amha 1.1</t>
-  </si>
-  <si>
-    <t>asi 2.1</t>
-  </si>
-  <si>
-    <t>attha 4.2</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -595,36 +595,36 @@
     <t>pāturahosi</t>
   </si>
   <si>
+    <t>hoti 1</t>
+  </si>
+  <si>
+    <t>hotu 1</t>
+  </si>
+  <si>
     <t>hotha</t>
   </si>
   <si>
-    <t>hotu 1</t>
-  </si>
-  <si>
-    <t>hoti 1</t>
+    <t>sammodi</t>
+  </si>
+  <si>
+    <t>udapādi 1</t>
+  </si>
+  <si>
+    <t>abhinandi 1</t>
+  </si>
+  <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
+    <t>abhāsi 1</t>
   </si>
   <si>
     <t>paccassosi</t>
   </si>
   <si>
-    <t>udapādi 1</t>
-  </si>
-  <si>
-    <t>abhinandi 1</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>abhāsi 1</t>
-  </si>
-  <si>
-    <t>sammodi</t>
-  </si>
-  <si>
     <t>apucchi</t>
   </si>
   <si>
@@ -634,30 +634,30 @@
     <t>santi 3</t>
   </si>
   <si>
+    <t>samādhi 1</t>
+  </si>
+  <si>
+    <t>gahapati</t>
+  </si>
+  <si>
+    <t>sāli</t>
+  </si>
+  <si>
     <t>muni 1</t>
   </si>
   <si>
-    <t>sāli</t>
-  </si>
-  <si>
     <t>aggi</t>
   </si>
   <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>gāmaṇi</t>
+  </si>
+  <si>
     <t>ñāti</t>
   </si>
   <si>
-    <t>gahapati</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>samādhi 1</t>
-  </si>
-  <si>
-    <t>gāmaṇi</t>
-  </si>
-  <si>
     <t>byādhi</t>
   </si>
   <si>
@@ -682,70 +682,79 @@
     <t>āsi 1.1</t>
   </si>
   <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>taca 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
+    <t>ājīva</t>
+  </si>
+  <si>
+    <t>abhisamaya</t>
+  </si>
+  <si>
     <t>mada 1</t>
   </si>
   <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
-    <t>ājīva</t>
-  </si>
-  <si>
-    <t>taca 1</t>
-  </si>
-  <si>
-    <t>abhisamaya</t>
-  </si>
-  <si>
     <t>mama 2</t>
   </si>
   <si>
+    <t>me 5</t>
+  </si>
+  <si>
+    <t>no 2.1</t>
+  </si>
+  <si>
+    <t>ahaṃ</t>
+  </si>
+  <si>
+    <t>no 2.3</t>
+  </si>
+  <si>
+    <t>me 3</t>
+  </si>
+  <si>
+    <t>mayaṃ</t>
+  </si>
+  <si>
+    <t>no 2.4</t>
+  </si>
+  <si>
+    <t>maṃ 1</t>
+  </si>
+  <si>
     <t>mayā 1</t>
   </si>
   <si>
-    <t>no 2.1</t>
-  </si>
-  <si>
-    <t>no 2.3</t>
-  </si>
-  <si>
-    <t>me 3</t>
-  </si>
-  <si>
-    <t>mayaṃ</t>
-  </si>
-  <si>
-    <t>me 5</t>
-  </si>
-  <si>
-    <t>no 2.4</t>
-  </si>
-  <si>
     <t>amhākaṃ 3</t>
   </si>
   <si>
-    <t>ahaṃ</t>
-  </si>
-  <si>
-    <t>maṃ 1</t>
+    <t>sobhati 2</t>
   </si>
   <si>
     <t>assasissati</t>
   </si>
   <si>
-    <t>sobhati 2</t>
-  </si>
-  <si>
     <t>passasissati</t>
   </si>
   <si>
+    <t>neti 1.1</t>
+  </si>
+  <si>
     <t>dhāressati</t>
   </si>
   <si>
-    <t>neti 1.1</t>
+    <t>no 1.1</t>
+  </si>
+  <si>
+    <t>saha 2</t>
+  </si>
+  <si>
+    <t>mā 1</t>
   </si>
   <si>
     <t>na 1</t>
@@ -754,15 +763,6 @@
     <t>saddhiṃ</t>
   </si>
   <si>
-    <t>saha 2</t>
-  </si>
-  <si>
-    <t>no 1.1</t>
-  </si>
-  <si>
-    <t>mā 1</t>
-  </si>
-  <si>
     <t>bhavissati 1</t>
   </si>
   <si>
@@ -775,30 +775,30 @@
     <t>dassati 1.1</t>
   </si>
   <si>
+    <t>tayā 1</t>
+  </si>
+  <si>
+    <t>vo 1.4</t>
+  </si>
+  <si>
+    <t>te 2.4</t>
+  </si>
+  <si>
     <t>vo 1.3</t>
   </si>
   <si>
     <t>vo 1.2</t>
   </si>
   <si>
+    <t>tuvaṃ 1</t>
+  </si>
+  <si>
     <t>tumhākaṃ 3</t>
   </si>
   <si>
-    <t>tayā 1</t>
-  </si>
-  <si>
     <t>tumhe 2</t>
   </si>
   <si>
-    <t>vo 1.4</t>
-  </si>
-  <si>
-    <t>tuvaṃ 1</t>
-  </si>
-  <si>
-    <t>te 2.4</t>
-  </si>
-  <si>
     <t>nābhijānāti 1</t>
   </si>
   <si>
@@ -808,66 +808,75 @@
     <t>vādī 1</t>
   </si>
   <si>
+    <t>anupassī 1</t>
+  </si>
+  <si>
+    <t>gavesī 1</t>
+  </si>
+  <si>
+    <t>anāgāmī</t>
+  </si>
+  <si>
+    <t>bhogī 1.1</t>
+  </si>
+  <si>
+    <t>sakadāgāmī</t>
+  </si>
+  <si>
     <t>vippaṭisārī</t>
   </si>
   <si>
-    <t>bhogī 1.1</t>
-  </si>
-  <si>
-    <t>anupassī 1</t>
-  </si>
-  <si>
-    <t>gavesī 1</t>
-  </si>
-  <si>
-    <t>anāgāmī</t>
-  </si>
-  <si>
-    <t>sakadāgāmī</t>
-  </si>
-  <si>
     <t>sabrahmacārī</t>
   </si>
   <si>
     <t>pakkhī</t>
   </si>
   <si>
+    <t>masc</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>imp</t>
+  </si>
+  <si>
+    <t>aor</t>
+  </si>
+  <si>
+    <t>fem</t>
+  </si>
+  <si>
+    <t>pron</t>
+  </si>
+  <si>
+    <t>fut</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
     <t>adj</t>
   </si>
   <si>
-    <t>masc</t>
-  </si>
-  <si>
-    <t>pr</t>
-  </si>
-  <si>
-    <t>imp</t>
-  </si>
-  <si>
-    <t>aor</t>
-  </si>
-  <si>
-    <t>fem</t>
-  </si>
-  <si>
-    <t>pron</t>
-  </si>
-  <si>
-    <t>fut</t>
-  </si>
-  <si>
-    <t>ind</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
     <t>thief; robber</t>
   </si>
   <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
     <t>human being; man; person</t>
   </si>
   <si>
@@ -877,354 +886,345 @@
     <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
     <t>control (over); authority (over); power (over); mastery (over)</t>
   </si>
   <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
     <t>Brahman; priest; man of the Brahman caste</t>
   </si>
   <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
   </si>
   <si>
     <t>home (of); dwelling place (of); residence (of)</t>
   </si>
   <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>son; child</t>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
     <t>bean</t>
   </si>
   <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
     <t>control (according to); restraint (according to); holding back (according to)</t>
   </si>
   <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
     <t>fool; idiot; immature person</t>
   </si>
   <si>
@@ -1237,183 +1237,183 @@
     <t>appearing again; renewed existence; rebirth; future life</t>
   </si>
   <si>
+    <t>analysis; classification; breakdown; lit. division</t>
+  </si>
+  <si>
     <t>(vinaya) precepts for Buddhist monastics</t>
   </si>
   <si>
-    <t>analysis; classification; breakdown; lit. division</t>
-  </si>
-  <si>
     <t>gives up; abandons; lets go (of)</t>
   </si>
   <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
     <t>increases more and more; surpasses; outgrows</t>
   </si>
   <si>
-    <t>says (to); speaks (to); tells (to)</t>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>sees</t>
   </si>
   <si>
     <t>recites; chants; lit. points up</t>
   </si>
   <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
   </si>
   <si>
     <t>uses; makes use (of); lit. associates</t>
   </si>
   <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
+    <t>personally experiences; undergoes; feels</t>
+  </si>
+  <si>
     <t>intends; will (to)</t>
   </si>
   <si>
-    <t>personally experiences; undergoes; feels</t>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
   </si>
   <si>
     <t>feels; experiences; senses; notices</t>
   </si>
   <si>
-    <t>gives (to); donates (to); offers (to); hands (to)</t>
-  </si>
-  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
     <t>come!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
     <t>hears</t>
   </si>
   <si>
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
     <t>comes to mind; occurs (to)</t>
   </si>
   <si>
     <t>makes the claim (of); claims (to be)</t>
   </si>
   <si>
+    <t>takes; accepts; receives</t>
+  </si>
+  <si>
     <t>knows; understands</t>
   </si>
   <si>
     <t>holds up; raises up</t>
   </si>
   <si>
-    <t>takes; accepts; receives</t>
+    <t>farmer; ploughman</t>
   </si>
   <si>
     <t>trader; dealer</t>
   </si>
   <si>
-    <t>farmer; ploughman</t>
-  </si>
-  <si>
     <t>practices; follows a course of action; follows a method</t>
   </si>
   <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>arouses; exhibits; produces; brings into being</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
     <t>is reborn (in); re-arises (in); lit. goes towards</t>
   </si>
   <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>indulges (in); is addicted (to); lit. yokes near</t>
   </si>
   <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
-    <t>arouses; exhibits; produces; brings into being</t>
-  </si>
-  <si>
     <t>there is; there exists</t>
   </si>
   <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
+    <t>you (all) must be; may you (all) be</t>
+  </si>
+  <si>
     <t>I am</t>
   </si>
   <si>
-    <t>we are</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
-    <t>you (all) must be; may you (all) be</t>
-  </si>
-  <si>
     <t>addressed; said (to); advised</t>
   </si>
   <si>
@@ -1423,36 +1423,36 @@
     <t>appeared; manifested; lit. was visible</t>
   </si>
   <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>may it be (for)!</t>
+  </si>
+  <si>
     <t>may you all be!; I pray you all may be!</t>
   </si>
   <si>
-    <t>may it be (for)!</t>
-  </si>
-  <si>
-    <t>is</t>
+    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
+  </si>
+  <si>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
   </si>
   <si>
     <t>replied (to); agreed (with)</t>
   </si>
   <si>
-    <t>arose (for); sprung up (for)</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
-    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
-  </si>
-  <si>
     <t>asked; enquired</t>
   </si>
   <si>
@@ -1462,30 +1462,30 @@
     <t>virtuous woman; good woman</t>
   </si>
   <si>
+    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure</t>
+  </si>
+  <si>
+    <t>householder; landowner; lit. house master</t>
+  </si>
+  <si>
+    <t>fine rice</t>
+  </si>
+  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
-    <t>fine rice</t>
-  </si>
-  <si>
     <t>fire</t>
   </si>
   <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
+  </si>
+  <si>
     <t>family; relative; kinsman; lit. known</t>
   </si>
   <si>
-    <t>householder; landowner; lit. house master</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
     <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
@@ -1510,70 +1510,79 @@
     <t>was</t>
   </si>
   <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>false teaching; something opposed to the teaching</t>
+  </si>
+  <si>
+    <t>livelihood; mode of living; way of life; way of earning a living</t>
+  </si>
+  <si>
+    <t>complete comprehension (of); total understanding (of); completely getting (of); breakthrough (to); lit. arriving</t>
+  </si>
+  <si>
     <t>excess; pleasure; indulgence</t>
   </si>
   <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; something opposed to the teaching</t>
-  </si>
-  <si>
-    <t>livelihood; mode of living; way of life; way of earning a living</t>
-  </si>
-  <si>
-    <t>skin</t>
-  </si>
-  <si>
-    <t>complete comprehension (of); total understanding (of); completely getting (of); breakthrough (to); lit. arriving</t>
-  </si>
-  <si>
     <t>my; mine; of me</t>
   </si>
   <si>
+    <t>my; mine</t>
+  </si>
+  <si>
+    <t>us (object)</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>for us; to us</t>
+  </si>
+  <si>
+    <t>to me; for me</t>
+  </si>
+  <si>
+    <t>we; I (royal plural)</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>me (object)</t>
+  </si>
+  <si>
     <t>by me; with me</t>
   </si>
   <si>
-    <t>us (object)</t>
-  </si>
-  <si>
-    <t>for us; to us</t>
-  </si>
-  <si>
-    <t>to me; for me</t>
-  </si>
-  <si>
-    <t>we; I (royal plural)</t>
-  </si>
-  <si>
-    <t>my; mine</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
     <t>our; of us; my (royal plural)</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>me (object)</t>
+    <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
     <t>will breathe; will inhale</t>
   </si>
   <si>
-    <t>looks beautiful (in); lit. shines</t>
-  </si>
-  <si>
     <t>will exhale; will breathe out</t>
   </si>
   <si>
+    <t>leads; carries away; takes away</t>
+  </si>
+  <si>
     <t>will bear in mind; will keep in mind; will remembers; lit. will hold</t>
   </si>
   <si>
-    <t>leads; carries away; takes away</t>
+    <t>no; not</t>
+  </si>
+  <si>
+    <t>with; together (with); accompanied (by)</t>
+  </si>
+  <si>
+    <t>do not; may one not; don’t let</t>
   </si>
   <si>
     <t>no; not; neither; nor</t>
@@ -1582,15 +1591,6 @@
     <t>together (with); with</t>
   </si>
   <si>
-    <t>with; together (with); accompanied (by)</t>
-  </si>
-  <si>
-    <t>no; not</t>
-  </si>
-  <si>
-    <t>do not; may one not; don’t let</t>
-  </si>
-  <si>
     <t>could be; should be; lit. will be</t>
   </si>
   <si>
@@ -1603,30 +1603,30 @@
     <t>will give (to)</t>
   </si>
   <si>
+    <t>by you</t>
+  </si>
+  <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
+    <t>your; of you</t>
+  </si>
+  <si>
     <t>to you all; for you all</t>
   </si>
   <si>
     <t>by you all; with you all</t>
   </si>
   <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>of you all; yours</t>
   </si>
   <si>
-    <t>by you</t>
-  </si>
-  <si>
     <t>(object) you all; you (royal plural)</t>
   </si>
   <si>
-    <t>of you all; your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>your; of you</t>
-  </si>
-  <si>
     <t>does not know; does not understand; lit. does not completely know</t>
   </si>
   <si>
@@ -1636,31 +1636,28 @@
     <t>speaking; saying; telling</t>
   </si>
   <si>
+    <t>looking (at); observing; following; noticing; witnessing; watching</t>
+  </si>
+  <si>
+    <t>seeking; searching for; looking for</t>
+  </si>
+  <si>
+    <t>who does not return; non-returning</t>
+  </si>
+  <si>
+    <t>enjoying; using; experiencing; partaking in</t>
+  </si>
+  <si>
+    <t>once-returner; who has attained the second stage of the path</t>
+  </si>
+  <si>
     <t>remorseful; regretful; repentant; sorry; lit. remembering back negatively</t>
   </si>
   <si>
-    <t>enjoying; using; experiencing; partaking in</t>
-  </si>
-  <si>
-    <t>looking (at); observing; following; noticing; witnessing; watching</t>
-  </si>
-  <si>
-    <t>seeking; searching for; looking for</t>
-  </si>
-  <si>
-    <t>who does not return; non-returning</t>
-  </si>
-  <si>
-    <t>once-returner; who has attained the second stage of the path</t>
-  </si>
-  <si>
     <t>fellow monk; spiritual companion</t>
   </si>
   <si>
     <t>bird; lit. with wings</t>
-  </si>
-  <si>
-    <t>a-adj</t>
   </si>
   <si>
     <t>a-masc</t>
@@ -2142,7 +2139,7 @@
         <v>548</v>
       </c>
       <c r="E2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2150,16 +2147,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
         <v>282</v>
       </c>
       <c r="D3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2167,16 +2164,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
         <v>283</v>
       </c>
       <c r="D4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2184,16 +2181,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
         <v>284</v>
       </c>
       <c r="D5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2201,16 +2198,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
         <v>285</v>
       </c>
       <c r="D6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2218,16 +2215,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
         <v>286</v>
       </c>
       <c r="D7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2235,16 +2232,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C8" t="s">
         <v>287</v>
       </c>
       <c r="D8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2252,16 +2249,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
         <v>288</v>
       </c>
       <c r="D9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2269,16 +2266,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
         <v>289</v>
       </c>
       <c r="D10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2286,16 +2283,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
         <v>290</v>
       </c>
       <c r="D11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2303,16 +2300,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
         <v>291</v>
       </c>
       <c r="D12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2320,16 +2317,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
         <v>292</v>
       </c>
       <c r="D13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2337,16 +2334,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C14" t="s">
         <v>293</v>
       </c>
       <c r="D14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2354,16 +2351,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C15" t="s">
         <v>294</v>
       </c>
       <c r="D15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2371,16 +2368,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C16" t="s">
         <v>295</v>
       </c>
       <c r="D16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2388,16 +2385,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C17" t="s">
         <v>296</v>
       </c>
       <c r="D17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2405,16 +2402,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C18" t="s">
         <v>297</v>
       </c>
       <c r="D18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2422,16 +2419,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C19" t="s">
         <v>298</v>
       </c>
       <c r="D19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2439,16 +2436,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C20" t="s">
         <v>299</v>
       </c>
       <c r="D20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2456,16 +2453,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C21" t="s">
         <v>300</v>
       </c>
       <c r="D21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2473,16 +2470,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C22" t="s">
         <v>301</v>
       </c>
       <c r="D22" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2490,16 +2487,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C23" t="s">
         <v>302</v>
       </c>
       <c r="D23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2507,16 +2504,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C24" t="s">
         <v>303</v>
       </c>
       <c r="D24" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E24" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2524,16 +2521,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C25" t="s">
         <v>304</v>
       </c>
       <c r="D25" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E25" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2541,16 +2538,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C26" t="s">
         <v>305</v>
       </c>
       <c r="D26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2558,16 +2555,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C27" t="s">
         <v>306</v>
       </c>
       <c r="D27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E27" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2575,16 +2572,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C28" t="s">
         <v>307</v>
       </c>
       <c r="D28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E28" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2592,16 +2589,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C29" t="s">
         <v>308</v>
       </c>
       <c r="D29" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E29" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2609,16 +2606,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C30" t="s">
         <v>309</v>
       </c>
       <c r="D30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2626,16 +2623,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C31" t="s">
         <v>310</v>
       </c>
       <c r="D31" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E31" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2643,16 +2640,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C32" t="s">
         <v>311</v>
       </c>
       <c r="D32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E32" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2660,16 +2657,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C33" t="s">
         <v>312</v>
       </c>
       <c r="D33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2677,16 +2674,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C34" t="s">
         <v>313</v>
       </c>
       <c r="D34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E34" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2694,16 +2691,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C35" t="s">
         <v>314</v>
       </c>
       <c r="D35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E35" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2711,16 +2708,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C36" t="s">
         <v>315</v>
       </c>
       <c r="D36" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E36" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2728,16 +2725,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C37" t="s">
         <v>316</v>
       </c>
       <c r="D37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E37" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2745,16 +2742,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C38" t="s">
         <v>317</v>
       </c>
       <c r="D38" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E38" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2762,16 +2759,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C39" t="s">
         <v>318</v>
       </c>
       <c r="D39" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E39" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2779,16 +2776,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C40" t="s">
         <v>319</v>
       </c>
       <c r="D40" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E40" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2796,16 +2793,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C41" t="s">
         <v>320</v>
       </c>
       <c r="D41" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E41" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2813,16 +2810,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C42" t="s">
         <v>321</v>
       </c>
       <c r="D42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E42" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2830,16 +2827,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C43" t="s">
         <v>322</v>
       </c>
       <c r="D43" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E43" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2847,16 +2844,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C44" t="s">
         <v>323</v>
       </c>
       <c r="D44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E44" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2864,16 +2861,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C45" t="s">
         <v>324</v>
       </c>
       <c r="D45" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E45" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2881,16 +2878,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C46" t="s">
         <v>325</v>
       </c>
       <c r="D46" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E46" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2898,16 +2895,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C47" t="s">
         <v>326</v>
       </c>
       <c r="D47" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E47" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2915,16 +2912,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C48" t="s">
         <v>327</v>
       </c>
       <c r="D48" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E48" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2932,16 +2929,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C49" t="s">
         <v>328</v>
       </c>
       <c r="D49" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E49" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2949,16 +2946,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C50" t="s">
         <v>329</v>
       </c>
       <c r="D50" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E50" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2966,16 +2963,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C51" t="s">
         <v>330</v>
       </c>
       <c r="D51" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E51" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2983,16 +2980,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C52" t="s">
         <v>331</v>
       </c>
       <c r="D52" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E52" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3000,16 +2997,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C53" t="s">
         <v>332</v>
       </c>
       <c r="D53" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E53" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3017,16 +3014,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C54" t="s">
         <v>333</v>
       </c>
       <c r="D54" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E54" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3034,16 +3031,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C55" t="s">
         <v>334</v>
       </c>
       <c r="D55" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E55" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3051,16 +3048,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C56" t="s">
         <v>335</v>
       </c>
       <c r="D56" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E56" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3068,16 +3065,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C57" t="s">
         <v>336</v>
       </c>
       <c r="D57" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E57" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3085,16 +3082,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C58" t="s">
         <v>337</v>
       </c>
       <c r="D58" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E58" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3102,16 +3099,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C59" t="s">
         <v>338</v>
       </c>
       <c r="D59" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E59" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3119,16 +3116,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C60" t="s">
         <v>339</v>
       </c>
       <c r="D60" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E60" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3136,16 +3133,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C61" t="s">
         <v>340</v>
       </c>
       <c r="D61" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E61" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3153,16 +3150,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C62" t="s">
         <v>341</v>
       </c>
       <c r="D62" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E62" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3170,16 +3167,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C63" t="s">
         <v>342</v>
       </c>
       <c r="D63" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E63" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3187,16 +3184,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C64" t="s">
         <v>343</v>
       </c>
       <c r="D64" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E64" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3204,16 +3201,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C65" t="s">
         <v>344</v>
       </c>
       <c r="D65" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E65" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3221,16 +3218,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C66" t="s">
         <v>345</v>
       </c>
       <c r="D66" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E66" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3238,16 +3235,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C67" t="s">
         <v>346</v>
       </c>
       <c r="D67" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E67" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3255,16 +3252,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C68" t="s">
         <v>347</v>
       </c>
       <c r="D68" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E68" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3272,16 +3269,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C69" t="s">
         <v>348</v>
       </c>
       <c r="D69" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E69" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3289,16 +3286,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C70" t="s">
         <v>349</v>
       </c>
       <c r="D70" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E70" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3306,16 +3303,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C71" t="s">
         <v>350</v>
       </c>
       <c r="D71" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E71" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3323,16 +3320,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C72" t="s">
         <v>351</v>
       </c>
       <c r="D72" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E72" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3340,16 +3337,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C73" t="s">
         <v>352</v>
       </c>
       <c r="D73" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E73" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3357,16 +3354,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C74" t="s">
         <v>353</v>
       </c>
       <c r="D74" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E74" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3374,16 +3371,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C75" t="s">
         <v>354</v>
       </c>
       <c r="D75" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E75" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3391,16 +3388,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C76" t="s">
         <v>355</v>
       </c>
       <c r="D76" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E76" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3408,16 +3405,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C77" t="s">
         <v>356</v>
       </c>
       <c r="D77" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E77" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3425,16 +3422,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C78" t="s">
         <v>357</v>
       </c>
       <c r="D78" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E78" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3442,16 +3439,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C79" t="s">
         <v>358</v>
       </c>
       <c r="D79" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E79" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3459,16 +3456,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C80" t="s">
         <v>359</v>
       </c>
       <c r="D80" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E80" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3476,16 +3473,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C81" t="s">
         <v>360</v>
       </c>
       <c r="D81" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E81" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3493,16 +3490,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C82" t="s">
         <v>361</v>
       </c>
       <c r="D82" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E82" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3510,16 +3507,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C83" t="s">
         <v>362</v>
       </c>
       <c r="D83" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3527,16 +3524,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C84" t="s">
         <v>363</v>
       </c>
       <c r="D84" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E84" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3544,16 +3541,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C85" t="s">
         <v>364</v>
       </c>
       <c r="D85" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E85" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3561,16 +3558,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C86" t="s">
         <v>365</v>
       </c>
       <c r="D86" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E86" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3578,16 +3575,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C87" t="s">
         <v>366</v>
       </c>
       <c r="D87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E87" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3595,16 +3592,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C88" t="s">
         <v>367</v>
       </c>
       <c r="D88" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E88" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3612,16 +3609,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C89" t="s">
         <v>368</v>
       </c>
       <c r="D89" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E89" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3629,16 +3626,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C90" t="s">
         <v>369</v>
       </c>
       <c r="D90" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E90" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3646,16 +3643,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C91" t="s">
         <v>370</v>
       </c>
       <c r="D91" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3663,16 +3660,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C92" t="s">
         <v>371</v>
       </c>
       <c r="D92" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E92" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3680,16 +3677,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C93" t="s">
         <v>372</v>
       </c>
       <c r="D93" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E93" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3697,16 +3694,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C94" t="s">
         <v>373</v>
       </c>
       <c r="D94" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E94" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3714,16 +3711,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C95" t="s">
         <v>374</v>
       </c>
       <c r="D95" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E95" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3731,16 +3728,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C96" t="s">
         <v>375</v>
       </c>
       <c r="D96" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E96" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3748,16 +3745,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C97" t="s">
         <v>376</v>
       </c>
       <c r="D97" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E97" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3765,16 +3762,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C98" t="s">
         <v>377</v>
       </c>
       <c r="D98" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E98" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3782,16 +3779,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C99" t="s">
         <v>378</v>
       </c>
       <c r="D99" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E99" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3799,16 +3796,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C100" t="s">
         <v>379</v>
       </c>
       <c r="D100" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E100" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3816,16 +3813,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C101" t="s">
         <v>380</v>
       </c>
       <c r="D101" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E101" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3833,16 +3830,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C102" t="s">
         <v>381</v>
       </c>
       <c r="D102" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E102" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3850,16 +3847,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C103" t="s">
         <v>382</v>
       </c>
       <c r="D103" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E103" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3867,16 +3864,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C104" t="s">
         <v>383</v>
       </c>
       <c r="D104" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E104" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3884,16 +3881,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C105" t="s">
         <v>384</v>
       </c>
       <c r="D105" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E105" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3901,16 +3898,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C106" t="s">
         <v>385</v>
       </c>
       <c r="D106" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E106" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3918,16 +3915,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C107" t="s">
         <v>386</v>
       </c>
       <c r="D107" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E107" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3935,16 +3932,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C108" t="s">
         <v>387</v>
       </c>
       <c r="D108" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E108" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3952,16 +3949,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C109" t="s">
         <v>388</v>
       </c>
       <c r="D109" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E109" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3969,16 +3966,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C110" t="s">
         <v>389</v>
       </c>
       <c r="D110" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E110" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3986,16 +3983,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C111" t="s">
         <v>390</v>
       </c>
       <c r="D111" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E111" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4003,16 +4000,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C112" t="s">
         <v>391</v>
       </c>
       <c r="D112" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E112" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4020,16 +4017,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C113" t="s">
         <v>392</v>
       </c>
       <c r="D113" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E113" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4037,16 +4034,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C114" t="s">
         <v>393</v>
       </c>
       <c r="D114" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E114" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4054,16 +4051,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C115" t="s">
         <v>394</v>
       </c>
       <c r="D115" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E115" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4071,16 +4068,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C116" t="s">
         <v>395</v>
       </c>
       <c r="D116" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E116" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4088,16 +4085,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C117" t="s">
         <v>396</v>
       </c>
       <c r="D117" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E117" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4105,16 +4102,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C118" t="s">
         <v>397</v>
       </c>
       <c r="D118" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E118" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4122,16 +4119,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C119" t="s">
         <v>398</v>
       </c>
       <c r="D119" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E119" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4139,16 +4136,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C120" t="s">
         <v>399</v>
       </c>
       <c r="D120" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E120" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4156,16 +4153,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C121" t="s">
         <v>400</v>
       </c>
       <c r="D121" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E121" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4173,16 +4170,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C122" t="s">
         <v>401</v>
       </c>
       <c r="D122" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E122" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4190,16 +4187,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C123" t="s">
         <v>402</v>
       </c>
       <c r="D123" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E123" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4207,16 +4204,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C124" t="s">
         <v>403</v>
       </c>
       <c r="D124" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E124" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4224,16 +4221,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C125" t="s">
         <v>404</v>
       </c>
       <c r="D125" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E125" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4241,16 +4238,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C126" t="s">
         <v>405</v>
       </c>
       <c r="D126" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E126" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4258,16 +4255,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C127" t="s">
         <v>406</v>
       </c>
       <c r="D127" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E127" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4275,16 +4272,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C128" t="s">
         <v>407</v>
       </c>
       <c r="D128" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E128" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4292,16 +4289,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C129" t="s">
         <v>408</v>
       </c>
       <c r="D129" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E129" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4309,16 +4306,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C130" t="s">
         <v>409</v>
       </c>
       <c r="D130" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E130" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4326,16 +4323,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C131" t="s">
         <v>410</v>
       </c>
       <c r="D131" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E131" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4343,16 +4340,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C132" t="s">
         <v>411</v>
       </c>
       <c r="D132" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E132" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4360,16 +4357,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C133" t="s">
         <v>412</v>
       </c>
       <c r="D133" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E133" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4383,10 +4380,10 @@
         <v>413</v>
       </c>
       <c r="D134" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E134" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4394,16 +4391,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C135" t="s">
         <v>414</v>
       </c>
       <c r="D135" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E135" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4411,16 +4408,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C136" t="s">
         <v>415</v>
       </c>
       <c r="D136" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E136" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4428,16 +4425,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C137" t="s">
         <v>416</v>
       </c>
       <c r="D137" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E137" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4445,16 +4442,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C138" t="s">
         <v>417</v>
       </c>
       <c r="D138" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E138" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4462,16 +4459,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C139" t="s">
         <v>418</v>
       </c>
       <c r="D139" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E139" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4479,16 +4476,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C140" t="s">
         <v>419</v>
       </c>
       <c r="D140" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E140" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4496,16 +4493,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C141" t="s">
         <v>420</v>
       </c>
       <c r="D141" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E141" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4513,16 +4510,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C142" t="s">
         <v>421</v>
       </c>
       <c r="D142" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E142" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4530,16 +4527,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C143" t="s">
         <v>422</v>
       </c>
       <c r="D143" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E143" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4547,16 +4544,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C144" t="s">
         <v>423</v>
       </c>
       <c r="D144" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E144" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4564,16 +4561,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C145" t="s">
         <v>424</v>
       </c>
       <c r="D145" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E145" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4581,16 +4578,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C146" t="s">
         <v>425</v>
       </c>
       <c r="D146" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E146" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4598,16 +4595,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C147" t="s">
         <v>426</v>
       </c>
       <c r="D147" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E147" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4615,16 +4612,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C148" t="s">
         <v>427</v>
       </c>
       <c r="D148" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E148" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4632,16 +4629,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C149" t="s">
         <v>428</v>
       </c>
       <c r="D149" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E149" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4649,16 +4646,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C150" t="s">
         <v>429</v>
       </c>
       <c r="D150" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E150" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4666,16 +4663,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C151" t="s">
         <v>430</v>
       </c>
       <c r="D151" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E151" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4683,16 +4680,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C152" t="s">
         <v>431</v>
       </c>
       <c r="D152" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E152" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4700,16 +4697,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C153" t="s">
         <v>432</v>
       </c>
       <c r="D153" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E153" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4717,16 +4714,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C154" t="s">
         <v>433</v>
       </c>
       <c r="D154" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E154" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4734,16 +4731,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C155" t="s">
         <v>434</v>
       </c>
       <c r="D155" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E155" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4751,16 +4748,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C156" t="s">
         <v>435</v>
       </c>
       <c r="D156" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E156" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4768,16 +4765,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C157" t="s">
         <v>436</v>
       </c>
       <c r="D157" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E157" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4785,16 +4782,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C158" t="s">
         <v>437</v>
       </c>
       <c r="D158" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E158" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4802,16 +4799,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C159" t="s">
         <v>438</v>
       </c>
       <c r="D159" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E159" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4819,16 +4816,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C160" t="s">
         <v>439</v>
       </c>
       <c r="D160" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E160" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4836,16 +4833,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C161" t="s">
         <v>440</v>
       </c>
       <c r="D161" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E161" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4853,16 +4850,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C162" t="s">
         <v>441</v>
       </c>
       <c r="D162" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E162" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4870,16 +4867,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C163" t="s">
         <v>442</v>
       </c>
       <c r="D163" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E163" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4887,16 +4884,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C164" t="s">
         <v>443</v>
       </c>
       <c r="D164" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E164" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4910,10 +4907,10 @@
         <v>444</v>
       </c>
       <c r="D165" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E165" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4921,16 +4918,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C166" t="s">
         <v>445</v>
       </c>
       <c r="D166" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E166" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4938,16 +4935,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C167" t="s">
         <v>446</v>
       </c>
       <c r="D167" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E167" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4955,16 +4952,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C168" t="s">
         <v>447</v>
       </c>
       <c r="D168" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E168" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4972,16 +4969,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C169" t="s">
         <v>448</v>
       </c>
       <c r="D169" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E169" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4989,16 +4986,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C170" t="s">
         <v>449</v>
       </c>
       <c r="D170" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E170" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5006,16 +5003,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C171" t="s">
         <v>450</v>
       </c>
       <c r="D171" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E171" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5023,16 +5020,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C172" t="s">
         <v>451</v>
       </c>
       <c r="D172" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E172" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5040,16 +5037,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C173" t="s">
         <v>452</v>
       </c>
       <c r="D173" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E173" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5057,16 +5054,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C174" t="s">
         <v>453</v>
       </c>
       <c r="D174" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E174" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5074,16 +5071,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C175" t="s">
         <v>454</v>
       </c>
       <c r="D175" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E175" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5091,16 +5088,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C176" t="s">
         <v>455</v>
       </c>
       <c r="D176" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E176" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5108,16 +5105,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C177" t="s">
         <v>456</v>
       </c>
       <c r="D177" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E177" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5125,16 +5122,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C178" t="s">
         <v>457</v>
       </c>
       <c r="D178" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E178" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5142,16 +5139,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C179" t="s">
         <v>458</v>
       </c>
       <c r="D179" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E179" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5159,16 +5156,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C180" t="s">
         <v>459</v>
       </c>
       <c r="D180" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E180" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5176,16 +5173,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C181" t="s">
         <v>460</v>
       </c>
       <c r="D181" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E181" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5193,16 +5190,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C182" t="s">
         <v>461</v>
       </c>
       <c r="D182" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E182" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5210,16 +5207,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C183" t="s">
         <v>462</v>
       </c>
       <c r="D183" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E183" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5227,16 +5224,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C184" t="s">
         <v>463</v>
       </c>
       <c r="D184" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E184" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5250,10 +5247,10 @@
         <v>464</v>
       </c>
       <c r="D185" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E185" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5261,16 +5258,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C186" t="s">
         <v>465</v>
       </c>
       <c r="D186" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E186" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5278,16 +5275,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C187" t="s">
         <v>466</v>
       </c>
       <c r="D187" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E187" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5295,16 +5292,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C188" t="s">
         <v>467</v>
       </c>
       <c r="D188" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E188" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5312,16 +5309,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C189" t="s">
         <v>468</v>
       </c>
       <c r="D189" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E189" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5329,16 +5326,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C190" t="s">
         <v>469</v>
       </c>
       <c r="D190" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E190" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5346,16 +5343,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C191" t="s">
         <v>470</v>
       </c>
       <c r="D191" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E191" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5369,10 +5366,10 @@
         <v>471</v>
       </c>
       <c r="D192" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E192" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5380,16 +5377,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C193" t="s">
         <v>472</v>
       </c>
       <c r="D193" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E193" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5397,16 +5394,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C194" t="s">
         <v>473</v>
       </c>
       <c r="D194" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E194" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5414,16 +5411,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C195" t="s">
         <v>474</v>
       </c>
       <c r="D195" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E195" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5431,16 +5428,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C196" t="s">
         <v>475</v>
       </c>
       <c r="D196" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E196" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5448,16 +5445,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C197" t="s">
         <v>476</v>
       </c>
       <c r="D197" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E197" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5465,16 +5462,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C198" t="s">
         <v>477</v>
       </c>
       <c r="D198" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E198" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5482,16 +5479,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C199" t="s">
         <v>478</v>
       </c>
       <c r="D199" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E199" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5499,16 +5496,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C200" t="s">
         <v>479</v>
       </c>
       <c r="D200" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E200" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5516,16 +5513,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C201" t="s">
         <v>480</v>
       </c>
       <c r="D201" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E201" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5533,16 +5530,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C202" t="s">
         <v>481</v>
       </c>
       <c r="D202" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E202" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5550,16 +5547,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C203" t="s">
         <v>482</v>
       </c>
       <c r="D203" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E203" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5567,16 +5564,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C204" t="s">
         <v>483</v>
       </c>
       <c r="D204" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E204" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5584,16 +5581,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C205" t="s">
         <v>484</v>
       </c>
       <c r="D205" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E205" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5601,16 +5598,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C206" t="s">
         <v>485</v>
       </c>
       <c r="D206" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E206" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5618,16 +5615,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C207" t="s">
         <v>486</v>
       </c>
       <c r="D207" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E207" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5635,16 +5632,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C208" t="s">
         <v>487</v>
       </c>
       <c r="D208" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E208" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5652,16 +5649,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C209" t="s">
         <v>488</v>
       </c>
       <c r="D209" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E209" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5669,16 +5666,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C210" t="s">
         <v>489</v>
       </c>
       <c r="D210" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E210" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5686,16 +5683,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C211" t="s">
         <v>490</v>
       </c>
       <c r="D211" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E211" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5703,16 +5700,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C212" t="s">
         <v>491</v>
       </c>
       <c r="D212" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E212" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5720,16 +5717,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C213" t="s">
         <v>492</v>
       </c>
       <c r="D213" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E213" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5737,16 +5734,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C214" t="s">
         <v>493</v>
       </c>
       <c r="D214" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E214" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5754,16 +5751,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C215" t="s">
         <v>494</v>
       </c>
       <c r="D215" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E215" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5771,16 +5768,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C216" t="s">
         <v>495</v>
       </c>
       <c r="D216" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E216" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5788,16 +5785,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C217" t="s">
         <v>496</v>
       </c>
       <c r="D217" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E217" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5805,16 +5802,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C218" t="s">
         <v>497</v>
       </c>
       <c r="D218" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E218" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5822,16 +5819,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C219" t="s">
         <v>498</v>
       </c>
       <c r="D219" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E219" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5839,16 +5836,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C220" t="s">
         <v>499</v>
       </c>
       <c r="D220" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E220" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5856,16 +5853,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C221" t="s">
         <v>500</v>
       </c>
       <c r="D221" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E221" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5873,16 +5870,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C222" t="s">
         <v>501</v>
       </c>
       <c r="D222" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E222" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5890,16 +5887,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C223" t="s">
         <v>502</v>
       </c>
       <c r="D223" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E223" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5907,16 +5904,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C224" t="s">
         <v>503</v>
       </c>
       <c r="D224" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E224" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5924,16 +5921,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C225" t="s">
         <v>504</v>
       </c>
       <c r="D225" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E225" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5941,16 +5938,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C226" t="s">
         <v>505</v>
       </c>
       <c r="D226" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E226" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5958,16 +5955,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C227" t="s">
         <v>506</v>
       </c>
       <c r="D227" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E227" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5975,16 +5972,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C228" t="s">
         <v>507</v>
       </c>
       <c r="D228" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E228" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5992,16 +5989,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C229" t="s">
         <v>508</v>
       </c>
       <c r="D229" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E229" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6009,16 +6006,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C230" t="s">
         <v>509</v>
       </c>
       <c r="D230" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E230" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6026,16 +6023,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C231" t="s">
         <v>510</v>
       </c>
       <c r="D231" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E231" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6043,16 +6040,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C232" t="s">
         <v>511</v>
       </c>
       <c r="D232" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E232" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6060,16 +6057,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C233" t="s">
         <v>512</v>
       </c>
       <c r="D233" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E233" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6077,16 +6074,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C234" t="s">
         <v>513</v>
       </c>
       <c r="D234" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E234" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6094,16 +6091,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C235" t="s">
         <v>514</v>
       </c>
       <c r="D235" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E235" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6111,16 +6108,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C236" t="s">
         <v>515</v>
       </c>
       <c r="D236" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E236" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6128,16 +6125,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C237" t="s">
         <v>516</v>
       </c>
       <c r="D237" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E237" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6145,16 +6142,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C238" t="s">
         <v>517</v>
       </c>
       <c r="D238" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E238" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6162,16 +6159,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C239" t="s">
         <v>518</v>
       </c>
       <c r="D239" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E239" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6179,16 +6176,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C240" t="s">
         <v>519</v>
       </c>
       <c r="D240" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E240" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6196,16 +6193,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C241" t="s">
         <v>520</v>
       </c>
       <c r="D241" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E241" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6213,16 +6210,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C242" t="s">
         <v>521</v>
       </c>
       <c r="D242" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E242" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6230,16 +6227,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C243" t="s">
         <v>522</v>
       </c>
       <c r="D243" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E243" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6247,16 +6244,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C244" t="s">
         <v>523</v>
       </c>
       <c r="D244" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E244" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6264,16 +6261,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C245" t="s">
         <v>524</v>
       </c>
       <c r="D245" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E245" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6281,16 +6278,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C246" t="s">
         <v>525</v>
       </c>
       <c r="D246" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E246" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6298,16 +6295,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C247" t="s">
         <v>526</v>
       </c>
       <c r="D247" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E247" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6315,16 +6312,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C248" t="s">
         <v>527</v>
       </c>
       <c r="D248" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E248" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6332,16 +6329,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C249" t="s">
         <v>528</v>
       </c>
       <c r="D249" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E249" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6349,16 +6346,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C250" t="s">
         <v>529</v>
       </c>
       <c r="D250" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E250" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6366,16 +6363,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C251" t="s">
         <v>530</v>
       </c>
       <c r="D251" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E251" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6383,16 +6380,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C252" t="s">
         <v>531</v>
       </c>
       <c r="D252" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E252" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6400,16 +6397,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C253" t="s">
         <v>532</v>
       </c>
       <c r="D253" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E253" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6417,16 +6414,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C254" t="s">
         <v>533</v>
       </c>
       <c r="D254" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E254" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6434,16 +6431,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C255" t="s">
         <v>534</v>
       </c>
       <c r="D255" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E255" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6451,16 +6448,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C256" t="s">
         <v>535</v>
       </c>
       <c r="D256" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E256" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6468,16 +6465,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C257" t="s">
         <v>536</v>
       </c>
       <c r="D257" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E257" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6485,16 +6482,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C258" t="s">
         <v>537</v>
       </c>
       <c r="D258" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E258" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6502,16 +6499,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C259" t="s">
         <v>538</v>
       </c>
       <c r="D259" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E259" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6519,16 +6516,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C260" t="s">
         <v>539</v>
       </c>
       <c r="D260" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E260" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6536,16 +6533,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C261" t="s">
         <v>540</v>
       </c>
       <c r="D261" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E261" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6553,16 +6550,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C262" t="s">
         <v>541</v>
       </c>
       <c r="D262" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E262" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6570,16 +6567,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C263" t="s">
         <v>542</v>
       </c>
       <c r="D263" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E263" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6587,16 +6584,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C264" t="s">
         <v>543</v>
       </c>
       <c r="D264" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E264" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6604,16 +6601,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C265" t="s">
         <v>544</v>
       </c>
       <c r="D265" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E265" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6621,16 +6618,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C266" t="s">
         <v>545</v>
       </c>
       <c r="D266" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E266" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6638,16 +6635,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C267" t="s">
         <v>546</v>
       </c>
       <c r="D267" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E267" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6655,16 +6652,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C268" t="s">
         <v>547</v>
       </c>
       <c r="D268" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E268" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -1423,7 +1423,7 @@
     <t>appeared; manifested; lit. was visible</t>
   </si>
   <si>
-    <t>is</t>
+    <t>is; becomes</t>
   </si>
   <si>
     <t>may it be (for)!</t>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -604,27 +604,27 @@
     <t>hotha</t>
   </si>
   <si>
+    <t>udapādi 1</t>
+  </si>
+  <si>
+    <t>abhinandi 1</t>
+  </si>
+  <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
+    <t>abhāsi 1</t>
+  </si>
+  <si>
+    <t>paccassosi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>udapādi 1</t>
-  </si>
-  <si>
-    <t>abhinandi 1</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>abhāsi 1</t>
-  </si>
-  <si>
-    <t>paccassosi</t>
-  </si>
-  <si>
     <t>apucchi</t>
   </si>
   <si>
@@ -1042,7 +1042,7 @@
     <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
   </si>
   <si>
-    <t>trainee; apprentice; learner; initiate</t>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
   </si>
   <si>
     <t>quality; characteristic; trait; inherent quality</t>
@@ -1252,7 +1252,7 @@
     <t>increases more and more; surpasses; outgrows</t>
   </si>
   <si>
-    <t>wards off; prevents; guards against</t>
+    <t>protects; guards; watches over</t>
   </si>
   <si>
     <t>go!; begone!</t>
@@ -1432,25 +1432,25 @@
     <t>may you all be!; I pray you all may be!</t>
   </si>
   <si>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
+  </si>
+  <si>
+    <t>replied (to); agreed (with)</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
-  </si>
-  <si>
-    <t>arose (for); sprung up (for)</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
-    <t>replied (to); agreed (with)</t>
   </si>
   <si>
     <t>asked; enquired</t>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -640,27 +640,27 @@
     <t>gahapati</t>
   </si>
   <si>
+    <t>muni 1</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>gāmaṇi</t>
+  </si>
+  <si>
+    <t>ñāti</t>
+  </si>
+  <si>
+    <t>byādhi</t>
+  </si>
+  <si>
     <t>sāli</t>
   </si>
   <si>
-    <t>muni 1</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>gāmaṇi</t>
-  </si>
-  <si>
-    <t>ñāti</t>
-  </si>
-  <si>
-    <t>byādhi</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -1468,27 +1468,27 @@
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
+    <t>monk; sage; seer; hermit; silent sage</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
+  </si>
+  <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
+    <t>sickness; disease; illness; lit. upset</t>
+  </si>
+  <si>
     <t>fine rice</t>
   </si>
   <si>
-    <t>monk; sage; seer; hermit; silent sage</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
-    <t>sickness; disease; illness; lit. upset</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -1582,7 +1582,7 @@
     <t>with; together (with); accompanied (by)</t>
   </si>
   <si>
-    <t>do not; may one not; don’t let</t>
+    <t>do not; may one not; don't let</t>
   </si>
   <si>
     <t>no; not; neither; nor</t>

--- a/pali-class/vocab/vocab-class5.xlsx
+++ b/pali-class/vocab/vocab-class5.xlsx
@@ -91,285 +91,285 @@
     <t>saṃvara 2</t>
   </si>
   <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>bheda 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
     <t>anālaya 1</t>
   </si>
   <si>
@@ -718,21 +718,21 @@
     <t>me 3</t>
   </si>
   <si>
+    <t>no 2.4</t>
+  </si>
+  <si>
+    <t>maṃ 1</t>
+  </si>
+  <si>
+    <t>mayā 1</t>
+  </si>
+  <si>
+    <t>amhākaṃ 3</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
-    <t>no 2.4</t>
-  </si>
-  <si>
-    <t>maṃ 1</t>
-  </si>
-  <si>
-    <t>mayā 1</t>
-  </si>
-  <si>
-    <t>amhākaṃ 3</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -919,285 +919,285 @@
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
     <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
   </si>
   <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>death; lit. breakup</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
     <t>non-clinging; non-attachment; non-reliance; unstuck</t>
   </si>
   <si>
@@ -1546,19 +1546,19 @@
     <t>to me; for me</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>me (object)</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>our; of us; my (royal plural)</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>me (object)</t>
-  </si>
-  <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>our; of us; my (royal plural)</t>
   </si>
   <si>
     <t>looks beautiful (in); lit. shines</t>
